--- a/Tables/разводы.xlsx
+++ b/Tables/разводы.xlsx
@@ -1142,262 +1142,262 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-50.70578231292517</v>
+        <v>-15.21173469387755</v>
       </c>
       <c r="C3" t="n">
-        <v>-52.01668984700974</v>
+        <v>-15.60500695410292</v>
       </c>
       <c r="D3" t="n">
-        <v>-53.41026595524673</v>
+        <v>-16.02307978657402</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.63551401869159</v>
+        <v>-15.49065420560748</v>
       </c>
       <c r="F3" t="n">
-        <v>-52.41415742208135</v>
+        <v>-15.72424722662441</v>
       </c>
       <c r="G3" t="n">
-        <v>-51.33715377268386</v>
+        <v>-15.40114613180516</v>
       </c>
       <c r="H3" t="n">
-        <v>-49.47781432115862</v>
+        <v>-14.84334429634759</v>
       </c>
       <c r="I3" t="n">
-        <v>-52.73775216138329</v>
+        <v>-15.82132564841499</v>
       </c>
       <c r="J3" t="n">
-        <v>-51.78177716248783</v>
+        <v>-15.53453314874635</v>
       </c>
       <c r="K3" t="n">
-        <v>-51.27768313458262</v>
+        <v>-15.38330494037479</v>
       </c>
       <c r="L3" t="n">
-        <v>-47.16116313454904</v>
+        <v>-14.14834894036471</v>
       </c>
       <c r="M3" t="n">
-        <v>-52.41899689303151</v>
+        <v>-15.72569906790945</v>
       </c>
       <c r="N3" t="n">
-        <v>-50.64040469271338</v>
+        <v>-15.19212140781401</v>
       </c>
       <c r="O3" t="n">
-        <v>-51.45421495114747</v>
+        <v>-15.43626448534424</v>
       </c>
       <c r="P3" t="n">
-        <v>-51.36109608797548</v>
+        <v>-15.40832882639264</v>
       </c>
       <c r="Q3" t="n">
-        <v>-50.51574012056263</v>
+        <v>-15.15472203616879</v>
       </c>
       <c r="R3" t="n">
-        <v>-52.05323938148366</v>
+        <v>-15.6159718144451</v>
       </c>
       <c r="S3" t="n">
-        <v>-51.89826417896594</v>
+        <v>-15.56947925368978</v>
       </c>
       <c r="T3" t="n">
-        <v>-46.44772724335363</v>
+        <v>-13.93431817300609</v>
       </c>
       <c r="U3" t="n">
-        <v>-54.00530989654857</v>
+        <v>-16.20159296896457</v>
       </c>
       <c r="V3" t="n">
-        <v>-52.4212852145093</v>
+        <v>-15.72638556435279</v>
       </c>
       <c r="W3" t="n">
-        <v>-52.50263183079721</v>
+        <v>-15.75078954923916</v>
       </c>
       <c r="X3" t="n">
-        <v>-52.45046923879041</v>
+        <v>-15.73514077163712</v>
       </c>
       <c r="Y3" t="n">
-        <v>-55.75893812888032</v>
+        <v>-16.7276814386641</v>
       </c>
       <c r="Z3" t="n">
-        <v>-47.37119654063176</v>
+        <v>-14.21135896218953</v>
       </c>
       <c r="AA3" t="n">
-        <v>-49.91880480675544</v>
+        <v>-14.97564144202663</v>
       </c>
       <c r="AB3" t="n">
-        <v>-50.33738191632929</v>
+        <v>-15.10121457489879</v>
       </c>
       <c r="AC3" t="n">
-        <v>-49.04171364148816</v>
+        <v>-14.71251409244645</v>
       </c>
       <c r="AD3" t="n">
-        <v>-51.53234960272418</v>
+        <v>-15.45970488081725</v>
       </c>
       <c r="AE3" t="n">
-        <v>-47.84294397897158</v>
+        <v>-14.35288319369147</v>
       </c>
       <c r="AF3" t="n">
-        <v>-53.77648390748828</v>
+        <v>-16.13294517224648</v>
       </c>
       <c r="AG3" t="n">
-        <v>-52.64142122487143</v>
+        <v>-15.79242636746143</v>
       </c>
       <c r="AH3" t="n">
-        <v>-48.29533116178067</v>
+        <v>-14.4885993485342</v>
       </c>
       <c r="AI3" t="n">
-        <v>-51.41396933560477</v>
+        <v>-15.42419080068143</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-51.74809668120334</v>
+        <v>-15.524429004361</v>
       </c>
       <c r="AK3" t="n">
-        <v>-51.76558546123764</v>
+        <v>-15.52967563837129</v>
       </c>
       <c r="AL3" t="n">
-        <v>-47.89219073946096</v>
+        <v>-14.36765722183829</v>
       </c>
       <c r="AM3" t="n">
-        <v>-43.82183908045977</v>
+        <v>-13.14655172413793</v>
       </c>
       <c r="AN3" t="n">
-        <v>-45.85679806918745</v>
+        <v>-13.75703942075623</v>
       </c>
       <c r="AO3" t="n">
-        <v>-47.5886524822695</v>
+        <v>-14.27659574468085</v>
       </c>
       <c r="AP3" t="n">
-        <v>-48.78587196467991</v>
+        <v>-14.63576158940397</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-48.84758364312268</v>
+        <v>-14.6542750929368</v>
       </c>
       <c r="AR3" t="n">
-        <v>-49.72645420867987</v>
+        <v>-14.91793626260396</v>
       </c>
       <c r="AS3" t="n">
-        <v>-50.30985550863227</v>
+        <v>-15.09295665258968</v>
       </c>
       <c r="AT3" t="n">
-        <v>-54.58768873403019</v>
+        <v>-16.37630662020906</v>
       </c>
       <c r="AU3" t="n">
-        <v>-54.00502372313704</v>
+        <v>-16.20150711694111</v>
       </c>
       <c r="AV3" t="n">
-        <v>-50.511892249601</v>
+        <v>-15.1535676748803</v>
       </c>
       <c r="AW3" t="n">
-        <v>-53.76195732155998</v>
+        <v>-16.12858719646799</v>
       </c>
       <c r="AX3" t="n">
-        <v>-51.29980563654033</v>
+        <v>-15.3899416909621</v>
       </c>
       <c r="AY3" t="n">
-        <v>-53.21844786421767</v>
+        <v>-15.9655343592653</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-52.55667789001123</v>
+        <v>-15.76700336700337</v>
       </c>
       <c r="BA3" t="n">
-        <v>-51.8419389613769</v>
+        <v>-15.55258168841307</v>
       </c>
       <c r="BB3" t="n">
-        <v>-53.16531396838958</v>
+        <v>-15.94959419051687</v>
       </c>
       <c r="BC3" t="n">
-        <v>-53.51648351648352</v>
+        <v>-16.05494505494505</v>
       </c>
       <c r="BD3" t="n">
-        <v>-51.55227872348116</v>
+        <v>-15.46568361704435</v>
       </c>
       <c r="BE3" t="n">
-        <v>-52.23998421156503</v>
+        <v>-15.67199526346951</v>
       </c>
       <c r="BF3" t="n">
-        <v>-53.7551744529864</v>
+        <v>-16.12655233589592</v>
       </c>
       <c r="BG3" t="n">
-        <v>-53.33212494713311</v>
+        <v>-15.99963748413993</v>
       </c>
       <c r="BH3" t="n">
-        <v>-51.42167663414122</v>
+        <v>-15.42650299024237</v>
       </c>
       <c r="BI3" t="n">
-        <v>-49.49436816574858</v>
+        <v>-14.84831044972457</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-47.83814227536609</v>
+        <v>-14.35144268260983</v>
       </c>
       <c r="BK3" t="n">
-        <v>-52.10225361587622</v>
+        <v>-15.63067608476286</v>
       </c>
       <c r="BL3" t="n">
-        <v>-53.86075091492341</v>
+        <v>-16.15822527447703</v>
       </c>
       <c r="BM3" t="n">
-        <v>-60.79601990049751</v>
+        <v>-18.23880597014925</v>
       </c>
       <c r="BN3" t="n">
-        <v>-55.42429612128372</v>
+        <v>-16.62728883638512</v>
       </c>
       <c r="BO3" t="n">
-        <v>-52.75080906148867</v>
+        <v>-15.8252427184466</v>
       </c>
       <c r="BP3" t="n">
-        <v>-55.27976005791706</v>
+        <v>-16.58392801737512</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-56.53313450371675</v>
+        <v>-16.95994035111503</v>
       </c>
       <c r="BR3" t="n">
-        <v>-54.13768773309143</v>
+        <v>-16.24130631992742</v>
       </c>
       <c r="BS3" t="n">
-        <v>-44.38672072985301</v>
+        <v>-13.3160162189559</v>
       </c>
       <c r="BT3" t="n">
-        <v>-52.43022693335016</v>
+        <v>-15.72906808000505</v>
       </c>
       <c r="BU3" t="n">
-        <v>-52.57857796765334</v>
+        <v>-15.773573390296</v>
       </c>
       <c r="BV3" t="n">
-        <v>-52.95569265283231</v>
+        <v>-15.88670779584969</v>
       </c>
       <c r="BW3" t="n">
-        <v>-52.19794235184083</v>
+        <v>-15.65938270555225</v>
       </c>
       <c r="BX3" t="n">
-        <v>-52.16746157922629</v>
+        <v>-15.65023847376789</v>
       </c>
       <c r="BY3" t="n">
-        <v>-47.52436647173489</v>
+        <v>-14.25730994152047</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-52.16637781629117</v>
+        <v>-15.64991334488735</v>
       </c>
       <c r="CA3" t="n">
-        <v>-51.33433047311659</v>
+        <v>-15.40029914193498</v>
       </c>
       <c r="CB3" t="n">
-        <v>-51.9378178952647</v>
+        <v>-15.58134536857941</v>
       </c>
       <c r="CC3" t="n">
-        <v>-51.34972282477705</v>
+        <v>-15.40491684743312</v>
       </c>
       <c r="CD3" t="n">
-        <v>-50.54316752429961</v>
+        <v>-15.16295025728988</v>
       </c>
       <c r="CE3" t="n">
-        <v>-49.40443467106468</v>
+        <v>-14.82133040131941</v>
       </c>
       <c r="CF3" t="n">
-        <v>-51.95195195195195</v>
+        <v>-15.58558558558558</v>
       </c>
       <c r="CG3" t="n">
-        <v>-43.20987654320987</v>
+        <v>-12.96296296296296</v>
       </c>
       <c r="CH3" t="n">
-        <v>-40.23027621802508</v>
+        <v>-12.06908286540752</v>
       </c>
       <c r="CI3" t="n">
-        <v>-29.04421498543818</v>
+        <v>-8.713264495631453</v>
       </c>
     </row>
     <row r="4">
@@ -1407,262 +1407,262 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.85061238571674</v>
+        <v>23.35518371571502</v>
       </c>
       <c r="C4" t="n">
-        <v>81.40096618357488</v>
+        <v>24.42028985507246</v>
       </c>
       <c r="D4" t="n">
-        <v>74.0411931818182</v>
+        <v>22.21235795454546</v>
       </c>
       <c r="E4" t="n">
-        <v>76.68634818393272</v>
+        <v>23.00590445517982</v>
       </c>
       <c r="F4" t="n">
-        <v>78.39698046181174</v>
+        <v>23.51909413854352</v>
       </c>
       <c r="G4" t="n">
-        <v>76.3738959764475</v>
+        <v>22.91216879293425</v>
       </c>
       <c r="H4" t="n">
-        <v>75.55961626313386</v>
+        <v>22.66788487894016</v>
       </c>
       <c r="I4" t="n">
-        <v>75.53584626755358</v>
+        <v>22.66075388026607</v>
       </c>
       <c r="J4" t="n">
-        <v>78.43470863462356</v>
+        <v>23.53041259038707</v>
       </c>
       <c r="K4" t="n">
-        <v>74.76160203432931</v>
+        <v>22.42848061029879</v>
       </c>
       <c r="L4" t="n">
-        <v>75.51845288063923</v>
+        <v>22.65553586419177</v>
       </c>
       <c r="M4" t="n">
-        <v>80.50373134328358</v>
+        <v>24.15111940298507</v>
       </c>
       <c r="N4" t="n">
-        <v>79.65547317924117</v>
+        <v>23.89664195377235</v>
       </c>
       <c r="O4" t="n">
-        <v>81.04376316405336</v>
+        <v>24.31312894921601</v>
       </c>
       <c r="P4" t="n">
-        <v>76.84704719545341</v>
+        <v>23.05411415863602</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.4450460205739</v>
+        <v>22.33351380617217</v>
       </c>
       <c r="R4" t="n">
-        <v>72.32201175702156</v>
+        <v>21.69660352710646</v>
       </c>
       <c r="S4" t="n">
-        <v>77.11308375144733</v>
+        <v>23.1339251254342</v>
       </c>
       <c r="T4" t="n">
-        <v>77.30421141547002</v>
+        <v>23.19126342464101</v>
       </c>
       <c r="U4" t="n">
-        <v>79.21974522292994</v>
+        <v>23.76592356687898</v>
       </c>
       <c r="V4" t="n">
-        <v>77.50257997936018</v>
+        <v>23.25077399380805</v>
       </c>
       <c r="W4" t="n">
-        <v>74.55168245013097</v>
+        <v>22.36550473503929</v>
       </c>
       <c r="X4" t="n">
-        <v>74.62406015037594</v>
+        <v>22.38721804511278</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.86135978707958</v>
+        <v>24.25840793612387</v>
       </c>
       <c r="Z4" t="n">
-        <v>77.63527054108216</v>
+        <v>23.29058116232465</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.63683527885863</v>
+        <v>23.89105058365758</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.98616600790514</v>
+        <v>21.59584980237154</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.88053097345133</v>
+        <v>23.0641592920354</v>
       </c>
       <c r="AD4" t="n">
-        <v>81.26463700234193</v>
+        <v>24.37939110070258</v>
       </c>
       <c r="AE4" t="n">
-        <v>74.48238209231027</v>
+        <v>22.34471462769308</v>
       </c>
       <c r="AF4" t="n">
-        <v>85.72428271518544</v>
+        <v>25.71728481455563</v>
       </c>
       <c r="AG4" t="n">
-        <v>76.4067127344521</v>
+        <v>22.92201382033563</v>
       </c>
       <c r="AH4" t="n">
-        <v>78.16463670726586</v>
+        <v>23.44939101217976</v>
       </c>
       <c r="AI4" t="n">
-        <v>74.66105656848994</v>
+        <v>22.39831697054698</v>
       </c>
       <c r="AJ4" t="n">
-        <v>78.64583333333334</v>
+        <v>23.59375</v>
       </c>
       <c r="AK4" t="n">
-        <v>81.35209252414451</v>
+        <v>24.40562775724336</v>
       </c>
       <c r="AL4" t="n">
-        <v>76.96728558797523</v>
+        <v>23.09018567639257</v>
       </c>
       <c r="AM4" t="n">
-        <v>75.1918158567775</v>
+        <v>22.55754475703325</v>
       </c>
       <c r="AN4" t="n">
-        <v>71.76820208023774</v>
+        <v>21.53046062407132</v>
       </c>
       <c r="AO4" t="n">
-        <v>84.23545331529093</v>
+        <v>25.27063599458728</v>
       </c>
       <c r="AP4" t="n">
-        <v>80.63218390804599</v>
+        <v>24.18965517241379</v>
       </c>
       <c r="AQ4" t="n">
-        <v>78.58527131782947</v>
+        <v>23.57558139534884</v>
       </c>
       <c r="AR4" t="n">
-        <v>79.47491704079641</v>
+        <v>23.84247511223892</v>
       </c>
       <c r="AS4" t="n">
-        <v>76.04689026375773</v>
+        <v>22.81406707912732</v>
       </c>
       <c r="AT4" t="n">
-        <v>79.62489343563513</v>
+        <v>23.88746803069054</v>
       </c>
       <c r="AU4" t="n">
-        <v>78.31715210355986</v>
+        <v>23.49514563106796</v>
       </c>
       <c r="AV4" t="n">
-        <v>75.67843939274758</v>
+        <v>22.70353181782427</v>
       </c>
       <c r="AW4" t="n">
-        <v>80.26656057290629</v>
+        <v>24.07996817187189</v>
       </c>
       <c r="AX4" t="n">
-        <v>74.65702170117238</v>
+        <v>22.39710651035171</v>
       </c>
       <c r="AY4" t="n">
-        <v>79.47448206164729</v>
+        <v>23.84234461849419</v>
       </c>
       <c r="AZ4" t="n">
-        <v>73.42922028766085</v>
+        <v>22.02876608629826</v>
       </c>
       <c r="BA4" t="n">
-        <v>75.29911231184872</v>
+        <v>22.58973369355461</v>
       </c>
       <c r="BB4" t="n">
-        <v>77.48996716526815</v>
+        <v>23.24699014958044</v>
       </c>
       <c r="BC4" t="n">
-        <v>79.68873128447598</v>
+        <v>23.90661938534279</v>
       </c>
       <c r="BD4" t="n">
-        <v>78.68705706825811</v>
+        <v>23.60611712047744</v>
       </c>
       <c r="BE4" t="n">
-        <v>83.17148760330578</v>
+        <v>24.95144628099174</v>
       </c>
       <c r="BF4" t="n">
-        <v>79.68883205456096</v>
+        <v>23.90664961636829</v>
       </c>
       <c r="BG4" t="n">
-        <v>78.32729155877783</v>
+        <v>23.49818746763335</v>
       </c>
       <c r="BH4" t="n">
-        <v>78.74730021598272</v>
+        <v>23.62419006479482</v>
       </c>
       <c r="BI4" t="n">
-        <v>78.35476694340443</v>
+        <v>23.50643008302133</v>
       </c>
       <c r="BJ4" t="n">
-        <v>73.22259136212624</v>
+        <v>21.96677740863787</v>
       </c>
       <c r="BK4" t="n">
-        <v>81.03932584269663</v>
+        <v>24.31179775280899</v>
       </c>
       <c r="BL4" t="n">
-        <v>78.50241545893721</v>
+        <v>23.55072463768116</v>
       </c>
       <c r="BM4" t="n">
-        <v>86.67512690355328</v>
+        <v>26.00253807106598</v>
       </c>
       <c r="BN4" t="n">
-        <v>79.3286219081272</v>
+        <v>23.79858657243816</v>
       </c>
       <c r="BO4" t="n">
-        <v>77.10371819960862</v>
+        <v>23.13111545988259</v>
       </c>
       <c r="BP4" t="n">
-        <v>85.80018501387605</v>
+        <v>25.74005550416281</v>
       </c>
       <c r="BQ4" t="n">
-        <v>83.92764320615447</v>
+        <v>25.17829296184634</v>
       </c>
       <c r="BR4" t="n">
-        <v>79.16483516483517</v>
+        <v>23.74945054945055</v>
       </c>
       <c r="BS4" t="n">
-        <v>77.10184552289815</v>
+        <v>23.13055365686944</v>
       </c>
       <c r="BT4" t="n">
-        <v>76.19595012821647</v>
+        <v>22.85878503846494</v>
       </c>
       <c r="BU4" t="n">
-        <v>78.85027885027884</v>
+        <v>23.65508365508365</v>
       </c>
       <c r="BV4" t="n">
-        <v>79.82832618025752</v>
+        <v>23.94849785407725</v>
       </c>
       <c r="BW4" t="n">
-        <v>76.98327997154037</v>
+        <v>23.09498399146211</v>
       </c>
       <c r="BX4" t="n">
-        <v>82.38422335475293</v>
+        <v>24.71526700642588</v>
       </c>
       <c r="BY4" t="n">
-        <v>77.90985636453689</v>
+        <v>23.37295690936106</v>
       </c>
       <c r="BZ4" t="n">
-        <v>84.66183574879229</v>
+        <v>25.39855072463768</v>
       </c>
       <c r="CA4" t="n">
-        <v>75.87619971961608</v>
+        <v>22.76285991588482</v>
       </c>
       <c r="CB4" t="n">
-        <v>78.32761961544193</v>
+        <v>23.49828588463258</v>
       </c>
       <c r="CC4" t="n">
-        <v>75.65023532325984</v>
+        <v>22.69507059697795</v>
       </c>
       <c r="CD4" t="n">
-        <v>79.1907514450867</v>
+        <v>23.75722543352601</v>
       </c>
       <c r="CE4" t="n">
-        <v>79.93480622962694</v>
+        <v>23.98044186888808</v>
       </c>
       <c r="CF4" t="n">
-        <v>76.125</v>
+        <v>22.8375</v>
       </c>
       <c r="CG4" t="n">
-        <v>70.23411371237457</v>
+        <v>21.07023411371237</v>
       </c>
       <c r="CH4" t="n">
-        <v>80.69842474852913</v>
+        <v>24.20952742455874</v>
       </c>
       <c r="CI4" t="n">
-        <v>95.29850746268657</v>
+        <v>28.58955223880597</v>
       </c>
     </row>
     <row r="5">
@@ -1672,262 +1672,262 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.80989330746846</v>
+        <v>13.74296799224054</v>
       </c>
       <c r="C5" t="n">
-        <v>46.69329782512205</v>
+        <v>14.00798934753661</v>
       </c>
       <c r="D5" t="n">
-        <v>46.59253213629871</v>
+        <v>13.97775964088961</v>
       </c>
       <c r="E5" t="n">
-        <v>45.32658227848103</v>
+        <v>13.59797468354431</v>
       </c>
       <c r="F5" t="n">
-        <v>47.69135034225263</v>
+        <v>14.30740510267579</v>
       </c>
       <c r="G5" t="n">
-        <v>46.02865488941438</v>
+        <v>13.80859646682431</v>
       </c>
       <c r="H5" t="n">
-        <v>43.52068696330991</v>
+        <v>13.05620608899297</v>
       </c>
       <c r="I5" t="n">
-        <v>46.56842105263158</v>
+        <v>13.97052631578947</v>
       </c>
       <c r="J5" t="n">
-        <v>47.09177592371873</v>
+        <v>14.12753277711562</v>
       </c>
       <c r="K5" t="n">
-        <v>46.67151691524191</v>
+        <v>14.00145507457257</v>
       </c>
       <c r="L5" t="n">
-        <v>45.42443137532772</v>
+        <v>13.62732941259832</v>
       </c>
       <c r="M5" t="n">
-        <v>45.77088716623599</v>
+        <v>13.7312661498708</v>
       </c>
       <c r="N5" t="n">
-        <v>47.7485131690739</v>
+        <v>14.32455395072217</v>
       </c>
       <c r="O5" t="n">
-        <v>43.7435367114788</v>
+        <v>13.12306101344364</v>
       </c>
       <c r="P5" t="n">
-        <v>46.5278748078804</v>
+        <v>13.95836244236412</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.99627560521415</v>
+        <v>13.79888268156425</v>
       </c>
       <c r="R5" t="n">
-        <v>43.4378849616223</v>
+        <v>13.03136548848669</v>
       </c>
       <c r="S5" t="n">
-        <v>46.3499673131401</v>
+        <v>13.90499019394203</v>
       </c>
       <c r="T5" t="n">
-        <v>45.33661829962158</v>
+        <v>13.60098548988648</v>
       </c>
       <c r="U5" t="n">
-        <v>47.84540204353619</v>
+        <v>14.35362061306086</v>
       </c>
       <c r="V5" t="n">
-        <v>45.65406976744185</v>
+        <v>13.69622093023256</v>
       </c>
       <c r="W5" t="n">
-        <v>45.63084381853861</v>
+        <v>13.68925314556158</v>
       </c>
       <c r="X5" t="n">
-        <v>45.78399712952996</v>
+        <v>13.73519913885899</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.52173913043479</v>
+        <v>13.35652173913044</v>
       </c>
       <c r="Z5" t="n">
-        <v>47.0216606498195</v>
+        <v>14.10649819494585</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.1476133172884</v>
+        <v>13.24428399518652</v>
       </c>
       <c r="AB5" t="n">
-        <v>42.53088193047975</v>
+        <v>12.75926457914393</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.8405253283302</v>
+        <v>13.45215759849906</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.30577088716625</v>
+        <v>13.59173126614987</v>
       </c>
       <c r="AE5" t="n">
-        <v>45.24382612044481</v>
+        <v>13.57314783613344</v>
       </c>
       <c r="AF5" t="n">
-        <v>47.1363978899774</v>
+        <v>14.14091936699322</v>
       </c>
       <c r="AG5" t="n">
-        <v>43.20089535534416</v>
+        <v>12.96026860660325</v>
       </c>
       <c r="AH5" t="n">
-        <v>47.0003064519931</v>
+        <v>14.10009193559793</v>
       </c>
       <c r="AI5" t="n">
-        <v>45.27569593147754</v>
+        <v>13.58270877944326</v>
       </c>
       <c r="AJ5" t="n">
-        <v>47.44755044875092</v>
+        <v>14.23426513462528</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.42209072978304</v>
+        <v>14.52662721893491</v>
       </c>
       <c r="AL5" t="n">
-        <v>46.5400949288034</v>
+        <v>13.96202847864102</v>
       </c>
       <c r="AM5" t="n">
-        <v>37.66423357664232</v>
+        <v>11.2992700729927</v>
       </c>
       <c r="AN5" t="n">
-        <v>49.82698961937716</v>
+        <v>14.94809688581315</v>
       </c>
       <c r="AO5" t="n">
-        <v>46.7866323907455</v>
+        <v>14.03598971722365</v>
       </c>
       <c r="AP5" t="n">
-        <v>44.51161310849506</v>
+        <v>13.35348393254852</v>
       </c>
       <c r="AQ5" t="n">
-        <v>40.96581660336407</v>
+        <v>12.28974498100922</v>
       </c>
       <c r="AR5" t="n">
-        <v>45.24443961063679</v>
+        <v>13.57333188319104</v>
       </c>
       <c r="AS5" t="n">
-        <v>46.19340041432378</v>
+        <v>13.85802012429713</v>
       </c>
       <c r="AT5" t="n">
-        <v>46.9625059326056</v>
+        <v>14.08875177978168</v>
       </c>
       <c r="AU5" t="n">
-        <v>49.25136116152451</v>
+        <v>14.77540834845735</v>
       </c>
       <c r="AV5" t="n">
-        <v>48.17318886003402</v>
+        <v>14.45195665801021</v>
       </c>
       <c r="AW5" t="n">
-        <v>43.82034870889428</v>
+        <v>13.14610461266828</v>
       </c>
       <c r="AX5" t="n">
-        <v>42.18794630105683</v>
+        <v>12.65638389031705</v>
       </c>
       <c r="AY5" t="n">
-        <v>47.21549636803872</v>
+        <v>14.16464891041162</v>
       </c>
       <c r="AZ5" t="n">
-        <v>43.01615015277173</v>
+        <v>12.90484504583152</v>
       </c>
       <c r="BA5" t="n">
-        <v>44.43857331571995</v>
+        <v>13.33157199471598</v>
       </c>
       <c r="BB5" t="n">
-        <v>47.50256937307297</v>
+        <v>14.25077081192189</v>
       </c>
       <c r="BC5" t="n">
-        <v>46.25589299418923</v>
+        <v>13.87676789825677</v>
       </c>
       <c r="BD5" t="n">
-        <v>47.07552289901057</v>
+        <v>14.12265686970317</v>
       </c>
       <c r="BE5" t="n">
-        <v>47.51565055552422</v>
+        <v>14.25469516665727</v>
       </c>
       <c r="BF5" t="n">
-        <v>46.7441584628158</v>
+        <v>14.02324753884474</v>
       </c>
       <c r="BG5" t="n">
-        <v>49.12153332365327</v>
+        <v>14.73645999709598</v>
       </c>
       <c r="BH5" t="n">
-        <v>45.17278878685357</v>
+        <v>13.55183663605607</v>
       </c>
       <c r="BI5" t="n">
-        <v>43.66120052328941</v>
+        <v>13.09836015698682</v>
       </c>
       <c r="BJ5" t="n">
-        <v>43.21058688147296</v>
+        <v>12.96317606444189</v>
       </c>
       <c r="BK5" t="n">
-        <v>46.21153348849237</v>
+        <v>13.86346004654771</v>
       </c>
       <c r="BL5" t="n">
-        <v>45.73016859891014</v>
+        <v>13.71905057967304</v>
       </c>
       <c r="BM5" t="n">
-        <v>45.27532290958533</v>
+        <v>13.5825968728756</v>
       </c>
       <c r="BN5" t="n">
-        <v>45.07389162561577</v>
+        <v>13.52216748768473</v>
       </c>
       <c r="BO5" t="n">
-        <v>45.74585635359116</v>
+        <v>13.72375690607735</v>
       </c>
       <c r="BP5" t="n">
-        <v>49.96265870052278</v>
+        <v>14.98879761015683</v>
       </c>
       <c r="BQ5" t="n">
-        <v>48.56997513000226</v>
+        <v>14.57099253900068</v>
       </c>
       <c r="BR5" t="n">
-        <v>44.0873405299313</v>
+        <v>13.22620215897939</v>
       </c>
       <c r="BS5" t="n">
-        <v>45.46935974956045</v>
+        <v>13.64080792486813</v>
       </c>
       <c r="BT5" t="n">
-        <v>44.83589280337248</v>
+        <v>13.45076784101174</v>
       </c>
       <c r="BU5" t="n">
-        <v>45.36339649796115</v>
+        <v>13.60901894938835</v>
       </c>
       <c r="BV5" t="n">
-        <v>44.90409263678953</v>
+        <v>13.47122779103686</v>
       </c>
       <c r="BW5" t="n">
-        <v>43.7252931323283</v>
+        <v>13.11758793969849</v>
       </c>
       <c r="BX5" t="n">
-        <v>46.54355485360224</v>
+        <v>13.96306645608067</v>
       </c>
       <c r="BY5" t="n">
-        <v>42.12138084632519</v>
+        <v>12.63641425389756</v>
       </c>
       <c r="BZ5" t="n">
-        <v>45.78155657292348</v>
+        <v>13.73446697187704</v>
       </c>
       <c r="CA5" t="n">
-        <v>45.61285179961985</v>
+        <v>13.68385553988596</v>
       </c>
       <c r="CB5" t="n">
-        <v>45.92109662320293</v>
+        <v>13.77632898696088</v>
       </c>
       <c r="CC5" t="n">
-        <v>43.42123818925399</v>
+        <v>13.0263714567762</v>
       </c>
       <c r="CD5" t="n">
-        <v>43.09677419354841</v>
+        <v>12.92903225806452</v>
       </c>
       <c r="CE5" t="n">
-        <v>44.68599033816425</v>
+        <v>13.40579710144928</v>
       </c>
       <c r="CF5" t="n">
-        <v>43.57700496806246</v>
+        <v>13.07310149041874</v>
       </c>
       <c r="CG5" t="n">
-        <v>38.31041257367387</v>
+        <v>11.49312377210216</v>
       </c>
       <c r="CH5" t="n">
-        <v>45.88803697090643</v>
+        <v>13.76641109127193</v>
       </c>
       <c r="CI5" t="n">
-        <v>53.11425296140619</v>
+        <v>15.93427588842186</v>
       </c>
     </row>
     <row r="6">
@@ -1937,262 +1937,262 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82.09938136100578</v>
+        <v>-24.62981440830174</v>
       </c>
       <c r="C6" t="n">
-        <v>-82.57186081694402</v>
+        <v>-24.77155824508321</v>
       </c>
       <c r="D6" t="n">
-        <v>-82.27434059433503</v>
+        <v>-24.68230217830051</v>
       </c>
       <c r="E6" t="n">
-        <v>-82.21029893387221</v>
+        <v>-24.66308968016166</v>
       </c>
       <c r="F6" t="n">
-        <v>-83.07491362602174</v>
+        <v>-24.92247408780652</v>
       </c>
       <c r="G6" t="n">
-        <v>-82.91103067250904</v>
+        <v>-24.87330920175271</v>
       </c>
       <c r="H6" t="n">
-        <v>-81.8874082132173</v>
+        <v>-24.56622246396519</v>
       </c>
       <c r="I6" t="n">
-        <v>-80.73829359379488</v>
+        <v>-24.22148807813847</v>
       </c>
       <c r="J6" t="n">
-        <v>-82.81338627339761</v>
+        <v>-24.84401588201928</v>
       </c>
       <c r="K6" t="n">
-        <v>-83.06051587301587</v>
+        <v>-24.91815476190476</v>
       </c>
       <c r="L6" t="n">
-        <v>-82.20719897679518</v>
+        <v>-24.66215969303855</v>
       </c>
       <c r="M6" t="n">
-        <v>-84.01087213424722</v>
+        <v>-25.20326164027417</v>
       </c>
       <c r="N6" t="n">
-        <v>-83.24160026287686</v>
+        <v>-24.97248007886306</v>
       </c>
       <c r="O6" t="n">
-        <v>-81.681654676259</v>
+        <v>-24.5044964028777</v>
       </c>
       <c r="P6" t="n">
-        <v>-83.15056736912368</v>
+        <v>-24.9451702107371</v>
       </c>
       <c r="Q6" t="n">
-        <v>-82.78061224489795</v>
+        <v>-24.83418367346939</v>
       </c>
       <c r="R6" t="n">
-        <v>-81.76653233797978</v>
+        <v>-24.52995970139393</v>
       </c>
       <c r="S6" t="n">
-        <v>-81.68552709946397</v>
+        <v>-24.50565812983919</v>
       </c>
       <c r="T6" t="n">
-        <v>-82.86083560450676</v>
+        <v>-24.85825068135203</v>
       </c>
       <c r="U6" t="n">
-        <v>-80.34855769230769</v>
+        <v>-24.10456730769231</v>
       </c>
       <c r="V6" t="n">
-        <v>-80.3313042610518</v>
+        <v>-24.09939127831554</v>
       </c>
       <c r="W6" t="n">
-        <v>-81.23811033608118</v>
+        <v>-24.37143310082435</v>
       </c>
       <c r="X6" t="n">
-        <v>-81.36844696037411</v>
+        <v>-24.41053408811223</v>
       </c>
       <c r="Y6" t="n">
-        <v>-80.42210497084143</v>
+        <v>-24.12663149125243</v>
       </c>
       <c r="Z6" t="n">
-        <v>-80.40976058931861</v>
+        <v>-24.12292817679558</v>
       </c>
       <c r="AA6" t="n">
-        <v>-82.21838824577026</v>
+        <v>-24.66551647373108</v>
       </c>
       <c r="AB6" t="n">
-        <v>-82.13241963115992</v>
+        <v>-24.63972588934798</v>
       </c>
       <c r="AC6" t="n">
-        <v>-83.16062176165802</v>
+        <v>-24.94818652849741</v>
       </c>
       <c r="AD6" t="n">
-        <v>-81.37225844694724</v>
+        <v>-24.41167753408417</v>
       </c>
       <c r="AE6" t="n">
-        <v>-81.82887824602687</v>
+        <v>-24.54866347380807</v>
       </c>
       <c r="AF6" t="n">
-        <v>-82.56081946222793</v>
+        <v>-24.76824583866837</v>
       </c>
       <c r="AG6" t="n">
-        <v>-82.063305978898</v>
+        <v>-24.6189917936694</v>
       </c>
       <c r="AH6" t="n">
-        <v>-81.88232652864863</v>
+        <v>-24.56469795859459</v>
       </c>
       <c r="AI6" t="n">
-        <v>-82.86503915246431</v>
+        <v>-24.85951174573929</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-82.56503702554957</v>
+        <v>-24.76951110766487</v>
       </c>
       <c r="AK6" t="n">
-        <v>-82.34551495016611</v>
+        <v>-24.70365448504983</v>
       </c>
       <c r="AL6" t="n">
-        <v>-80.89839754517558</v>
+        <v>-24.26951926355267</v>
       </c>
       <c r="AM6" t="n">
-        <v>-75.50371155885472</v>
+        <v>-22.65111346765642</v>
       </c>
       <c r="AN6" t="n">
-        <v>-78.69515011547344</v>
+        <v>-23.60854503464203</v>
       </c>
       <c r="AO6" t="n">
-        <v>-82.13660245183888</v>
+        <v>-24.64098073555166</v>
       </c>
       <c r="AP6" t="n">
-        <v>-79.6565389696169</v>
+        <v>-23.89696169088507</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-80.60046189376443</v>
+        <v>-24.18013856812933</v>
       </c>
       <c r="AR6" t="n">
-        <v>-81.44445692463215</v>
+        <v>-24.43333707738964</v>
       </c>
       <c r="AS6" t="n">
-        <v>-82.4869050330221</v>
+        <v>-24.74607150990663</v>
       </c>
       <c r="AT6" t="n">
-        <v>-82.07653802680446</v>
+        <v>-24.62296140804134</v>
       </c>
       <c r="AU6" t="n">
-        <v>-82.44414044687642</v>
+        <v>-24.73324213406293</v>
       </c>
       <c r="AV6" t="n">
-        <v>-80.844891668933</v>
+        <v>-24.2534675006799</v>
       </c>
       <c r="AW6" t="n">
-        <v>-82.29878001994936</v>
+        <v>-24.68963400598481</v>
       </c>
       <c r="AX6" t="n">
-        <v>-80.95620731217356</v>
+        <v>-24.28686219365207</v>
       </c>
       <c r="AY6" t="n">
-        <v>-80.80247858017135</v>
+        <v>-24.24074357405141</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-79.14695559285823</v>
+        <v>-23.74408667785747</v>
       </c>
       <c r="BA6" t="n">
-        <v>-82.59557344064386</v>
+        <v>-24.77867203219316</v>
       </c>
       <c r="BB6" t="n">
-        <v>-82.10702341137124</v>
+        <v>-24.63210702341137</v>
       </c>
       <c r="BC6" t="n">
-        <v>-84.48275862068965</v>
+        <v>-25.3448275862069</v>
       </c>
       <c r="BD6" t="n">
-        <v>-82.50021289278719</v>
+        <v>-24.75006386783616</v>
       </c>
       <c r="BE6" t="n">
-        <v>-83.39195595656828</v>
+        <v>-25.01758678697049</v>
       </c>
       <c r="BF6" t="n">
-        <v>-83.09893307468477</v>
+        <v>-24.92967992240543</v>
       </c>
       <c r="BG6" t="n">
-        <v>-83.29113924050633</v>
+        <v>-24.9873417721519</v>
       </c>
       <c r="BH6" t="n">
-        <v>-81.19147696533355</v>
+        <v>-24.35744308960007</v>
       </c>
       <c r="BI6" t="n">
-        <v>-81.63913595933926</v>
+        <v>-24.49174078780178</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-79.67055042185616</v>
+        <v>-23.90116512655685</v>
       </c>
       <c r="BK6" t="n">
-        <v>-82.1896002829855</v>
+        <v>-24.65688008489565</v>
       </c>
       <c r="BL6" t="n">
-        <v>-82.51060305669185</v>
+        <v>-24.75318091700755</v>
       </c>
       <c r="BM6" t="n">
-        <v>-78.6616752456715</v>
+        <v>-23.59850257370145</v>
       </c>
       <c r="BN6" t="n">
-        <v>-82.13921901528013</v>
+        <v>-24.64176570458404</v>
       </c>
       <c r="BO6" t="n">
-        <v>-82.94162244124337</v>
+        <v>-24.88248673237301</v>
       </c>
       <c r="BP6" t="n">
-        <v>-81.42430278884463</v>
+        <v>-24.42729083665339</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-82.42343541944075</v>
+        <v>-24.72703062583222</v>
       </c>
       <c r="BR6" t="n">
-        <v>-80.79346160395028</v>
+        <v>-24.23803848118508</v>
       </c>
       <c r="BS6" t="n">
-        <v>-81.59601438594423</v>
+        <v>-24.47880431578327</v>
       </c>
       <c r="BT6" t="n">
-        <v>-82.96257796257797</v>
+        <v>-24.88877338877339</v>
       </c>
       <c r="BU6" t="n">
-        <v>-82.28771327678955</v>
+        <v>-24.68631398303686</v>
       </c>
       <c r="BV6" t="n">
-        <v>-82.0563655218691</v>
+        <v>-24.61690965656073</v>
       </c>
       <c r="BW6" t="n">
-        <v>-82.33648780942613</v>
+        <v>-24.70094634282784</v>
       </c>
       <c r="BX6" t="n">
-        <v>-82.73918089869011</v>
+        <v>-24.82175426960703</v>
       </c>
       <c r="BY6" t="n">
-        <v>-80.66601371204702</v>
+        <v>-24.1998041136141</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-80.48452220726783</v>
+        <v>-24.14535666218035</v>
       </c>
       <c r="CA6" t="n">
-        <v>-83.1733198585144</v>
+        <v>-24.95199595755432</v>
       </c>
       <c r="CB6" t="n">
-        <v>-82.31756214915798</v>
+        <v>-24.69526864474739</v>
       </c>
       <c r="CC6" t="n">
-        <v>-81.29793510324484</v>
+        <v>-24.38938053097345</v>
       </c>
       <c r="CD6" t="n">
-        <v>-80.65825067628494</v>
+        <v>-24.19747520288548</v>
       </c>
       <c r="CE6" t="n">
-        <v>-82.17863105175293</v>
+        <v>-24.65358931552588</v>
       </c>
       <c r="CF6" t="n">
-        <v>-79.6836381611468</v>
+        <v>-23.90509144834404</v>
       </c>
       <c r="CG6" t="n">
-        <v>-82.52840909090909</v>
+        <v>-24.75852272727273</v>
       </c>
       <c r="CH6" t="n">
-        <v>-80.88552915766739</v>
+        <v>-24.26565874730022</v>
       </c>
       <c r="CI6" t="n">
-        <v>-84.5769902670327</v>
+        <v>-25.37309708010981</v>
       </c>
     </row>
     <row r="7">
@@ -2202,262 +2202,262 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.9520624303233</v>
+        <v>35.68561872909699</v>
       </c>
       <c r="C7" t="n">
-        <v>121.8055555555556</v>
+        <v>36.54166666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>113.545347467609</v>
+        <v>34.06360424028269</v>
       </c>
       <c r="E7" t="n">
-        <v>112.1034077555817</v>
+        <v>33.6310223266745</v>
       </c>
       <c r="F7" t="n">
-        <v>125.0684590490416</v>
+        <v>37.52053771471247</v>
       </c>
       <c r="G7" t="n">
-        <v>121.4604236343367</v>
+        <v>36.438127090301</v>
       </c>
       <c r="H7" t="n">
-        <v>118.9189189189189</v>
+        <v>35.67567567567568</v>
       </c>
       <c r="I7" t="n">
-        <v>98.65771812080537</v>
+        <v>29.59731543624161</v>
       </c>
       <c r="J7" t="n">
-        <v>126.4026402640264</v>
+        <v>37.92079207920792</v>
       </c>
       <c r="K7" t="n">
-        <v>123.2308443142997</v>
+        <v>36.9692532942899</v>
       </c>
       <c r="L7" t="n">
-        <v>122.3865270075991</v>
+        <v>36.71595810227973</v>
       </c>
       <c r="M7" t="n">
-        <v>127.4205469327421</v>
+        <v>38.22616407982262</v>
       </c>
       <c r="N7" t="n">
-        <v>124.4607843137255</v>
+        <v>37.33823529411764</v>
       </c>
       <c r="O7" t="n">
-        <v>109.720176730486</v>
+        <v>32.91605301914581</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8075834748161</v>
+        <v>35.94227504244483</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.2798353909465</v>
+        <v>34.28395061728395</v>
       </c>
       <c r="R7" t="n">
-        <v>118.1884057971014</v>
+        <v>35.45652173913043</v>
       </c>
       <c r="S7" t="n">
-        <v>116.5040650406504</v>
+        <v>34.95121951219512</v>
       </c>
       <c r="T7" t="n">
-        <v>128.0218579234973</v>
+        <v>38.40655737704918</v>
       </c>
       <c r="U7" t="n">
-        <v>108.5626911314985</v>
+        <v>32.56880733944954</v>
       </c>
       <c r="V7" t="n">
-        <v>116.2354134956875</v>
+        <v>34.87062404870625</v>
       </c>
       <c r="W7" t="n">
-        <v>107.3088297422898</v>
+        <v>32.19264892268695</v>
       </c>
       <c r="X7" t="n">
-        <v>107.1774548656979</v>
+        <v>32.15323645970938</v>
       </c>
       <c r="Y7" t="n">
-        <v>117.7777777777778</v>
+        <v>35.33333333333333</v>
       </c>
       <c r="Z7" t="n">
-        <v>100.195848021935</v>
+        <v>30.0587544065805</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.6885758998435</v>
+        <v>36.20657276995306</v>
       </c>
       <c r="AB7" t="n">
-        <v>137.1686407219402</v>
+        <v>41.15059221658207</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.7179487179487</v>
+        <v>38.61538461538462</v>
       </c>
       <c r="AD7" t="n">
-        <v>107.8758949880668</v>
+        <v>32.36276849642005</v>
       </c>
       <c r="AE7" t="n">
-        <v>123.9762881896945</v>
+        <v>37.19288645690835</v>
       </c>
       <c r="AF7" t="n">
-        <v>131.2775330396476</v>
+        <v>39.38325991189427</v>
       </c>
       <c r="AG7" t="n">
-        <v>108.9324618736384</v>
+        <v>32.67973856209151</v>
       </c>
       <c r="AH7" t="n">
-        <v>118.1448043901576</v>
+        <v>35.44344131704727</v>
       </c>
       <c r="AI7" t="n">
-        <v>112.5268817204301</v>
+        <v>33.75806451612904</v>
       </c>
       <c r="AJ7" t="n">
-        <v>123.1042917500556</v>
+        <v>36.93128752501668</v>
       </c>
       <c r="AK7" t="n">
-        <v>118.6174883954335</v>
+        <v>35.58524651863004</v>
       </c>
       <c r="AL7" t="n">
-        <v>118.0722891566265</v>
+        <v>35.42168674698795</v>
       </c>
       <c r="AM7" t="n">
-        <v>109.5238095238095</v>
+        <v>32.85714285714286</v>
       </c>
       <c r="AN7" t="n">
-        <v>114.7244805781391</v>
+        <v>34.41734417344174</v>
       </c>
       <c r="AO7" t="n">
-        <v>109.1036414565827</v>
+        <v>32.73109243697479</v>
       </c>
       <c r="AP7" t="n">
-        <v>101.9480519480519</v>
+        <v>30.58441558441558</v>
       </c>
       <c r="AQ7" t="n">
-        <v>120.8333333333333</v>
+        <v>36.25</v>
       </c>
       <c r="AR7" t="n">
-        <v>112.2679580306699</v>
+        <v>33.68038740920097</v>
       </c>
       <c r="AS7" t="n">
-        <v>118.2343591966479</v>
+        <v>35.47030775899437</v>
       </c>
       <c r="AT7" t="n">
-        <v>108.1981981981982</v>
+        <v>32.45945945945946</v>
       </c>
       <c r="AU7" t="n">
-        <v>116.1904761904762</v>
+        <v>34.85714285714286</v>
       </c>
       <c r="AV7" t="n">
-        <v>113.2039753904401</v>
+        <v>33.96119261713204</v>
       </c>
       <c r="AW7" t="n">
-        <v>117.4252275682705</v>
+        <v>35.22756827048114</v>
       </c>
       <c r="AX7" t="n">
-        <v>111.0759493670886</v>
+        <v>33.32278481012658</v>
       </c>
       <c r="AY7" t="n">
-        <v>111.0181311018131</v>
+        <v>33.30543933054393</v>
       </c>
       <c r="AZ7" t="n">
-        <v>100.2195389681668</v>
+        <v>30.06586169045005</v>
       </c>
       <c r="BA7" t="n">
-        <v>127.4128568926257</v>
+        <v>38.2238570677877</v>
       </c>
       <c r="BB7" t="n">
-        <v>115.3686396677051</v>
+        <v>34.61059190031153</v>
       </c>
       <c r="BC7" t="n">
-        <v>126.231884057971</v>
+        <v>37.8695652173913</v>
       </c>
       <c r="BD7" t="n">
-        <v>119.8215733982157</v>
+        <v>35.94647201946471</v>
       </c>
       <c r="BE7" t="n">
-        <v>125.2992633517495</v>
+        <v>37.58977900552486</v>
       </c>
       <c r="BF7" t="n">
-        <v>122.0946915351506</v>
+        <v>36.62840746054519</v>
       </c>
       <c r="BG7" t="n">
-        <v>119.6386946386946</v>
+        <v>35.89160839160839</v>
       </c>
       <c r="BH7" t="n">
-        <v>110.8529704613342</v>
+        <v>33.25589113840027</v>
       </c>
       <c r="BI7" t="n">
-        <v>116.5743944636678</v>
+        <v>34.97231833910035</v>
       </c>
       <c r="BJ7" t="n">
-        <v>118.5770750988142</v>
+        <v>35.57312252964427</v>
       </c>
       <c r="BK7" t="n">
-        <v>117.5107580271434</v>
+        <v>35.253227408143</v>
       </c>
       <c r="BL7" t="n">
-        <v>122.0261156550438</v>
+        <v>36.60783469651313</v>
       </c>
       <c r="BM7" t="n">
-        <v>97.80701754385966</v>
+        <v>29.3421052631579</v>
       </c>
       <c r="BN7" t="n">
-        <v>121.1660329531052</v>
+        <v>36.34980988593155</v>
       </c>
       <c r="BO7" t="n">
-        <v>116.8888888888889</v>
+        <v>35.06666666666666</v>
       </c>
       <c r="BP7" t="n">
-        <v>121.9839142091153</v>
+        <v>36.59517426273458</v>
       </c>
       <c r="BQ7" t="n">
-        <v>113.982683982684</v>
+        <v>34.1948051948052</v>
       </c>
       <c r="BR7" t="n">
-        <v>110.0177304964539</v>
+        <v>33.00531914893617</v>
       </c>
       <c r="BS7" t="n">
-        <v>118.4526669870255</v>
+        <v>35.53580009610764</v>
       </c>
       <c r="BT7" t="n">
-        <v>124.4254626804963</v>
+        <v>37.32763880414888</v>
       </c>
       <c r="BU7" t="n">
-        <v>121.5576672256381</v>
+        <v>36.46730016769144</v>
       </c>
       <c r="BV7" t="n">
-        <v>118.1540030596634</v>
+        <v>35.44620091789903</v>
       </c>
       <c r="BW7" t="n">
-        <v>118.8176299815255</v>
+        <v>35.64528899445764</v>
       </c>
       <c r="BX7" t="n">
-        <v>116.1863592699328</v>
+        <v>34.85590778097983</v>
       </c>
       <c r="BY7" t="n">
-        <v>115.6534954407295</v>
+        <v>34.69604863221885</v>
       </c>
       <c r="BZ7" t="n">
-        <v>117.2413793103448</v>
+        <v>35.17241379310344</v>
       </c>
       <c r="CA7" t="n">
-        <v>127.0520520520521</v>
+        <v>38.11561561561562</v>
       </c>
       <c r="CB7" t="n">
-        <v>120.0842241658568</v>
+        <v>36.02526724975704</v>
       </c>
       <c r="CC7" t="n">
-        <v>110.8832807570978</v>
+        <v>33.26498422712934</v>
       </c>
       <c r="CD7" t="n">
-        <v>110.955710955711</v>
+        <v>33.28671328671329</v>
       </c>
       <c r="CE7" t="n">
-        <v>111.4754098360656</v>
+        <v>33.44262295081967</v>
       </c>
       <c r="CF7" t="n">
-        <v>95.62043795620438</v>
+        <v>28.68613138686132</v>
       </c>
       <c r="CG7" t="n">
-        <v>131.7073170731707</v>
+        <v>39.51219512195122</v>
       </c>
       <c r="CH7" t="n">
-        <v>118.3050847457627</v>
+        <v>35.49152542372882</v>
       </c>
       <c r="CI7" t="n">
-        <v>168.4466019417476</v>
+        <v>50.53398058252427</v>
       </c>
     </row>
     <row r="8">
@@ -2467,262 +2467,262 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.66463000678885</v>
+        <v>23.29938900203666</v>
       </c>
       <c r="C8" t="n">
-        <v>81.12085159674388</v>
+        <v>24.33625547902316</v>
       </c>
       <c r="D8" t="n">
-        <v>79.35282220996505</v>
+        <v>23.80584666298952</v>
       </c>
       <c r="E8" t="n">
-        <v>75.05078485687903</v>
+        <v>22.51523545706371</v>
       </c>
       <c r="F8" t="n">
-        <v>81.18570954540428</v>
+        <v>24.35571286362128</v>
       </c>
       <c r="G8" t="n">
-        <v>83.31235841933048</v>
+        <v>24.99370752579915</v>
       </c>
       <c r="H8" t="n">
-        <v>77.59487882944674</v>
+        <v>23.27846364883402</v>
       </c>
       <c r="I8" t="n">
-        <v>77.13963963963964</v>
+        <v>23.14189189189189</v>
       </c>
       <c r="J8" t="n">
-        <v>76.82215743440234</v>
+        <v>23.0466472303207</v>
       </c>
       <c r="K8" t="n">
-        <v>81.37297770004372</v>
+        <v>24.41189331001312</v>
       </c>
       <c r="L8" t="n">
-        <v>78.37089028444773</v>
+        <v>23.51126708533432</v>
       </c>
       <c r="M8" t="n">
-        <v>78.55053623659406</v>
+        <v>23.56516087097822</v>
       </c>
       <c r="N8" t="n">
-        <v>78.44507534396156</v>
+        <v>23.53352260318847</v>
       </c>
       <c r="O8" t="n">
-        <v>75.58520599250937</v>
+        <v>22.67556179775281</v>
       </c>
       <c r="P8" t="n">
-        <v>80.22657054582905</v>
+        <v>24.06797116374871</v>
       </c>
       <c r="Q8" t="n">
-        <v>81.88976377952754</v>
+        <v>24.56692913385826</v>
       </c>
       <c r="R8" t="n">
-        <v>79.29259382265029</v>
+        <v>23.78777814679509</v>
       </c>
       <c r="S8" t="n">
-        <v>71.19789710852423</v>
+        <v>21.35936913255727</v>
       </c>
       <c r="T8" t="n">
-        <v>77.51150306748467</v>
+        <v>23.2534509202454</v>
       </c>
       <c r="U8" t="n">
-        <v>75.07331378299119</v>
+        <v>22.52199413489736</v>
       </c>
       <c r="V8" t="n">
-        <v>71.14030971374942</v>
+        <v>21.34209291412483</v>
       </c>
       <c r="W8" t="n">
-        <v>74.52618707968207</v>
+        <v>22.35785612390462</v>
       </c>
       <c r="X8" t="n">
-        <v>75.11158342189162</v>
+        <v>22.53347502656749</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.4233608336952</v>
+        <v>22.62700825010856</v>
       </c>
       <c r="Z8" t="n">
-        <v>74.8581490901976</v>
+        <v>22.45744472705928</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.68415827542194</v>
+        <v>23.00524748262658</v>
       </c>
       <c r="AB8" t="n">
-        <v>72.00951248513672</v>
+        <v>21.60285374554102</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.57847533632287</v>
+        <v>23.27354260089686</v>
       </c>
       <c r="AD8" t="n">
-        <v>80.67355530042099</v>
+        <v>24.2020665901263</v>
       </c>
       <c r="AE8" t="n">
-        <v>75.42652388126552</v>
+        <v>22.62795716437966</v>
       </c>
       <c r="AF8" t="n">
-        <v>82.66666666666667</v>
+        <v>24.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>89.05109489051095</v>
+        <v>26.71532846715328</v>
       </c>
       <c r="AH8" t="n">
-        <v>76.2517244177554</v>
+        <v>22.87551732532662</v>
       </c>
       <c r="AI8" t="n">
-        <v>81.45712117379205</v>
+        <v>24.43713635213761</v>
       </c>
       <c r="AJ8" t="n">
-        <v>78.14213096780624</v>
+        <v>23.44263929034187</v>
       </c>
       <c r="AK8" t="n">
-        <v>78.37713761046712</v>
+        <v>23.51314128314014</v>
       </c>
       <c r="AL8" t="n">
-        <v>76.09985676284018</v>
+        <v>22.82995702885205</v>
       </c>
       <c r="AM8" t="n">
-        <v>63.63636363636363</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="AN8" t="n">
-        <v>78.12368531762725</v>
+        <v>23.43710559528817</v>
       </c>
       <c r="AO8" t="n">
-        <v>72.80643000669792</v>
+        <v>21.84192900200938</v>
       </c>
       <c r="AP8" t="n">
-        <v>72.50803858520899</v>
+        <v>21.7524115755627</v>
       </c>
       <c r="AQ8" t="n">
-        <v>85.44474393530997</v>
+        <v>25.63342318059299</v>
       </c>
       <c r="AR8" t="n">
-        <v>76.82509505703423</v>
+        <v>23.04752851711027</v>
       </c>
       <c r="AS8" t="n">
-        <v>77.60858050847457</v>
+        <v>23.28257415254237</v>
       </c>
       <c r="AT8" t="n">
-        <v>82.47511899610558</v>
+        <v>24.74253569883167</v>
       </c>
       <c r="AU8" t="n">
-        <v>79.53544253103722</v>
+        <v>23.86063275931117</v>
       </c>
       <c r="AV8" t="n">
-        <v>73.57750647428783</v>
+        <v>22.07325194228635</v>
       </c>
       <c r="AW8" t="n">
-        <v>79.64513556618819</v>
+        <v>23.89354066985646</v>
       </c>
       <c r="AX8" t="n">
-        <v>78.28585707146428</v>
+        <v>23.48575712143928</v>
       </c>
       <c r="AY8" t="n">
-        <v>77.94353696534793</v>
+        <v>23.38306108960438</v>
       </c>
       <c r="AZ8" t="n">
-        <v>70.35818713450294</v>
+        <v>21.10745614035088</v>
       </c>
       <c r="BA8" t="n">
-        <v>74.57444350304243</v>
+        <v>22.37233305091273</v>
       </c>
       <c r="BB8" t="n">
-        <v>82.05159112825456</v>
+        <v>24.61547733847637</v>
       </c>
       <c r="BC8" t="n">
-        <v>83.15182575272262</v>
+        <v>24.94554772581679</v>
       </c>
       <c r="BD8" t="n">
-        <v>78.04752066115704</v>
+        <v>23.41425619834711</v>
       </c>
       <c r="BE8" t="n">
-        <v>78.6553591498927</v>
+        <v>23.59660774496781</v>
       </c>
       <c r="BF8" t="n">
-        <v>81.13695090439276</v>
+        <v>24.34108527131783</v>
       </c>
       <c r="BG8" t="n">
-        <v>83.65614221278857</v>
+        <v>25.09684266383657</v>
       </c>
       <c r="BH8" t="n">
-        <v>78.49834723752558</v>
+        <v>23.54950417125767</v>
       </c>
       <c r="BI8" t="n">
-        <v>76.32742184587529</v>
+        <v>22.89822655376259</v>
       </c>
       <c r="BJ8" t="n">
-        <v>65.18987341772153</v>
+        <v>19.55696202531646</v>
       </c>
       <c r="BK8" t="n">
-        <v>79.19646933495662</v>
+        <v>23.75894080048699</v>
       </c>
       <c r="BL8" t="n">
-        <v>77.67078136108057</v>
+        <v>23.30123440832417</v>
       </c>
       <c r="BM8" t="n">
-        <v>75.27716186252771</v>
+        <v>22.58314855875831</v>
       </c>
       <c r="BN8" t="n">
-        <v>78.42406876790831</v>
+        <v>23.52722063037249</v>
       </c>
       <c r="BO8" t="n">
-        <v>78.68852459016395</v>
+        <v>23.60655737704919</v>
       </c>
       <c r="BP8" t="n">
-        <v>74.35587761674719</v>
+        <v>22.30676328502416</v>
       </c>
       <c r="BQ8" t="n">
-        <v>81.60024276755006</v>
+        <v>24.48007283026502</v>
       </c>
       <c r="BR8" t="n">
-        <v>79.06289573659772</v>
+        <v>23.71886872097932</v>
       </c>
       <c r="BS8" t="n">
-        <v>76.49215427482035</v>
+        <v>22.9476462824461</v>
       </c>
       <c r="BT8" t="n">
-        <v>79.57408246488444</v>
+        <v>23.87222473946533</v>
       </c>
       <c r="BU8" t="n">
-        <v>77.30216129846103</v>
+        <v>23.19064838953831</v>
       </c>
       <c r="BV8" t="n">
-        <v>77.52064827801152</v>
+        <v>23.25619448340346</v>
       </c>
       <c r="BW8" t="n">
-        <v>82.47497286213968</v>
+        <v>24.74249185864191</v>
       </c>
       <c r="BX8" t="n">
-        <v>79.6489668962453</v>
+        <v>23.89469006887359</v>
       </c>
       <c r="BY8" t="n">
-        <v>73.45548508339206</v>
+        <v>22.03664552501762</v>
       </c>
       <c r="BZ8" t="n">
-        <v>77.67195767195766</v>
+        <v>23.3015873015873</v>
       </c>
       <c r="CA8" t="n">
-        <v>76.60090378044747</v>
+        <v>22.98027113413424</v>
       </c>
       <c r="CB8" t="n">
-        <v>78.34854283191052</v>
+        <v>23.50456284957315</v>
       </c>
       <c r="CC8" t="n">
-        <v>77.33732236350038</v>
+        <v>23.20119670905011</v>
       </c>
       <c r="CD8" t="n">
-        <v>80.11049723756906</v>
+        <v>24.03314917127072</v>
       </c>
       <c r="CE8" t="n">
-        <v>72.79438907345883</v>
+        <v>21.83831672203765</v>
       </c>
       <c r="CF8" t="n">
-        <v>71.64179104477611</v>
+        <v>21.49253731343283</v>
       </c>
       <c r="CG8" t="n">
-        <v>71.92982456140352</v>
+        <v>21.57894736842105</v>
       </c>
       <c r="CH8" t="n">
-        <v>76.9496204278813</v>
+        <v>23.08488612836439</v>
       </c>
       <c r="CI8" t="n">
-        <v>88.36648583484028</v>
+        <v>26.50994575045208</v>
       </c>
     </row>
     <row r="9">
@@ -2732,262 +2732,262 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.11539931218951</v>
+        <v>13.23461979365685</v>
       </c>
       <c r="C9" t="n">
-        <v>45.40190146931721</v>
+        <v>13.62057044079516</v>
       </c>
       <c r="D9" t="n">
-        <v>46.58124038954382</v>
+        <v>13.97437211686315</v>
       </c>
       <c r="E9" t="n">
-        <v>45.90146639940923</v>
+        <v>13.77043991982277</v>
       </c>
       <c r="F9" t="n">
-        <v>44.7103351443746</v>
+        <v>13.41310054331238</v>
       </c>
       <c r="G9" t="n">
-        <v>43.59467252505836</v>
+        <v>13.07840175751751</v>
       </c>
       <c r="H9" t="n">
-        <v>45.37847579814624</v>
+        <v>13.61354273944387</v>
       </c>
       <c r="I9" t="n">
-        <v>44.60690824327187</v>
+        <v>13.38207247298156</v>
       </c>
       <c r="J9" t="n">
-        <v>43.32822989047225</v>
+        <v>12.99846896714168</v>
       </c>
       <c r="K9" t="n">
-        <v>45.56412729026037</v>
+        <v>13.66923818707811</v>
       </c>
       <c r="L9" t="n">
-        <v>44.15449932691312</v>
+        <v>13.24634979807394</v>
       </c>
       <c r="M9" t="n">
-        <v>46.0138332726611</v>
+        <v>13.80414998179833</v>
       </c>
       <c r="N9" t="n">
-        <v>44.98837351609351</v>
+        <v>13.49651205482805</v>
       </c>
       <c r="O9" t="n">
-        <v>42.87428342887615</v>
+        <v>12.86228502866284</v>
       </c>
       <c r="P9" t="n">
-        <v>45.18571428571427</v>
+        <v>13.55571428571428</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.18751979727589</v>
+        <v>13.25625593918277</v>
       </c>
       <c r="R9" t="n">
-        <v>43.39168287487266</v>
+        <v>13.0175048624618</v>
       </c>
       <c r="S9" t="n">
-        <v>41.90611976310593</v>
+        <v>12.57183592893178</v>
       </c>
       <c r="T9" t="n">
-        <v>43.87487849659789</v>
+        <v>13.16246354897937</v>
       </c>
       <c r="U9" t="n">
-        <v>44.89112227805695</v>
+        <v>13.46733668341708</v>
       </c>
       <c r="V9" t="n">
-        <v>41.44502330682752</v>
+        <v>12.43350699204826</v>
       </c>
       <c r="W9" t="n">
-        <v>43.15740308267165</v>
+        <v>12.9472209248015</v>
       </c>
       <c r="X9" t="n">
-        <v>43.46401262289112</v>
+        <v>13.03920378686734</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.69801980198019</v>
+        <v>12.80940594059406</v>
       </c>
       <c r="Z9" t="n">
-        <v>44.70180149938459</v>
+        <v>13.41054044981538</v>
       </c>
       <c r="AA9" t="n">
-        <v>45.72965162947503</v>
+        <v>13.71889548884251</v>
       </c>
       <c r="AB9" t="n">
-        <v>42.15401631411586</v>
+        <v>12.64620489423476</v>
       </c>
       <c r="AC9" t="n">
-        <v>45.62289562289561</v>
+        <v>13.68686868686869</v>
       </c>
       <c r="AD9" t="n">
-        <v>46.98157170091082</v>
+        <v>14.09447151027324</v>
       </c>
       <c r="AE9" t="n">
-        <v>43.29085718264744</v>
+        <v>12.98725715479423</v>
       </c>
       <c r="AF9" t="n">
-        <v>44.3517553006604</v>
+        <v>13.30552659019812</v>
       </c>
       <c r="AG9" t="n">
-        <v>48.26254826254826</v>
+        <v>14.47876447876448</v>
       </c>
       <c r="AH9" t="n">
-        <v>44.71557816708487</v>
+        <v>13.41467345012546</v>
       </c>
       <c r="AI9" t="n">
-        <v>46.64714903108882</v>
+        <v>13.99414470932664</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44.66513735802606</v>
+        <v>13.39954120740782</v>
       </c>
       <c r="AK9" t="n">
-        <v>44.70467121348604</v>
+        <v>13.41140136404581</v>
       </c>
       <c r="AL9" t="n">
-        <v>42.57494771089938</v>
+        <v>12.77248431326981</v>
       </c>
       <c r="AM9" t="n">
-        <v>35.98484848484848</v>
+        <v>10.79545454545455</v>
       </c>
       <c r="AN9" t="n">
-        <v>41.87529522909778</v>
+        <v>12.56258856872933</v>
       </c>
       <c r="AO9" t="n">
-        <v>42.17054263565893</v>
+        <v>12.65116279069768</v>
       </c>
       <c r="AP9" t="n">
-        <v>41.06865486175832</v>
+        <v>12.3205964585275</v>
       </c>
       <c r="AQ9" t="n">
-        <v>44.52519379844962</v>
+        <v>13.35755813953489</v>
       </c>
       <c r="AR9" t="n">
-        <v>43.55445651005269</v>
+        <v>13.06633695301581</v>
       </c>
       <c r="AS9" t="n">
-        <v>45.08685603518973</v>
+        <v>13.52605681055692</v>
       </c>
       <c r="AT9" t="n">
-        <v>49.08702869338391</v>
+        <v>14.72610860801517</v>
       </c>
       <c r="AU9" t="n">
-        <v>46.53134062012045</v>
+        <v>13.95940218603614</v>
       </c>
       <c r="AV9" t="n">
-        <v>43.39485911590434</v>
+        <v>13.0184577347713</v>
       </c>
       <c r="AW9" t="n">
-        <v>46.34335811785597</v>
+        <v>13.90300743535679</v>
       </c>
       <c r="AX9" t="n">
-        <v>42.17238962859145</v>
+        <v>12.65171688857743</v>
       </c>
       <c r="AY9" t="n">
-        <v>44.24811631115355</v>
+        <v>13.27443489334606</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41.92233426303368</v>
+        <v>12.5767002789101</v>
       </c>
       <c r="BA9" t="n">
-        <v>43.63114934921686</v>
+        <v>13.08934480476506</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.74607693835663</v>
+        <v>13.42382308150699</v>
       </c>
       <c r="BC9" t="n">
-        <v>47.82558003964089</v>
+        <v>14.34767401189227</v>
       </c>
       <c r="BD9" t="n">
-        <v>44.5273322557918</v>
+        <v>13.35819967673754</v>
       </c>
       <c r="BE9" t="n">
-        <v>45.27309122104662</v>
+        <v>13.58192736631399</v>
       </c>
       <c r="BF9" t="n">
-        <v>43.16452686638137</v>
+        <v>12.94935805991441</v>
       </c>
       <c r="BG9" t="n">
-        <v>44.2646633920832</v>
+        <v>13.27939901762496</v>
       </c>
       <c r="BH9" t="n">
-        <v>44.65020576131686</v>
+        <v>13.39506172839506</v>
       </c>
       <c r="BI9" t="n">
-        <v>42.16678244586063</v>
+        <v>12.65003473375819</v>
       </c>
       <c r="BJ9" t="n">
-        <v>37.34719941616494</v>
+        <v>11.20415982484948</v>
       </c>
       <c r="BK9" t="n">
-        <v>42.90445859872612</v>
+        <v>12.87133757961783</v>
       </c>
       <c r="BL9" t="n">
-        <v>45.17114692081046</v>
+        <v>13.55134407624314</v>
       </c>
       <c r="BM9" t="n">
-        <v>45.85705249841872</v>
+        <v>13.75711574952561</v>
       </c>
       <c r="BN9" t="n">
-        <v>43.7449815320379</v>
+        <v>13.12349445961137</v>
       </c>
       <c r="BO9" t="n">
-        <v>45.1834862385321</v>
+        <v>13.55504587155963</v>
       </c>
       <c r="BP9" t="n">
-        <v>41.26067882706072</v>
+        <v>12.37820364811821</v>
       </c>
       <c r="BQ9" t="n">
-        <v>44.51066674093467</v>
+        <v>13.3532000222804</v>
       </c>
       <c r="BR9" t="n">
-        <v>42.66855256954266</v>
+        <v>12.8005657708628</v>
       </c>
       <c r="BS9" t="n">
-        <v>43.20731200664729</v>
+        <v>12.96219360199419</v>
       </c>
       <c r="BT9" t="n">
-        <v>44.37323375050466</v>
+        <v>13.3119701251514</v>
       </c>
       <c r="BU9" t="n">
-        <v>43.30028933263765</v>
+        <v>12.9900867997913</v>
       </c>
       <c r="BV9" t="n">
-        <v>42.86090506079096</v>
+        <v>12.85827151823729</v>
       </c>
       <c r="BW9" t="n">
-        <v>43.69753453632098</v>
+        <v>13.10926036089629</v>
       </c>
       <c r="BX9" t="n">
-        <v>44.83057135790254</v>
+        <v>13.44917140737076</v>
       </c>
       <c r="BY9" t="n">
-        <v>40.85861321776814</v>
+        <v>12.25758396533044</v>
       </c>
       <c r="BZ9" t="n">
-        <v>40.61941631923765</v>
+        <v>12.1858248957713</v>
       </c>
       <c r="CA9" t="n">
-        <v>43.7184047931099</v>
+        <v>13.11552143793297</v>
       </c>
       <c r="CB9" t="n">
-        <v>42.88190146075762</v>
+        <v>12.86457043822728</v>
       </c>
       <c r="CC9" t="n">
-        <v>42.72458878110502</v>
+        <v>12.8173766343315</v>
       </c>
       <c r="CD9" t="n">
-        <v>40.73619631901838</v>
+        <v>12.22085889570552</v>
       </c>
       <c r="CE9" t="n">
-        <v>44.94766075624867</v>
+        <v>13.4842982268746</v>
       </c>
       <c r="CF9" t="n">
-        <v>41.23188405797101</v>
+        <v>12.3695652173913</v>
       </c>
       <c r="CG9" t="n">
-        <v>31.22448979591837</v>
+        <v>9.367346938775508</v>
       </c>
       <c r="CH9" t="n">
-        <v>48.15717628705149</v>
+        <v>14.44715288611545</v>
       </c>
       <c r="CI9" t="n">
-        <v>48.51199999999999</v>
+        <v>14.5536</v>
       </c>
     </row>
     <row r="10">
@@ -2997,262 +2997,262 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-30.51836139467055</v>
+        <v>-9.155508418401165</v>
       </c>
       <c r="C10" t="n">
-        <v>-29.87279319978601</v>
+        <v>-8.961837959935805</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.1139939855934</v>
+        <v>-9.03419819567802</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.90238611713666</v>
+        <v>-8.970715835140998</v>
       </c>
       <c r="F10" t="n">
-        <v>-30.17928707023835</v>
+        <v>-9.053786121071504</v>
       </c>
       <c r="G10" t="n">
-        <v>-31.5978198508319</v>
+        <v>-9.47934595524957</v>
       </c>
       <c r="H10" t="n">
-        <v>-30.73142654741876</v>
+        <v>-9.219427964225627</v>
       </c>
       <c r="I10" t="n">
-        <v>-31.2206916764361</v>
+        <v>-9.36620750293083</v>
       </c>
       <c r="J10" t="n">
-        <v>-30.79293344289236</v>
+        <v>-9.237880032867707</v>
       </c>
       <c r="K10" t="n">
-        <v>-30.4529645578006</v>
+        <v>-9.13588936734018</v>
       </c>
       <c r="L10" t="n">
-        <v>-30.43423604626104</v>
+        <v>-9.130270813878314</v>
       </c>
       <c r="M10" t="n">
-        <v>-29.69334330590875</v>
+        <v>-8.908002991772626</v>
       </c>
       <c r="N10" t="n">
-        <v>-29.77969106102811</v>
+        <v>-8.933907318308432</v>
       </c>
       <c r="O10" t="n">
-        <v>-30.66156573668005</v>
+        <v>-9.198469721004013</v>
       </c>
       <c r="P10" t="n">
-        <v>-30.64547869723507</v>
+        <v>-9.19364360917052</v>
       </c>
       <c r="Q10" t="n">
-        <v>-30.5140597539543</v>
+        <v>-9.154217926186291</v>
       </c>
       <c r="R10" t="n">
-        <v>-30.1931275029066</v>
+        <v>-9.057938250871981</v>
       </c>
       <c r="S10" t="n">
-        <v>-31.05726872246696</v>
+        <v>-9.317180616740089</v>
       </c>
       <c r="T10" t="n">
-        <v>-30.14938397875594</v>
+        <v>-9.044815193626782</v>
       </c>
       <c r="U10" t="n">
-        <v>-30.37572254335259</v>
+        <v>-9.112716763005778</v>
       </c>
       <c r="V10" t="n">
-        <v>-29.00552486187845</v>
+        <v>-8.701657458563535</v>
       </c>
       <c r="W10" t="n">
-        <v>-28.82952691680261</v>
+        <v>-8.648858075040781</v>
       </c>
       <c r="X10" t="n">
-        <v>-28.93401015228426</v>
+        <v>-8.680203045685278</v>
       </c>
       <c r="Y10" t="n">
-        <v>-31.23156981786644</v>
+        <v>-9.369470945359932</v>
       </c>
       <c r="Z10" t="n">
-        <v>-30.9155583049799</v>
+        <v>-9.27466749149397</v>
       </c>
       <c r="AA10" t="n">
-        <v>-29.76315064720463</v>
+        <v>-8.928945194161388</v>
       </c>
       <c r="AB10" t="n">
-        <v>-30.47072553977825</v>
+        <v>-9.141217661933476</v>
       </c>
       <c r="AC10" t="n">
-        <v>-30.61416184971098</v>
+        <v>-9.184248554913294</v>
       </c>
       <c r="AD10" t="n">
-        <v>-30.54474708171206</v>
+        <v>-9.16342412451362</v>
       </c>
       <c r="AE10" t="n">
-        <v>-30.04422198464379</v>
+        <v>-9.013266595393137</v>
       </c>
       <c r="AF10" t="n">
-        <v>-31.73609438959788</v>
+        <v>-9.520828316879363</v>
       </c>
       <c r="AG10" t="n">
-        <v>-32.8125</v>
+        <v>-9.84375</v>
       </c>
       <c r="AH10" t="n">
-        <v>-30.38671396528959</v>
+        <v>-9.116014189586878</v>
       </c>
       <c r="AI10" t="n">
-        <v>-30.65405456792471</v>
+        <v>-9.196216370377414</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-30.32564975247524</v>
+        <v>-9.097694925742573</v>
       </c>
       <c r="AK10" t="n">
-        <v>-30.47910182303246</v>
+        <v>-9.143730546909739</v>
       </c>
       <c r="AL10" t="n">
-        <v>-30.40342298288509</v>
+        <v>-9.121026894865526</v>
       </c>
       <c r="AM10" t="n">
-        <v>-33.56545961002785</v>
+        <v>-10.06963788300836</v>
       </c>
       <c r="AN10" t="n">
-        <v>-30.85566838688197</v>
+        <v>-9.256700516064591</v>
       </c>
       <c r="AO10" t="n">
-        <v>-30.47982551799346</v>
+        <v>-9.143947655398037</v>
       </c>
       <c r="AP10" t="n">
-        <v>-31.6560229024444</v>
+        <v>-9.49680687073332</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-29.50050284948039</v>
+        <v>-8.850150854844118</v>
       </c>
       <c r="AR10" t="n">
-        <v>-32.20116836429</v>
+        <v>-9.660350509286999</v>
       </c>
       <c r="AS10" t="n">
-        <v>-30.8329693481668</v>
+        <v>-9.249890804450038</v>
       </c>
       <c r="AT10" t="n">
-        <v>-29.85525687927469</v>
+        <v>-8.956577063782406</v>
       </c>
       <c r="AU10" t="n">
-        <v>-30.85705586847313</v>
+        <v>-9.257116760541939</v>
       </c>
       <c r="AV10" t="n">
-        <v>-30.593953446892</v>
+        <v>-9.1781860340676</v>
       </c>
       <c r="AW10" t="n">
-        <v>-29.95374232198378</v>
+        <v>-8.986122696595134</v>
       </c>
       <c r="AX10" t="n">
-        <v>-30.42685331230284</v>
+        <v>-9.128055993690852</v>
       </c>
       <c r="AY10" t="n">
-        <v>-30.17840720985837</v>
+        <v>-9.053522162957512</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-30.51020408163265</v>
+        <v>-9.153061224489797</v>
       </c>
       <c r="BA10" t="n">
-        <v>-30.15144068317258</v>
+        <v>-9.045432204951775</v>
       </c>
       <c r="BB10" t="n">
-        <v>-31.35721147248525</v>
+        <v>-9.407163441745574</v>
       </c>
       <c r="BC10" t="n">
-        <v>-29.80913321239845</v>
+        <v>-8.942739963719534</v>
       </c>
       <c r="BD10" t="n">
-        <v>-30.7874286697445</v>
+        <v>-9.236228600923351</v>
       </c>
       <c r="BE10" t="n">
-        <v>-31.16215897011929</v>
+        <v>-9.348647691035787</v>
       </c>
       <c r="BF10" t="n">
-        <v>-30.05065183093914</v>
+        <v>-9.015195549281742</v>
       </c>
       <c r="BG10" t="n">
-        <v>-31.59423192469457</v>
+        <v>-9.478269577408371</v>
       </c>
       <c r="BH10" t="n">
-        <v>-30.6390977443609</v>
+        <v>-9.19172932330827</v>
       </c>
       <c r="BI10" t="n">
-        <v>-30.31230082855322</v>
+        <v>-9.093690248565965</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-30.39984059511159</v>
+        <v>-9.119952178533476</v>
       </c>
       <c r="BK10" t="n">
-        <v>-30.29060438580852</v>
+        <v>-9.087181315742557</v>
       </c>
       <c r="BL10" t="n">
-        <v>-31.05690445764113</v>
+        <v>-9.31707133729234</v>
       </c>
       <c r="BM10" t="n">
-        <v>-31.43972246313963</v>
+        <v>-9.431916738941888</v>
       </c>
       <c r="BN10" t="n">
-        <v>-31.66126689755334</v>
+        <v>-9.498380069266002</v>
       </c>
       <c r="BO10" t="n">
-        <v>-30.45023696682464</v>
+        <v>-9.135071090047393</v>
       </c>
       <c r="BP10" t="n">
-        <v>-29.70742072572736</v>
+        <v>-8.912226217718207</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-31.2095282146161</v>
+        <v>-9.362858464384828</v>
       </c>
       <c r="BR10" t="n">
-        <v>-30.68820224719101</v>
+        <v>-9.206460674157302</v>
       </c>
       <c r="BS10" t="n">
-        <v>-30.73977371627502</v>
+        <v>-9.221932114882506</v>
       </c>
       <c r="BT10" t="n">
-        <v>-29.37537138662659</v>
+        <v>-8.812611415987977</v>
       </c>
       <c r="BU10" t="n">
-        <v>-31.0820203892493</v>
+        <v>-9.32460611677479</v>
       </c>
       <c r="BV10" t="n">
-        <v>-30.83445987464668</v>
+        <v>-9.250337962394005</v>
       </c>
       <c r="BW10" t="n">
-        <v>-31.65133394664214</v>
+        <v>-9.49540018399264</v>
       </c>
       <c r="BX10" t="n">
-        <v>-30.85987533088549</v>
+        <v>-9.257962599265646</v>
       </c>
       <c r="BY10" t="n">
-        <v>-31.22295933083357</v>
+        <v>-9.366887799250071</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-30.30495552731893</v>
+        <v>-9.091486658195681</v>
       </c>
       <c r="CA10" t="n">
-        <v>-30.43903074517978</v>
+        <v>-9.131709223553933</v>
       </c>
       <c r="CB10" t="n">
-        <v>-31.06047478773176</v>
+        <v>-9.318142436319528</v>
       </c>
       <c r="CC10" t="n">
-        <v>-31.11702127659575</v>
+        <v>-9.335106382978724</v>
       </c>
       <c r="CD10" t="n">
-        <v>-29.11944202266782</v>
+        <v>-8.735832606800347</v>
       </c>
       <c r="CE10" t="n">
-        <v>-28.08400884303611</v>
+        <v>-8.425202652910832</v>
       </c>
       <c r="CF10" t="n">
-        <v>-32.27296049256028</v>
+        <v>-9.681888147768085</v>
       </c>
       <c r="CG10" t="n">
-        <v>-26.98289269051322</v>
+        <v>-8.094867807153966</v>
       </c>
       <c r="CH10" t="n">
-        <v>-29.35834155972359</v>
+        <v>-8.807502467917079</v>
       </c>
       <c r="CI10" t="n">
-        <v>-29.41176470588236</v>
+        <v>-8.823529411764707</v>
       </c>
     </row>
     <row r="11">
@@ -3262,262 +3262,262 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-43.72257202823888</v>
+        <v>-13.11677160847166</v>
       </c>
       <c r="C11" t="n">
-        <v>-43.58974358974358</v>
+        <v>-13.07692307692307</v>
       </c>
       <c r="D11" t="n">
-        <v>-47.48323826678676</v>
+        <v>-14.24497148003603</v>
       </c>
       <c r="E11" t="n">
-        <v>-41.28629635360256</v>
+        <v>-12.38588890608077</v>
       </c>
       <c r="F11" t="n">
-        <v>-45.15739230257991</v>
+        <v>-13.54721769077397</v>
       </c>
       <c r="G11" t="n">
-        <v>-46.82323338226043</v>
+        <v>-14.04697001467813</v>
       </c>
       <c r="H11" t="n">
-        <v>-43.58581016299137</v>
+        <v>-13.07574304889741</v>
       </c>
       <c r="I11" t="n">
-        <v>-43.027591349739</v>
+        <v>-12.9082774049217</v>
       </c>
       <c r="J11" t="n">
-        <v>-43.73404571089344</v>
+        <v>-13.12021371326803</v>
       </c>
       <c r="K11" t="n">
-        <v>-44.38292552241472</v>
+        <v>-13.31487765672442</v>
       </c>
       <c r="L11" t="n">
-        <v>-43.37196995120944</v>
+        <v>-13.01159098536283</v>
       </c>
       <c r="M11" t="n">
-        <v>-41.91489361702128</v>
+        <v>-12.57446808510638</v>
       </c>
       <c r="N11" t="n">
-        <v>-43.59899026325279</v>
+        <v>-13.07969707897584</v>
       </c>
       <c r="O11" t="n">
-        <v>-44.38164446238729</v>
+        <v>-13.31449333871619</v>
       </c>
       <c r="P11" t="n">
-        <v>-45.42101156274385</v>
+        <v>-13.62630346882316</v>
       </c>
       <c r="Q11" t="n">
-        <v>-41.04752871746232</v>
+        <v>-12.3142586152387</v>
       </c>
       <c r="R11" t="n">
-        <v>-43.21535970390931</v>
+        <v>-12.96460791117279</v>
       </c>
       <c r="S11" t="n">
-        <v>-43.20946135306317</v>
+        <v>-12.96283840591895</v>
       </c>
       <c r="T11" t="n">
-        <v>-41.56541130164359</v>
+        <v>-12.46962339049308</v>
       </c>
       <c r="U11" t="n">
-        <v>-44.49979244499792</v>
+        <v>-13.34993773349938</v>
       </c>
       <c r="V11" t="n">
-        <v>-37.29264796231825</v>
+        <v>-11.18779438869547</v>
       </c>
       <c r="W11" t="n">
-        <v>-41.9632112772907</v>
+        <v>-12.58896338318721</v>
       </c>
       <c r="X11" t="n">
-        <v>-41.63095238095239</v>
+        <v>-12.48928571428572</v>
       </c>
       <c r="Y11" t="n">
-        <v>-44.92369781813596</v>
+        <v>-13.47710934544079</v>
       </c>
       <c r="Z11" t="n">
-        <v>-45.60107454667563</v>
+        <v>-13.68032236400269</v>
       </c>
       <c r="AA11" t="n">
-        <v>-42.78320197623809</v>
+        <v>-12.83496059287143</v>
       </c>
       <c r="AB11" t="n">
-        <v>-41.76807945167156</v>
+        <v>-12.53042383550147</v>
       </c>
       <c r="AC11" t="n">
-        <v>-44.82974070602936</v>
+        <v>-13.44892221180881</v>
       </c>
       <c r="AD11" t="n">
-        <v>-43.70785351177508</v>
+        <v>-13.11235605353252</v>
       </c>
       <c r="AE11" t="n">
-        <v>-43.33182823335996</v>
+        <v>-12.99954847000799</v>
       </c>
       <c r="AF11" t="n">
-        <v>-44.79717813051147</v>
+        <v>-13.43915343915344</v>
       </c>
       <c r="AG11" t="n">
-        <v>-47.56367663344408</v>
+        <v>-14.26910299003322</v>
       </c>
       <c r="AH11" t="n">
-        <v>-44.66305614588332</v>
+        <v>-13.398916843765</v>
       </c>
       <c r="AI11" t="n">
-        <v>-45.63026938104051</v>
+        <v>-13.68908081431215</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-44.46294754371357</v>
+        <v>-13.33888426311407</v>
       </c>
       <c r="AK11" t="n">
-        <v>-44.14544059097232</v>
+        <v>-13.2436321772917</v>
       </c>
       <c r="AL11" t="n">
-        <v>-46.8352948064875</v>
+        <v>-14.05058844194625</v>
       </c>
       <c r="AM11" t="n">
-        <v>-51.50244584206848</v>
+        <v>-15.45073375262054</v>
       </c>
       <c r="AN11" t="n">
-        <v>-44.86577585169134</v>
+        <v>-13.4597327555074</v>
       </c>
       <c r="AO11" t="n">
-        <v>-43.72549019607843</v>
+        <v>-13.11764705882353</v>
       </c>
       <c r="AP11" t="n">
-        <v>-43.12872563235057</v>
+        <v>-12.93861768970517</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-48.69234427009035</v>
+        <v>-14.6077032810271</v>
       </c>
       <c r="AR11" t="n">
-        <v>-47.06987020160177</v>
+        <v>-14.12096106048053</v>
       </c>
       <c r="AS11" t="n">
-        <v>-44.07979049423302</v>
+        <v>-13.22393714826991</v>
       </c>
       <c r="AT11" t="n">
-        <v>-43.56009070294785</v>
+        <v>-13.06802721088435</v>
       </c>
       <c r="AU11" t="n">
-        <v>-46.16908850726552</v>
+        <v>-13.85072655217966</v>
       </c>
       <c r="AV11" t="n">
-        <v>-42.55916050969055</v>
+        <v>-12.76774815290716</v>
       </c>
       <c r="AW11" t="n">
-        <v>-45.28526577893255</v>
+        <v>-13.58557973367977</v>
       </c>
       <c r="AX11" t="n">
-        <v>-42.96847325540205</v>
+        <v>-12.89054197662061</v>
       </c>
       <c r="AY11" t="n">
-        <v>-43.81223328591749</v>
+        <v>-13.14366998577525</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-43.24250829390331</v>
+        <v>-12.97275248817099</v>
       </c>
       <c r="BA11" t="n">
-        <v>-41.8211403566638</v>
+        <v>-12.54634210699914</v>
       </c>
       <c r="BB11" t="n">
-        <v>-46.34812741570039</v>
+        <v>-13.90443822471012</v>
       </c>
       <c r="BC11" t="n">
-        <v>-44.9969099387606</v>
+        <v>-13.49907298162818</v>
       </c>
       <c r="BD11" t="n">
-        <v>-43.87752988212873</v>
+        <v>-13.16325896463862</v>
       </c>
       <c r="BE11" t="n">
-        <v>-46.2297332075148</v>
+        <v>-13.86891996225444</v>
       </c>
       <c r="BF11" t="n">
-        <v>-44.10018993352327</v>
+        <v>-13.23005698005698</v>
       </c>
       <c r="BG11" t="n">
-        <v>-45.05928853754941</v>
+        <v>-13.51778656126482</v>
       </c>
       <c r="BH11" t="n">
-        <v>-43.42928294147806</v>
+        <v>-13.02878488244342</v>
       </c>
       <c r="BI11" t="n">
-        <v>-42.79007377598927</v>
+        <v>-12.83702213279678</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-41.63565225689474</v>
+        <v>-12.49069567706842</v>
       </c>
       <c r="BK11" t="n">
-        <v>-43.44416027280477</v>
+        <v>-13.03324808184143</v>
       </c>
       <c r="BL11" t="n">
-        <v>-44.14581402533209</v>
+        <v>-13.24374420759963</v>
       </c>
       <c r="BM11" t="n">
-        <v>-48.2605945604048</v>
+        <v>-14.47817836812144</v>
       </c>
       <c r="BN11" t="n">
-        <v>-43.97580513323526</v>
+        <v>-13.19274153997057</v>
       </c>
       <c r="BO11" t="n">
-        <v>-41.62407722884724</v>
+        <v>-12.48722316865417</v>
       </c>
       <c r="BP11" t="n">
-        <v>-43.96000465062202</v>
+        <v>-13.18800139518661</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-42.83072785342074</v>
+        <v>-12.84921835602622</v>
       </c>
       <c r="BR11" t="n">
-        <v>-44.29942189641814</v>
+        <v>-13.28982656892544</v>
       </c>
       <c r="BS11" t="n">
-        <v>-43.89293792410153</v>
+        <v>-13.16788137723046</v>
       </c>
       <c r="BT11" t="n">
-        <v>-43.4397426379609</v>
+        <v>-13.03192279138827</v>
       </c>
       <c r="BU11" t="n">
-        <v>-44.49967581586341</v>
+        <v>-13.34990274475902</v>
       </c>
       <c r="BV11" t="n">
-        <v>-42.99484719260838</v>
+        <v>-12.89845415778252</v>
       </c>
       <c r="BW11" t="n">
-        <v>-43.66377279763106</v>
+        <v>-13.09913183928932</v>
       </c>
       <c r="BX11" t="n">
-        <v>-45.12782512041497</v>
+        <v>-13.53834753612449</v>
       </c>
       <c r="BY11" t="n">
-        <v>-44.39085762214301</v>
+        <v>-13.3172572866429</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-45.30537830446673</v>
+        <v>-13.59161349134002</v>
       </c>
       <c r="CA11" t="n">
-        <v>-42.5913787183569</v>
+        <v>-12.77741361550707</v>
       </c>
       <c r="CB11" t="n">
-        <v>-43.80629215365926</v>
+        <v>-13.14188764609778</v>
       </c>
       <c r="CC11" t="n">
-        <v>-46.2033462033462</v>
+        <v>-13.86100386100386</v>
       </c>
       <c r="CD11" t="n">
-        <v>-41.51291512915129</v>
+        <v>-12.45387453874539</v>
       </c>
       <c r="CE11" t="n">
-        <v>-40.91607746695358</v>
+        <v>-12.27482324008608</v>
       </c>
       <c r="CF11" t="n">
-        <v>-45.45454545454545</v>
+        <v>-13.63636363636364</v>
       </c>
       <c r="CG11" t="n">
-        <v>-28.64749733759318</v>
+        <v>-8.594249201277954</v>
       </c>
       <c r="CH11" t="n">
-        <v>-44.12148313769331</v>
+        <v>-13.23644494130799</v>
       </c>
       <c r="CI11" t="n">
-        <v>-41.75824175824176</v>
+        <v>-12.52747252747253</v>
       </c>
     </row>
     <row r="12">
@@ -3527,262 +3527,262 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C12" t="n">
-        <v>75.35687453042824</v>
+        <v>22.60706235912847</v>
       </c>
       <c r="D12" t="n">
-        <v>76.88643292682929</v>
+        <v>23.06592987804878</v>
       </c>
       <c r="E12" t="n">
-        <v>76.84469430780044</v>
+        <v>23.05340829234013</v>
       </c>
       <c r="F12" t="n">
-        <v>75.86206896551725</v>
+        <v>22.75862068965517</v>
       </c>
       <c r="G12" t="n">
-        <v>82.41324921135646</v>
+        <v>24.72397476340694</v>
       </c>
       <c r="H12" t="n">
-        <v>83.61658735554045</v>
+        <v>25.08497620666213</v>
       </c>
       <c r="I12" t="n">
-        <v>78.1600598354525</v>
+        <v>23.44801795063575</v>
       </c>
       <c r="J12" t="n">
-        <v>79.40493775058029</v>
+        <v>23.82148132517408</v>
       </c>
       <c r="K12" t="n">
-        <v>81.18175979447656</v>
+        <v>24.35452793834297</v>
       </c>
       <c r="L12" t="n">
-        <v>80.76525650376853</v>
+        <v>24.22957695113056</v>
       </c>
       <c r="M12" t="n">
-        <v>76.73992673992674</v>
+        <v>23.02197802197802</v>
       </c>
       <c r="N12" t="n">
-        <v>80.56265984654732</v>
+        <v>24.16879795396419</v>
       </c>
       <c r="O12" t="n">
-        <v>79.62738930558913</v>
+        <v>23.88821679167674</v>
       </c>
       <c r="P12" t="n">
-        <v>84.50740837015857</v>
+        <v>25.35222251104757</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.93957811941365</v>
+        <v>23.0818734358241</v>
       </c>
       <c r="R12" t="n">
-        <v>73.37461300309596</v>
+        <v>22.01238390092879</v>
       </c>
       <c r="S12" t="n">
-        <v>75.70075009869718</v>
+        <v>22.71022502960916</v>
       </c>
       <c r="T12" t="n">
-        <v>76.67532586956021</v>
+        <v>23.00259776086807</v>
       </c>
       <c r="U12" t="n">
-        <v>75.95362752430813</v>
+        <v>22.78608825729244</v>
       </c>
       <c r="V12" t="n">
-        <v>65.4909645112127</v>
+        <v>19.64728935336381</v>
       </c>
       <c r="W12" t="n">
-        <v>72.27488151658767</v>
+        <v>21.6824644549763</v>
       </c>
       <c r="X12" t="n">
-        <v>72.52702427085458</v>
+        <v>21.75810728125637</v>
       </c>
       <c r="Y12" t="n">
-        <v>83.55850698419967</v>
+        <v>25.0675520952599</v>
       </c>
       <c r="Z12" t="n">
-        <v>77.44855967078188</v>
+        <v>23.23456790123456</v>
       </c>
       <c r="AA12" t="n">
-        <v>76.05537280701755</v>
+        <v>22.81661184210527</v>
       </c>
       <c r="AB12" t="n">
-        <v>68.34013932260387</v>
+        <v>20.50204179678116</v>
       </c>
       <c r="AC12" t="n">
-        <v>78.44469611174029</v>
+        <v>23.53340883352208</v>
       </c>
       <c r="AD12" t="n">
-        <v>82.08625138223368</v>
+        <v>24.62587541467011</v>
       </c>
       <c r="AE12" t="n">
-        <v>74.91112654762389</v>
+        <v>22.47333796428717</v>
       </c>
       <c r="AF12" t="n">
-        <v>82.61980830670927</v>
+        <v>24.78594249201278</v>
       </c>
       <c r="AG12" t="n">
-        <v>75.50158394931361</v>
+        <v>22.65047518479408</v>
       </c>
       <c r="AH12" t="n">
-        <v>77.96085232903866</v>
+        <v>23.3882556987116</v>
       </c>
       <c r="AI12" t="n">
-        <v>83.15683308119013</v>
+        <v>24.94704992435704</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80.07996001999001</v>
+        <v>24.023988005997</v>
       </c>
       <c r="AK12" t="n">
-        <v>77.24149776709035</v>
+        <v>23.1724493301271</v>
       </c>
       <c r="AL12" t="n">
-        <v>75.66079295154186</v>
+        <v>22.69823788546256</v>
       </c>
       <c r="AM12" t="n">
-        <v>76.657060518732</v>
+        <v>22.9971181556196</v>
       </c>
       <c r="AN12" t="n">
-        <v>83.9301310043668</v>
+        <v>25.17903930131004</v>
       </c>
       <c r="AO12" t="n">
-        <v>75.33101045296166</v>
+        <v>22.5993031358885</v>
       </c>
       <c r="AP12" t="n">
-        <v>77.39376770538243</v>
+        <v>23.21813031161473</v>
       </c>
       <c r="AQ12" t="n">
-        <v>77.38646895273401</v>
+        <v>23.2159406858202</v>
       </c>
       <c r="AR12" t="n">
-        <v>79.56798497339037</v>
+        <v>23.87039549201711</v>
       </c>
       <c r="AS12" t="n">
-        <v>77.4212833798326</v>
+        <v>23.22638501394978</v>
       </c>
       <c r="AT12" t="n">
-        <v>73.68421052631579</v>
+        <v>22.10526315789474</v>
       </c>
       <c r="AU12" t="n">
-        <v>84.00817995910022</v>
+        <v>25.20245398773006</v>
       </c>
       <c r="AV12" t="n">
-        <v>76.53418835284469</v>
+        <v>22.96025650585341</v>
       </c>
       <c r="AW12" t="n">
-        <v>77.76018994855558</v>
+        <v>23.32805698456668</v>
       </c>
       <c r="AX12" t="n">
-        <v>68.42236024844719</v>
+        <v>20.52670807453416</v>
       </c>
       <c r="AY12" t="n">
-        <v>78.03094233473981</v>
+        <v>23.40928270042194</v>
       </c>
       <c r="AZ12" t="n">
-        <v>75.98696818704485</v>
+        <v>22.79609045611346</v>
       </c>
       <c r="BA12" t="n">
-        <v>77.75342051553403</v>
+        <v>23.32602615466021</v>
       </c>
       <c r="BB12" t="n">
-        <v>78.88461060737799</v>
+        <v>23.6653831822134</v>
       </c>
       <c r="BC12" t="n">
-        <v>81.61389172625128</v>
+        <v>24.48416751787538</v>
       </c>
       <c r="BD12" t="n">
-        <v>74.19164328953197</v>
+        <v>22.25749298685959</v>
       </c>
       <c r="BE12" t="n">
-        <v>79.82344182088919</v>
+        <v>23.94703254626675</v>
       </c>
       <c r="BF12" t="n">
-        <v>77.53238479507326</v>
+        <v>23.25971543852198</v>
       </c>
       <c r="BG12" t="n">
-        <v>79.45643485211831</v>
+        <v>23.83693045563549</v>
       </c>
       <c r="BH12" t="n">
-        <v>76.95893106841369</v>
+        <v>23.08767932052411</v>
       </c>
       <c r="BI12" t="n">
-        <v>77.38996056698286</v>
+        <v>23.21698817009486</v>
       </c>
       <c r="BJ12" t="n">
-        <v>69.75147155003269</v>
+        <v>20.9254414650098</v>
       </c>
       <c r="BK12" t="n">
-        <v>80.96171239071448</v>
+        <v>24.28851371721434</v>
       </c>
       <c r="BL12" t="n">
-        <v>79.93232691306611</v>
+        <v>23.97969807391983</v>
       </c>
       <c r="BM12" t="n">
-        <v>81.05134474327627</v>
+        <v>24.31540342298288</v>
       </c>
       <c r="BN12" t="n">
-        <v>76.74350744091043</v>
+        <v>23.02305223227313</v>
       </c>
       <c r="BO12" t="n">
-        <v>78.98832684824903</v>
+        <v>23.69649805447471</v>
       </c>
       <c r="BP12" t="n">
-        <v>77.63485477178422</v>
+        <v>23.29045643153527</v>
       </c>
       <c r="BQ12" t="n">
-        <v>80.79976477506615</v>
+        <v>24.23992943251984</v>
       </c>
       <c r="BR12" t="n">
-        <v>80.16263642199871</v>
+        <v>24.04879092659962</v>
       </c>
       <c r="BS12" t="n">
-        <v>76.81224337439345</v>
+        <v>23.04367301231803</v>
       </c>
       <c r="BT12" t="n">
-        <v>77.41512075603779</v>
+        <v>23.22453622681134</v>
       </c>
       <c r="BU12" t="n">
-        <v>78.64312911041881</v>
+        <v>23.59293873312565</v>
       </c>
       <c r="BV12" t="n">
-        <v>75.93703732564481</v>
+        <v>22.78111119769344</v>
       </c>
       <c r="BW12" t="n">
-        <v>78.48524668498385</v>
+        <v>23.54557400549516</v>
       </c>
       <c r="BX12" t="n">
-        <v>78.91064595993697</v>
+        <v>23.67319378798109</v>
       </c>
       <c r="BY12" t="n">
-        <v>75.84213172448464</v>
+        <v>22.7526395173454</v>
       </c>
       <c r="BZ12" t="n">
-        <v>73.5</v>
+        <v>22.05</v>
       </c>
       <c r="CA12" t="n">
-        <v>74.31491953023051</v>
+        <v>22.29447585906916</v>
       </c>
       <c r="CB12" t="n">
-        <v>78.12732965558374</v>
+        <v>23.43819889667512</v>
       </c>
       <c r="CC12" t="n">
-        <v>79.26634768740031</v>
+        <v>23.7799043062201</v>
       </c>
       <c r="CD12" t="n">
-        <v>64.35331230283911</v>
+        <v>19.30599369085174</v>
       </c>
       <c r="CE12" t="n">
-        <v>69.6149843912591</v>
+        <v>20.88449531737773</v>
       </c>
       <c r="CF12" t="n">
-        <v>86.38888888888889</v>
+        <v>25.91666666666666</v>
       </c>
       <c r="CG12" t="n">
-        <v>57.91044776119403</v>
+        <v>17.37313432835821</v>
       </c>
       <c r="CH12" t="n">
-        <v>87.27909303101035</v>
+        <v>26.18372790930311</v>
       </c>
       <c r="CI12" t="n">
-        <v>77.56813417190774</v>
+        <v>23.27044025157232</v>
       </c>
     </row>
     <row r="13">
@@ -3792,262 +3792,262 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C13" t="n">
-        <v>45.44130248500429</v>
+        <v>13.63239074550129</v>
       </c>
       <c r="D13" t="n">
-        <v>47.58160077561134</v>
+        <v>14.2744802326834</v>
       </c>
       <c r="E13" t="n">
-        <v>42.92668388635009</v>
+        <v>12.87800516590503</v>
       </c>
       <c r="F13" t="n">
-        <v>46.89594687715341</v>
+        <v>14.06878406314602</v>
       </c>
       <c r="G13" t="n">
-        <v>44.86237209972618</v>
+        <v>13.45871162991785</v>
       </c>
       <c r="H13" t="n">
-        <v>41.58953474021968</v>
+        <v>12.4768604220659</v>
       </c>
       <c r="I13" t="n">
-        <v>44.0176322418136</v>
+        <v>13.20528967254408</v>
       </c>
       <c r="J13" t="n">
-        <v>46.20089390731592</v>
+        <v>13.86026817219478</v>
       </c>
       <c r="K13" t="n">
-        <v>47.28819567529245</v>
+        <v>14.18645870258774</v>
       </c>
       <c r="L13" t="n">
-        <v>44.11304830276232</v>
+        <v>13.2339144908287</v>
       </c>
       <c r="M13" t="n">
-        <v>44.02417962003454</v>
+        <v>13.20725388601036</v>
       </c>
       <c r="N13" t="n">
-        <v>45.73890462700662</v>
+        <v>13.72167138810199</v>
       </c>
       <c r="O13" t="n">
-        <v>44.12715517241379</v>
+        <v>13.23814655172414</v>
       </c>
       <c r="P13" t="n">
-        <v>46.02704987320372</v>
+        <v>13.80811496196111</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.11982218630025</v>
+        <v>12.93594665589008</v>
       </c>
       <c r="R13" t="n">
-        <v>46.91729323308272</v>
+        <v>14.07518796992482</v>
       </c>
       <c r="S13" t="n">
-        <v>45.32075047747445</v>
+        <v>13.59622514324234</v>
       </c>
       <c r="T13" t="n">
-        <v>44.00536095352107</v>
+        <v>13.20160828605632</v>
       </c>
       <c r="U13" t="n">
-        <v>45.03719447396386</v>
+        <v>13.51115834218916</v>
       </c>
       <c r="V13" t="n">
-        <v>38.95540060518353</v>
+        <v>11.68662018155506</v>
       </c>
       <c r="W13" t="n">
-        <v>42.05639614855571</v>
+        <v>12.61691884456671</v>
       </c>
       <c r="X13" t="n">
-        <v>42.49911337037476</v>
+        <v>12.74973401111243</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.70858283433134</v>
+        <v>13.7125748502994</v>
       </c>
       <c r="Z13" t="n">
-        <v>45.00231910946196</v>
+        <v>13.50069573283859</v>
       </c>
       <c r="AA13" t="n">
-        <v>43.37096146360452</v>
+        <v>13.01128843908135</v>
       </c>
       <c r="AB13" t="n">
-        <v>42.12328767123288</v>
+        <v>12.63698630136986</v>
       </c>
       <c r="AC13" t="n">
-        <v>46.07573513856567</v>
+        <v>13.8227205415697</v>
       </c>
       <c r="AD13" t="n">
-        <v>43.13765182186234</v>
+        <v>12.9412955465587</v>
       </c>
       <c r="AE13" t="n">
-        <v>42.63654627855908</v>
+        <v>12.79096388356772</v>
       </c>
       <c r="AF13" t="n">
-        <v>45.62631210636809</v>
+        <v>13.68789363191043</v>
       </c>
       <c r="AG13" t="n">
-        <v>49.87966305655837</v>
+        <v>14.96389891696751</v>
       </c>
       <c r="AH13" t="n">
-        <v>45.2952778744634</v>
+        <v>13.58858336233902</v>
       </c>
       <c r="AI13" t="n">
-        <v>44.01156387665197</v>
+        <v>13.20346916299559</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44.45246156407837</v>
+        <v>13.33573846922351</v>
       </c>
       <c r="AK13" t="n">
-        <v>46.40307523338825</v>
+        <v>13.92092257001648</v>
       </c>
       <c r="AL13" t="n">
-        <v>45.27899686520375</v>
+        <v>13.58369905956113</v>
       </c>
       <c r="AM13" t="n">
-        <v>50.57096247960848</v>
+        <v>15.17128874388255</v>
       </c>
       <c r="AN13" t="n">
-        <v>44.27825261158595</v>
+        <v>13.28347578347578</v>
       </c>
       <c r="AO13" t="n">
-        <v>39.66613672496025</v>
+        <v>11.89984101748808</v>
       </c>
       <c r="AP13" t="n">
-        <v>44.42670073458957</v>
+        <v>13.32801022037687</v>
       </c>
       <c r="AQ13" t="n">
-        <v>39.34169278996865</v>
+        <v>11.8025078369906</v>
       </c>
       <c r="AR13" t="n">
-        <v>46.88516968851698</v>
+        <v>14.06555090655509</v>
       </c>
       <c r="AS13" t="n">
-        <v>44.5318057583586</v>
+        <v>13.35954172750758</v>
       </c>
       <c r="AT13" t="n">
-        <v>44.13601665510063</v>
+        <v>13.24080499653019</v>
       </c>
       <c r="AU13" t="n">
-        <v>46.23249611024671</v>
+        <v>13.86974883307401</v>
       </c>
       <c r="AV13" t="n">
-        <v>43.58606124604013</v>
+        <v>13.07581837381204</v>
       </c>
       <c r="AW13" t="n">
-        <v>44.59038290293856</v>
+        <v>13.37711487088157</v>
       </c>
       <c r="AX13" t="n">
-        <v>42.79392240743473</v>
+        <v>12.83817672223042</v>
       </c>
       <c r="AY13" t="n">
-        <v>45.84189182071945</v>
+        <v>13.75256754621583</v>
       </c>
       <c r="AZ13" t="n">
-        <v>43.1993901775019</v>
+        <v>12.95981705325057</v>
       </c>
       <c r="BA13" t="n">
-        <v>44.15054220710186</v>
+        <v>13.24516266213056</v>
       </c>
       <c r="BB13" t="n">
-        <v>46.81294264685459</v>
+        <v>14.04388279405638</v>
       </c>
       <c r="BC13" t="n">
-        <v>46.8728908886389</v>
+        <v>14.06186726659167</v>
       </c>
       <c r="BD13" t="n">
-        <v>45.02881844380404</v>
+        <v>13.50864553314121</v>
       </c>
       <c r="BE13" t="n">
-        <v>46.25303128881529</v>
+        <v>13.87590938664459</v>
       </c>
       <c r="BF13" t="n">
-        <v>44.01913875598088</v>
+        <v>13.20574162679426</v>
       </c>
       <c r="BG13" t="n">
-        <v>48.61172976985895</v>
+        <v>14.58351893095769</v>
       </c>
       <c r="BH13" t="n">
-        <v>44.49354678217097</v>
+        <v>13.34806403465129</v>
       </c>
       <c r="BI13" t="n">
-        <v>41.2688876205353</v>
+        <v>12.38066628616059</v>
       </c>
       <c r="BJ13" t="n">
-        <v>38.81718358697746</v>
+        <v>11.64515507609324</v>
       </c>
       <c r="BK13" t="n">
-        <v>43.12369845897543</v>
+        <v>12.93710953769263</v>
       </c>
       <c r="BL13" t="n">
-        <v>44.95515695067264</v>
+        <v>13.48654708520179</v>
       </c>
       <c r="BM13" t="n">
-        <v>52.73463875759621</v>
+        <v>15.82039162727886</v>
       </c>
       <c r="BN13" t="n">
-        <v>44.29585603434044</v>
+        <v>13.28875681030213</v>
       </c>
       <c r="BO13" t="n">
-        <v>43.26086956521738</v>
+        <v>12.97826086956521</v>
       </c>
       <c r="BP13" t="n">
-        <v>44.8960523242233</v>
+        <v>13.46881569726699</v>
       </c>
       <c r="BQ13" t="n">
-        <v>44.95581937442403</v>
+        <v>13.48674581232721</v>
       </c>
       <c r="BR13" t="n">
-        <v>46.65637249079463</v>
+        <v>13.99691174723839</v>
       </c>
       <c r="BS13" t="n">
-        <v>44.96706637392331</v>
+        <v>13.49011991217699</v>
       </c>
       <c r="BT13" t="n">
-        <v>44.3501849568434</v>
+        <v>13.30505548705302</v>
       </c>
       <c r="BU13" t="n">
-        <v>44.50687851191631</v>
+        <v>13.35206355357489</v>
       </c>
       <c r="BV13" t="n">
-        <v>44.55664806448756</v>
+        <v>13.36699441934627</v>
       </c>
       <c r="BW13" t="n">
-        <v>43.94618834080718</v>
+        <v>13.18385650224216</v>
       </c>
       <c r="BX13" t="n">
-        <v>42.77267580827777</v>
+        <v>12.83180274248333</v>
       </c>
       <c r="BY13" t="n">
-        <v>42.25875625446749</v>
+        <v>12.67762687634024</v>
       </c>
       <c r="BZ13" t="n">
-        <v>42.07492795389049</v>
+        <v>12.62247838616715</v>
       </c>
       <c r="CA13" t="n">
-        <v>43.13162819713039</v>
+        <v>12.93948845913912</v>
       </c>
       <c r="CB13" t="n">
-        <v>44.3960826985854</v>
+        <v>13.31882480957562</v>
       </c>
       <c r="CC13" t="n">
-        <v>46.72301304863583</v>
+        <v>14.01690391459075</v>
       </c>
       <c r="CD13" t="n">
-        <v>38.96353166986565</v>
+        <v>11.68905950095969</v>
       </c>
       <c r="CE13" t="n">
-        <v>40.14314928425359</v>
+        <v>12.04294478527608</v>
       </c>
       <c r="CF13" t="n">
-        <v>45.23099850968703</v>
+        <v>13.56929955290611</v>
       </c>
       <c r="CG13" t="n">
-        <v>34.21550094517957</v>
+        <v>10.26465028355387</v>
       </c>
       <c r="CH13" t="n">
-        <v>49.14982640434435</v>
+        <v>14.7449479213033</v>
       </c>
       <c r="CI13" t="n">
-        <v>46.57615112160567</v>
+        <v>13.9728453364817</v>
       </c>
     </row>
     <row r="14">
@@ -4057,262 +4057,262 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C14" t="n">
-        <v>-30.84604960820127</v>
+        <v>-9.253814882460379</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.09124087591241</v>
+        <v>-9.027372262773724</v>
       </c>
       <c r="E14" t="n">
-        <v>-30.22867866824216</v>
+        <v>-9.068603600472649</v>
       </c>
       <c r="F14" t="n">
-        <v>-29.59614482493922</v>
+        <v>-8.878843447481767</v>
       </c>
       <c r="G14" t="n">
-        <v>-30.31237564663748</v>
+        <v>-9.093712693991243</v>
       </c>
       <c r="H14" t="n">
-        <v>-30.65458031900985</v>
+        <v>-9.196374095702955</v>
       </c>
       <c r="I14" t="n">
-        <v>-30.73895933537385</v>
+        <v>-9.221687800612155</v>
       </c>
       <c r="J14" t="n">
-        <v>-30.9493161705551</v>
+        <v>-9.284794851166531</v>
       </c>
       <c r="K14" t="n">
-        <v>-31.82912154031288</v>
+        <v>-9.548736462093864</v>
       </c>
       <c r="L14" t="n">
-        <v>-29.8464715284016</v>
+        <v>-8.953941458520479</v>
       </c>
       <c r="M14" t="n">
-        <v>-31.48459047847463</v>
+        <v>-9.445377143542389</v>
       </c>
       <c r="N14" t="n">
-        <v>-29.74406738478984</v>
+        <v>-8.923220215436951</v>
       </c>
       <c r="O14" t="n">
-        <v>-30.70560747663551</v>
+        <v>-9.211682242990653</v>
       </c>
       <c r="P14" t="n">
-        <v>-31.25904486251809</v>
+        <v>-9.377713458755427</v>
       </c>
       <c r="Q14" t="n">
-        <v>-30.17789072426938</v>
+        <v>-9.053367217280814</v>
       </c>
       <c r="R14" t="n">
-        <v>-30.74782497441147</v>
+        <v>-9.224347492323441</v>
       </c>
       <c r="S14" t="n">
-        <v>-30.37495168148435</v>
+        <v>-9.112485504445306</v>
       </c>
       <c r="T14" t="n">
-        <v>-30.07382241056826</v>
+        <v>-9.022146723170479</v>
       </c>
       <c r="U14" t="n">
-        <v>-30.49531066822977</v>
+        <v>-9.148593200468932</v>
       </c>
       <c r="V14" t="n">
-        <v>-30.28309032380231</v>
+        <v>-9.084927097140692</v>
       </c>
       <c r="W14" t="n">
-        <v>-30.40426046961995</v>
+        <v>-9.121278140885984</v>
       </c>
       <c r="X14" t="n">
-        <v>-30.45047287207566</v>
+        <v>-9.135141861622698</v>
       </c>
       <c r="Y14" t="n">
-        <v>-30.63784246575343</v>
+        <v>-9.191352739726028</v>
       </c>
       <c r="Z14" t="n">
-        <v>-28.95241903238704</v>
+        <v>-8.685725709716111</v>
       </c>
       <c r="AA14" t="n">
-        <v>-29.64270199826238</v>
+        <v>-8.892810599478715</v>
       </c>
       <c r="AB14" t="n">
-        <v>-30.21084337349398</v>
+        <v>-9.063253012048193</v>
       </c>
       <c r="AC14" t="n">
-        <v>-29.39898624185372</v>
+        <v>-8.819695872556117</v>
       </c>
       <c r="AD14" t="n">
-        <v>-31.37462876537972</v>
+        <v>-9.412388629613917</v>
       </c>
       <c r="AE14" t="n">
-        <v>-28.98602944789295</v>
+        <v>-8.695808834367885</v>
       </c>
       <c r="AF14" t="n">
-        <v>-30.33397405093704</v>
+        <v>-9.100192215281114</v>
       </c>
       <c r="AG14" t="n">
-        <v>-32.55720594138901</v>
+        <v>-9.767161782416702</v>
       </c>
       <c r="AH14" t="n">
-        <v>-29.58636109558413</v>
+        <v>-8.875908328675239</v>
       </c>
       <c r="AI14" t="n">
-        <v>-31.20160596501291</v>
+        <v>-9.360481789503872</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-30.11795896411282</v>
+        <v>-9.035387689233845</v>
       </c>
       <c r="AK14" t="n">
-        <v>-30.76210229027845</v>
+        <v>-9.228630687083536</v>
       </c>
       <c r="AL14" t="n">
-        <v>-30.15277058518902</v>
+        <v>-9.045831175556707</v>
       </c>
       <c r="AM14" t="n">
-        <v>-26.70639219934995</v>
+        <v>-8.011917659804984</v>
       </c>
       <c r="AN14" t="n">
-        <v>-31.05973342109593</v>
+        <v>-9.317920026328782</v>
       </c>
       <c r="AO14" t="n">
-        <v>-32.21400113830392</v>
+        <v>-9.664200341491176</v>
       </c>
       <c r="AP14" t="n">
-        <v>-30.10835913312693</v>
+        <v>-9.03250773993808</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-30.53993250843645</v>
+        <v>-9.161979752530934</v>
       </c>
       <c r="AR14" t="n">
-        <v>-28.48947618294034</v>
+        <v>-8.546842854882103</v>
       </c>
       <c r="AS14" t="n">
-        <v>-29.66090718337952</v>
+        <v>-8.898272155013858</v>
       </c>
       <c r="AT14" t="n">
-        <v>-30.06740491092922</v>
+        <v>-9.020221473278767</v>
       </c>
       <c r="AU14" t="n">
-        <v>-30.66575467396261</v>
+        <v>-9.199726402188782</v>
       </c>
       <c r="AV14" t="n">
-        <v>-30.65688062599283</v>
+        <v>-9.197064187797848</v>
       </c>
       <c r="AW14" t="n">
-        <v>-29.73441108545035</v>
+        <v>-8.920323325635104</v>
       </c>
       <c r="AX14" t="n">
-        <v>-30.0051652892562</v>
+        <v>-9.001549586776859</v>
       </c>
       <c r="AY14" t="n">
-        <v>-29.73709869632733</v>
+        <v>-8.921129608898198</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-30.44106463878327</v>
+        <v>-9.132319391634979</v>
       </c>
       <c r="BA14" t="n">
-        <v>-30.55580139835384</v>
+        <v>-9.166740419506151</v>
       </c>
       <c r="BB14" t="n">
-        <v>-30.12202043132803</v>
+        <v>-9.036606129398411</v>
       </c>
       <c r="BC14" t="n">
-        <v>-30.33621812054836</v>
+        <v>-9.100865436164508</v>
       </c>
       <c r="BD14" t="n">
-        <v>-30.7267467344613</v>
+        <v>-9.218024020338389</v>
       </c>
       <c r="BE14" t="n">
-        <v>-29.86209406721398</v>
+        <v>-8.958628220164195</v>
       </c>
       <c r="BF14" t="n">
-        <v>-30.70598006644519</v>
+        <v>-9.211794019933556</v>
       </c>
       <c r="BG14" t="n">
-        <v>-29.45848736137476</v>
+        <v>-8.837546208412428</v>
       </c>
       <c r="BH14" t="n">
-        <v>-30.2742445110589</v>
+        <v>-9.082273353317669</v>
       </c>
       <c r="BI14" t="n">
-        <v>-30.09866672337168</v>
+        <v>-9.029600017011502</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-28.74687760199833</v>
+        <v>-8.624063280599501</v>
       </c>
       <c r="BK14" t="n">
-        <v>-29.64439529740426</v>
+        <v>-8.893318589221277</v>
       </c>
       <c r="BL14" t="n">
-        <v>-30.72374822243844</v>
+        <v>-9.217124466731532</v>
       </c>
       <c r="BM14" t="n">
-        <v>-29.97347480106101</v>
+        <v>-8.992042440318302</v>
       </c>
       <c r="BN14" t="n">
-        <v>-30.02860411899314</v>
+        <v>-9.008581235697942</v>
       </c>
       <c r="BO14" t="n">
-        <v>-26.25189681335356</v>
+        <v>-7.875569044006069</v>
       </c>
       <c r="BP14" t="n">
-        <v>-30.96082540706109</v>
+        <v>-9.288247622118329</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-31.36125654450262</v>
+        <v>-9.408376963350788</v>
       </c>
       <c r="BR14" t="n">
-        <v>-30.10852838746255</v>
+        <v>-9.032558516238764</v>
       </c>
       <c r="BS14" t="n">
-        <v>-29.77078114988058</v>
+        <v>-8.931234344964174</v>
       </c>
       <c r="BT14" t="n">
-        <v>-30.10728807188984</v>
+        <v>-9.032186421566951</v>
       </c>
       <c r="BU14" t="n">
-        <v>-31.03378921962993</v>
+        <v>-9.310136765888977</v>
       </c>
       <c r="BV14" t="n">
-        <v>-30.59776947116858</v>
+        <v>-9.179330841350573</v>
       </c>
       <c r="BW14" t="n">
-        <v>-30.4435765099735</v>
+        <v>-9.133072952992048</v>
       </c>
       <c r="BX14" t="n">
-        <v>-29.47396246365319</v>
+        <v>-8.842188739095956</v>
       </c>
       <c r="BY14" t="n">
-        <v>-29.30358757913777</v>
+        <v>-8.791076273741332</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-27.92427315753888</v>
+        <v>-8.377281947261663</v>
       </c>
       <c r="CA14" t="n">
-        <v>-29.4586820083682</v>
+        <v>-8.837604602510462</v>
       </c>
       <c r="CB14" t="n">
-        <v>-30.62141325140571</v>
+        <v>-9.186423975421713</v>
       </c>
       <c r="CC14" t="n">
-        <v>-29.94946942900455</v>
+        <v>-8.984840828701365</v>
       </c>
       <c r="CD14" t="n">
-        <v>-30.93922651933702</v>
+        <v>-9.281767955801104</v>
       </c>
       <c r="CE14" t="n">
-        <v>-30.83321173208814</v>
+        <v>-9.249963519626442</v>
       </c>
       <c r="CF14" t="n">
-        <v>-29.11749615187275</v>
+        <v>-8.735248845561825</v>
       </c>
       <c r="CG14" t="n">
-        <v>-32.8169014084507</v>
+        <v>-9.84507042253521</v>
       </c>
       <c r="CH14" t="n">
-        <v>-29.63769846006924</v>
+        <v>-8.891309538020773</v>
       </c>
       <c r="CI14" t="n">
-        <v>-31.91703584373741</v>
+        <v>-9.575110753121225</v>
       </c>
     </row>
     <row r="15">
@@ -4322,262 +4322,262 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C15" t="n">
-        <v>-44.42598509052183</v>
+        <v>-13.32779552715655</v>
       </c>
       <c r="D15" t="n">
-        <v>-46.72931349517097</v>
+        <v>-14.01879404855129</v>
       </c>
       <c r="E15" t="n">
-        <v>-46.19446104801754</v>
+        <v>-13.85833831440526</v>
       </c>
       <c r="F15" t="n">
-        <v>-46.11424071718456</v>
+        <v>-13.83427221515537</v>
       </c>
       <c r="G15" t="n">
-        <v>-44.15417558886509</v>
+        <v>-13.24625267665953</v>
       </c>
       <c r="H15" t="n">
-        <v>-45.68878833584716</v>
+        <v>-13.70663650075415</v>
       </c>
       <c r="I15" t="n">
-        <v>-44.80218855218855</v>
+        <v>-13.44065656565656</v>
       </c>
       <c r="J15" t="n">
-        <v>-46.05615752068042</v>
+        <v>-13.81684725620413</v>
       </c>
       <c r="K15" t="n">
-        <v>-47.66696087084436</v>
+        <v>-14.30008826125331</v>
       </c>
       <c r="L15" t="n">
-        <v>-45.41644840230487</v>
+        <v>-13.62493452069146</v>
       </c>
       <c r="M15" t="n">
-        <v>-50.25816049706835</v>
+        <v>-15.0774481491205</v>
       </c>
       <c r="N15" t="n">
-        <v>-46.74044613522393</v>
+        <v>-14.02213384056718</v>
       </c>
       <c r="O15" t="n">
-        <v>-46.42929395104188</v>
+        <v>-13.92878818531256</v>
       </c>
       <c r="P15" t="n">
-        <v>-43.74736842105263</v>
+        <v>-13.12421052631579</v>
       </c>
       <c r="Q15" t="n">
-        <v>-45.940754221009</v>
+        <v>-13.7822262663027</v>
       </c>
       <c r="R15" t="n">
-        <v>-47.68832848367281</v>
+        <v>-14.30649854510184</v>
       </c>
       <c r="S15" t="n">
-        <v>-41.7499444814568</v>
+        <v>-12.52498334443704</v>
       </c>
       <c r="T15" t="n">
-        <v>-43.4434279216416</v>
+        <v>-13.03302837649248</v>
       </c>
       <c r="U15" t="n">
-        <v>-45.68838288003374</v>
+        <v>-13.70651486401012</v>
       </c>
       <c r="V15" t="n">
-        <v>-45.36565491953554</v>
+        <v>-13.60969647586066</v>
       </c>
       <c r="W15" t="n">
-        <v>-42.20289855072463</v>
+        <v>-12.66086956521739</v>
       </c>
       <c r="X15" t="n">
-        <v>-42.50611319854476</v>
+        <v>-12.75183395956343</v>
       </c>
       <c r="Y15" t="n">
-        <v>-43.29445164475715</v>
+        <v>-12.98833549342714</v>
       </c>
       <c r="Z15" t="n">
-        <v>-40.41307895773538</v>
+        <v>-12.12392368732061</v>
       </c>
       <c r="AA15" t="n">
-        <v>-42.25515165547581</v>
+        <v>-12.67654549664274</v>
       </c>
       <c r="AB15" t="n">
-        <v>-43.50453172205438</v>
+        <v>-13.05135951661631</v>
       </c>
       <c r="AC15" t="n">
-        <v>-45.10769230769231</v>
+        <v>-13.53230769230769</v>
       </c>
       <c r="AD15" t="n">
-        <v>-47.30551262235961</v>
+        <v>-14.19165378670788</v>
       </c>
       <c r="AE15" t="n">
-        <v>-40.81044304527319</v>
+        <v>-12.24313291358196</v>
       </c>
       <c r="AF15" t="n">
-        <v>-43.43852388342818</v>
+        <v>-13.03155716502845</v>
       </c>
       <c r="AG15" t="n">
-        <v>-46.13095238095238</v>
+        <v>-13.83928571428571</v>
       </c>
       <c r="AH15" t="n">
-        <v>-44.29285884394243</v>
+        <v>-13.28785765318273</v>
       </c>
       <c r="AI15" t="n">
-        <v>-47.58927330832292</v>
+        <v>-14.27678199249688</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-46.67216494845361</v>
+        <v>-14.00164948453608</v>
       </c>
       <c r="AK15" t="n">
-        <v>-48.61695347355003</v>
+        <v>-14.58508604206501</v>
       </c>
       <c r="AL15" t="n">
-        <v>-44.92431263515601</v>
+        <v>-13.4772937905468</v>
       </c>
       <c r="AM15" t="n">
-        <v>-40.42867701404286</v>
+        <v>-12.12860310421286</v>
       </c>
       <c r="AN15" t="n">
-        <v>-48.63348848311254</v>
+        <v>-14.59004654493376</v>
       </c>
       <c r="AO15" t="n">
-        <v>-43.11502938706969</v>
+        <v>-12.93450881612091</v>
       </c>
       <c r="AP15" t="n">
-        <v>-44.31260876443601</v>
+        <v>-13.2937826293308</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-50.49932523616734</v>
+        <v>-15.1497975708502</v>
       </c>
       <c r="AR15" t="n">
-        <v>-44.62517289073305</v>
+        <v>-13.38755186721992</v>
       </c>
       <c r="AS15" t="n">
-        <v>-43.93253047545391</v>
+        <v>-13.17975914263617</v>
       </c>
       <c r="AT15" t="n">
-        <v>-43.86689615605278</v>
+        <v>-13.16006884681583</v>
       </c>
       <c r="AU15" t="n">
-        <v>-44.2727173079031</v>
+        <v>-13.28181519237093</v>
       </c>
       <c r="AV15" t="n">
-        <v>-43.79043376816205</v>
+        <v>-13.13713013044861</v>
       </c>
       <c r="AW15" t="n">
-        <v>-43.35798411394139</v>
+        <v>-13.00739523418242</v>
       </c>
       <c r="AX15" t="n">
-        <v>-45.12582097262195</v>
+        <v>-13.53774629178658</v>
       </c>
       <c r="AY15" t="n">
-        <v>-42.84172384550151</v>
+        <v>-12.85251715365045</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-45.31540395758172</v>
+        <v>-13.59462118727452</v>
       </c>
       <c r="BA15" t="n">
-        <v>-44.18742963954205</v>
+        <v>-13.25622889186262</v>
       </c>
       <c r="BB15" t="n">
-        <v>-45.65820642978003</v>
+        <v>-13.69746192893401</v>
       </c>
       <c r="BC15" t="n">
-        <v>-47.16358839050132</v>
+        <v>-14.1490765171504</v>
       </c>
       <c r="BD15" t="n">
-        <v>-44.63848814646081</v>
+        <v>-13.39154644393824</v>
       </c>
       <c r="BE15" t="n">
-        <v>-45.03257798535432</v>
+        <v>-13.5097733956063</v>
       </c>
       <c r="BF15" t="n">
-        <v>-46.13448399856167</v>
+        <v>-13.8403451995685</v>
       </c>
       <c r="BG15" t="n">
-        <v>-44.19658664400539</v>
+        <v>-13.25897599320162</v>
       </c>
       <c r="BH15" t="n">
-        <v>-43.92737835875091</v>
+        <v>-13.17821350762527</v>
       </c>
       <c r="BI15" t="n">
-        <v>-42.42604000304205</v>
+        <v>-12.72781200091262</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-39.39039828610381</v>
+        <v>-11.81711948583114</v>
       </c>
       <c r="BK15" t="n">
-        <v>-44.0459941266493</v>
+        <v>-13.21379823799479</v>
       </c>
       <c r="BL15" t="n">
-        <v>-44.65932008066839</v>
+        <v>-13.39779602420052</v>
       </c>
       <c r="BM15" t="n">
-        <v>-47.22222222222222</v>
+        <v>-14.16666666666667</v>
       </c>
       <c r="BN15" t="n">
-        <v>-41.60739105551468</v>
+        <v>-12.4822173166544</v>
       </c>
       <c r="BO15" t="n">
-        <v>-43.4156378600823</v>
+        <v>-13.02469135802469</v>
       </c>
       <c r="BP15" t="n">
-        <v>-48.16112084063047</v>
+        <v>-14.44833625218914</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-48.62155388471178</v>
+        <v>-14.58646616541353</v>
       </c>
       <c r="BR15" t="n">
-        <v>-43.98284952778261</v>
+        <v>-13.19485485833478</v>
       </c>
       <c r="BS15" t="n">
-        <v>-43.10419906687402</v>
+        <v>-12.93125972006221</v>
       </c>
       <c r="BT15" t="n">
-        <v>-44.9194593141209</v>
+        <v>-13.47583779423627</v>
       </c>
       <c r="BU15" t="n">
-        <v>-43.59385632351511</v>
+        <v>-13.07815689705453</v>
       </c>
       <c r="BV15" t="n">
-        <v>-42.79407544754211</v>
+        <v>-12.83822263426263</v>
       </c>
       <c r="BW15" t="n">
-        <v>-45.72679568167385</v>
+        <v>-13.71803870450215</v>
       </c>
       <c r="BX15" t="n">
-        <v>-42.60369815092454</v>
+        <v>-12.78110944527736</v>
       </c>
       <c r="BY15" t="n">
-        <v>-41.60625444207534</v>
+        <v>-12.4818763326226</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-42.08880550343964</v>
+        <v>-12.62664165103189</v>
       </c>
       <c r="CA15" t="n">
-        <v>-42.80506641952425</v>
+        <v>-12.84151992585728</v>
       </c>
       <c r="CB15" t="n">
-        <v>-44.63800810460793</v>
+        <v>-13.39140243138238</v>
       </c>
       <c r="CC15" t="n">
-        <v>-41.15270864892159</v>
+        <v>-12.34581259467648</v>
       </c>
       <c r="CD15" t="n">
-        <v>-45.06666666666666</v>
+        <v>-13.52</v>
       </c>
       <c r="CE15" t="n">
-        <v>-43.67088607594937</v>
+        <v>-13.10126582278481</v>
       </c>
       <c r="CF15" t="n">
-        <v>-46.07310893955845</v>
+        <v>-13.82193268186754</v>
       </c>
       <c r="CG15" t="n">
-        <v>-45.28301886792453</v>
+        <v>-13.58490566037736</v>
       </c>
       <c r="CH15" t="n">
-        <v>-44.64944649446495</v>
+        <v>-13.39483394833948</v>
       </c>
       <c r="CI15" t="n">
-        <v>-45.75569358178054</v>
+        <v>-13.72670807453416</v>
       </c>
     </row>
     <row r="16">
@@ -4587,262 +4587,262 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C16" t="n">
-        <v>80.16250191629618</v>
+        <v>24.04875057488885</v>
       </c>
       <c r="D16" t="n">
-        <v>82.02665621324969</v>
+        <v>24.60799686397491</v>
       </c>
       <c r="E16" t="n">
-        <v>76.7265321236808</v>
+        <v>23.01795963710424</v>
       </c>
       <c r="F16" t="n">
-        <v>82.74505395683452</v>
+        <v>24.82351618705036</v>
       </c>
       <c r="G16" t="n">
-        <v>81.59509202453987</v>
+        <v>24.47852760736196</v>
       </c>
       <c r="H16" t="n">
-        <v>81.90233742189309</v>
+        <v>24.57070122656793</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46549752192146</v>
+        <v>22.03964925657644</v>
       </c>
       <c r="J16" t="n">
-        <v>80.28077753779699</v>
+        <v>24.0842332613391</v>
       </c>
       <c r="K16" t="n">
-        <v>85.04609849336633</v>
+        <v>25.5138295480099</v>
       </c>
       <c r="L16" t="n">
-        <v>78.50287907869482</v>
+        <v>23.55086372360845</v>
       </c>
       <c r="M16" t="n">
-        <v>87.71991555242785</v>
+        <v>26.31597466572835</v>
       </c>
       <c r="N16" t="n">
-        <v>79.32900432900432</v>
+        <v>23.7987012987013</v>
       </c>
       <c r="O16" t="n">
-        <v>81.62134944612285</v>
+        <v>24.48640483383685</v>
       </c>
       <c r="P16" t="n">
-        <v>75.99800399201598</v>
+        <v>22.79940119760479</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.15821956237143</v>
+        <v>24.64746586871143</v>
       </c>
       <c r="R16" t="n">
-        <v>82.44746600741657</v>
+        <v>24.73423980222497</v>
       </c>
       <c r="S16" t="n">
-        <v>75.61951963400686</v>
+        <v>22.68585589020206</v>
       </c>
       <c r="T16" t="n">
-        <v>79.33193200511788</v>
+        <v>23.79957960153536</v>
       </c>
       <c r="U16" t="n">
-        <v>76.20341614906833</v>
+        <v>22.8610248447205</v>
       </c>
       <c r="V16" t="n">
-        <v>71.43922445935868</v>
+        <v>21.43176733780761</v>
       </c>
       <c r="W16" t="n">
-        <v>76.26880641925776</v>
+        <v>22.88064192577733</v>
       </c>
       <c r="X16" t="n">
-        <v>76.28630705394191</v>
+        <v>22.88589211618257</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.05441880713974</v>
+        <v>22.51632564214192</v>
       </c>
       <c r="Z16" t="n">
-        <v>70.34378541745372</v>
+        <v>21.10313562523612</v>
       </c>
       <c r="AA16" t="n">
-        <v>77.98716920609463</v>
+        <v>23.39615076182839</v>
       </c>
       <c r="AB16" t="n">
-        <v>73.00738477209065</v>
+        <v>21.90221543162719</v>
       </c>
       <c r="AC16" t="n">
-        <v>76.45739910313901</v>
+        <v>22.9372197309417</v>
       </c>
       <c r="AD16" t="n">
-        <v>83.33985138834572</v>
+        <v>25.00195541650372</v>
       </c>
       <c r="AE16" t="n">
-        <v>76.93266832917706</v>
+        <v>23.07980049875312</v>
       </c>
       <c r="AF16" t="n">
-        <v>73.84146341463416</v>
+        <v>22.15243902439025</v>
       </c>
       <c r="AG16" t="n">
-        <v>89.17127071823202</v>
+        <v>26.75138121546961</v>
       </c>
       <c r="AH16" t="n">
-        <v>79.30458857538373</v>
+        <v>23.79137657261512</v>
       </c>
       <c r="AI16" t="n">
-        <v>84.94167550371158</v>
+        <v>25.48250265111347</v>
       </c>
       <c r="AJ16" t="n">
-        <v>77.09042169295802</v>
+        <v>23.12712650788741</v>
       </c>
       <c r="AK16" t="n">
-        <v>82.82684197469611</v>
+        <v>24.84805259240883</v>
       </c>
       <c r="AL16" t="n">
-        <v>77.98967915638322</v>
+        <v>23.39690374691497</v>
       </c>
       <c r="AM16" t="n">
-        <v>80.64516129032256</v>
+        <v>24.19354838709677</v>
       </c>
       <c r="AN16" t="n">
-        <v>81.18029739776952</v>
+        <v>24.35408921933086</v>
       </c>
       <c r="AO16" t="n">
-        <v>96.01476014760148</v>
+        <v>28.80442804428044</v>
       </c>
       <c r="AP16" t="n">
-        <v>77.38636363636367</v>
+        <v>23.2159090909091</v>
       </c>
       <c r="AQ16" t="n">
-        <v>81.2431842966194</v>
+        <v>24.37295528898582</v>
       </c>
       <c r="AR16" t="n">
-        <v>79.15875711859324</v>
+        <v>23.74762713557798</v>
       </c>
       <c r="AS16" t="n">
-        <v>74.54676826064107</v>
+        <v>22.36403047819232</v>
       </c>
       <c r="AT16" t="n">
-        <v>81.47996729354048</v>
+        <v>24.44399018806214</v>
       </c>
       <c r="AU16" t="n">
-        <v>77.26199842643588</v>
+        <v>23.17859952793076</v>
       </c>
       <c r="AV16" t="n">
-        <v>76.21886792452828</v>
+        <v>22.86566037735849</v>
       </c>
       <c r="AW16" t="n">
-        <v>75.49323017408125</v>
+        <v>22.64796905222438</v>
       </c>
       <c r="AX16" t="n">
-        <v>77.40720817643894</v>
+        <v>23.22216245293168</v>
       </c>
       <c r="AY16" t="n">
-        <v>73.86026436471541</v>
+        <v>22.15807930941462</v>
       </c>
       <c r="AZ16" t="n">
-        <v>74.07037185125951</v>
+        <v>22.22111155537785</v>
       </c>
       <c r="BA16" t="n">
-        <v>77.82006393667226</v>
+        <v>23.34601918100168</v>
       </c>
       <c r="BB16" t="n">
-        <v>81.97783036492712</v>
+        <v>24.59334910947814</v>
       </c>
       <c r="BC16" t="n">
-        <v>81.91843528922182</v>
+        <v>24.57553058676654</v>
       </c>
       <c r="BD16" t="n">
-        <v>81.20237732398657</v>
+        <v>24.36071319719597</v>
       </c>
       <c r="BE16" t="n">
-        <v>81.93643134375328</v>
+        <v>24.58092940312599</v>
       </c>
       <c r="BF16" t="n">
-        <v>79.77303070761015</v>
+        <v>23.93190921228305</v>
       </c>
       <c r="BG16" t="n">
-        <v>73.2741116751269</v>
+        <v>21.98223350253807</v>
       </c>
       <c r="BH16" t="n">
-        <v>76.37672900585402</v>
+        <v>22.9130187017562</v>
       </c>
       <c r="BI16" t="n">
-        <v>74.97093944837789</v>
+        <v>22.49128183451337</v>
       </c>
       <c r="BJ16" t="n">
-        <v>68.89460154241647</v>
+        <v>20.66838046272494</v>
       </c>
       <c r="BK16" t="n">
-        <v>77.55765819041989</v>
+        <v>23.26729745712597</v>
       </c>
       <c r="BL16" t="n">
-        <v>78.68159042103208</v>
+        <v>23.60447712630962</v>
       </c>
       <c r="BM16" t="n">
-        <v>75.11961722488037</v>
+        <v>22.53588516746411</v>
       </c>
       <c r="BN16" t="n">
-        <v>74.74096891626996</v>
+        <v>22.42229067488099</v>
       </c>
       <c r="BO16" t="n">
-        <v>84.18181818181819</v>
+        <v>25.25454545454545</v>
       </c>
       <c r="BP16" t="n">
-        <v>82.61261261261261</v>
+        <v>24.78378378378378</v>
       </c>
       <c r="BQ16" t="n">
-        <v>85.0053022269353</v>
+        <v>25.50159066808059</v>
       </c>
       <c r="BR16" t="n">
-        <v>73.60364087712041</v>
+        <v>22.08109226313612</v>
       </c>
       <c r="BS16" t="n">
-        <v>77.9940228879656</v>
+        <v>23.39820686638968</v>
       </c>
       <c r="BT16" t="n">
-        <v>79.44439513623858</v>
+        <v>23.83331854087157</v>
       </c>
       <c r="BU16" t="n">
-        <v>78.55234812580784</v>
+        <v>23.56570443774235</v>
       </c>
       <c r="BV16" t="n">
-        <v>78.2605340330298</v>
+        <v>23.47816020990894</v>
       </c>
       <c r="BW16" t="n">
-        <v>83.15063431457077</v>
+        <v>24.94519029437123</v>
       </c>
       <c r="BX16" t="n">
-        <v>75.68567696996084</v>
+        <v>22.70570309098825</v>
       </c>
       <c r="BY16" t="n">
-        <v>73.97760467380724</v>
+        <v>22.19328140214217</v>
       </c>
       <c r="BZ16" t="n">
-        <v>72.19222462203024</v>
+        <v>21.65766738660907</v>
       </c>
       <c r="CA16" t="n">
-        <v>78.01663605919845</v>
+        <v>23.40499081775954</v>
       </c>
       <c r="CB16" t="n">
-        <v>78.82583760941745</v>
+        <v>23.64775128282523</v>
       </c>
       <c r="CC16" t="n">
-        <v>75.2880607992155</v>
+        <v>22.58641823976465</v>
       </c>
       <c r="CD16" t="n">
-        <v>63.71359223300971</v>
+        <v>19.11407766990291</v>
       </c>
       <c r="CE16" t="n">
-        <v>79.51310861423222</v>
+        <v>23.85393258426966</v>
       </c>
       <c r="CF16" t="n">
-        <v>86.71140939597316</v>
+        <v>26.01342281879195</v>
       </c>
       <c r="CG16" t="n">
-        <v>60.91954022988506</v>
+        <v>18.27586206896552</v>
       </c>
       <c r="CH16" t="n">
-        <v>80.24521072796935</v>
+        <v>24.07356321839081</v>
       </c>
       <c r="CI16" t="n">
-        <v>82.38822246455834</v>
+        <v>24.7164667393675</v>
       </c>
     </row>
     <row r="17">
@@ -4852,262 +4852,262 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C17" t="n">
-        <v>45.20081688223281</v>
+        <v>13.56024506466984</v>
       </c>
       <c r="D17" t="n">
-        <v>56.02455044686121</v>
+        <v>16.80736513405836</v>
       </c>
       <c r="E17" t="n">
-        <v>35.58931377684652</v>
+        <v>10.67679413305396</v>
       </c>
       <c r="F17" t="n">
-        <v>56.27729593405917</v>
+        <v>16.88318878021775</v>
       </c>
       <c r="G17" t="n">
-        <v>47.33952702702703</v>
+        <v>14.20185810810811</v>
       </c>
       <c r="H17" t="n">
-        <v>43.9821882951654</v>
+        <v>13.19465648854962</v>
       </c>
       <c r="I17" t="n">
-        <v>47.49450549450548</v>
+        <v>14.24835164835165</v>
       </c>
       <c r="J17" t="n">
-        <v>47.32239127830357</v>
+        <v>14.19671738349107</v>
       </c>
       <c r="K17" t="n">
-        <v>45.14521813100013</v>
+        <v>13.54356543930004</v>
       </c>
       <c r="L17" t="n">
-        <v>47.53541559993174</v>
+        <v>14.26062467997952</v>
       </c>
       <c r="M17" t="n">
-        <v>52.08997188378631</v>
+        <v>15.62699156513589</v>
       </c>
       <c r="N17" t="n">
-        <v>49.96982498491251</v>
+        <v>14.99094749547375</v>
       </c>
       <c r="O17" t="n">
-        <v>44.70474078181314</v>
+        <v>13.41142223454394</v>
       </c>
       <c r="P17" t="n">
-        <v>42.77005954068613</v>
+        <v>12.83101786220584</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.12731006160164</v>
+        <v>13.23819301848049</v>
       </c>
       <c r="R17" t="n">
-        <v>52.51645373596594</v>
+        <v>15.75493612078978</v>
       </c>
       <c r="S17" t="n">
-        <v>46.36926082709215</v>
+        <v>13.91077824812765</v>
       </c>
       <c r="T17" t="n">
-        <v>45.0070072620716</v>
+        <v>13.50210217862148</v>
       </c>
       <c r="U17" t="n">
-        <v>52.01586252478519</v>
+        <v>15.60475875743556</v>
       </c>
       <c r="V17" t="n">
-        <v>47.65840220385675</v>
+        <v>14.29752066115702</v>
       </c>
       <c r="W17" t="n">
-        <v>49.72117901445316</v>
+        <v>14.91635370433595</v>
       </c>
       <c r="X17" t="n">
-        <v>49.87642697422619</v>
+        <v>14.96292809226786</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.89977617508083</v>
+        <v>12.86993285252425</v>
       </c>
       <c r="Z17" t="n">
-        <v>48.88001774229318</v>
+        <v>14.66400532268795</v>
       </c>
       <c r="AA17" t="n">
-        <v>35.64616655402868</v>
+        <v>10.6938499662086</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.18074771857523</v>
+        <v>11.45422431557257</v>
       </c>
       <c r="AC17" t="n">
-        <v>45.10800508259212</v>
+        <v>13.53240152477764</v>
       </c>
       <c r="AD17" t="n">
-        <v>47.6749146757679</v>
+        <v>14.30247440273037</v>
       </c>
       <c r="AE17" t="n">
-        <v>43.2588971106413</v>
+        <v>12.97766913319239</v>
       </c>
       <c r="AF17" t="n">
-        <v>44.72115047351805</v>
+        <v>13.41634514205542</v>
       </c>
       <c r="AG17" t="n">
-        <v>52.97897196261682</v>
+        <v>15.89369158878505</v>
       </c>
       <c r="AH17" t="n">
-        <v>48.88848520629442</v>
+        <v>14.66654556188833</v>
       </c>
       <c r="AI17" t="n">
-        <v>51.89220183486237</v>
+        <v>15.56766055045871</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35.77084303679553</v>
+        <v>10.73125291103866</v>
       </c>
       <c r="AK17" t="n">
-        <v>56.84724719291698</v>
+        <v>17.0541741578751</v>
       </c>
       <c r="AL17" t="n">
-        <v>46.64061515189712</v>
+        <v>13.99218454556914</v>
       </c>
       <c r="AM17" t="n">
-        <v>44.23076923076923</v>
+        <v>13.26923076923077</v>
       </c>
       <c r="AN17" t="n">
-        <v>46.21697871249037</v>
+        <v>13.86509361374711</v>
       </c>
       <c r="AO17" t="n">
-        <v>53.57680722891567</v>
+        <v>16.0730421686747</v>
       </c>
       <c r="AP17" t="n">
-        <v>45.32351057014733</v>
+        <v>13.5970531710442</v>
       </c>
       <c r="AQ17" t="n">
-        <v>42.96028880866426</v>
+        <v>12.88808664259928</v>
       </c>
       <c r="AR17" t="n">
-        <v>44.74124470220834</v>
+        <v>13.4223734106625</v>
       </c>
       <c r="AS17" t="n">
-        <v>49.10247243442593</v>
+        <v>14.73074173032778</v>
       </c>
       <c r="AT17" t="n">
-        <v>50.43928812795674</v>
+        <v>15.13178643838702</v>
       </c>
       <c r="AU17" t="n">
-        <v>46.82645361739903</v>
+        <v>14.04793608521971</v>
       </c>
       <c r="AV17" t="n">
-        <v>49.19268491155938</v>
+        <v>14.75780547346781</v>
       </c>
       <c r="AW17" t="n">
-        <v>50.10470627135457</v>
+        <v>15.03141188140637</v>
       </c>
       <c r="AX17" t="n">
-        <v>46.55852031534265</v>
+        <v>13.9675560946028</v>
       </c>
       <c r="AY17" t="n">
-        <v>36.67959658650116</v>
+        <v>11.00387897595035</v>
       </c>
       <c r="AZ17" t="n">
-        <v>47.66280004594005</v>
+        <v>14.29884001378202</v>
       </c>
       <c r="BA17" t="n">
-        <v>46.69548839996575</v>
+        <v>14.00864651998973</v>
       </c>
       <c r="BB17" t="n">
-        <v>48.8536034494559</v>
+        <v>14.65608103483677</v>
       </c>
       <c r="BC17" t="n">
-        <v>54.78668649205078</v>
+        <v>16.43600594761523</v>
       </c>
       <c r="BD17" t="n">
-        <v>47.17631722803918</v>
+        <v>14.15289516841175</v>
       </c>
       <c r="BE17" t="n">
-        <v>44.7244003690037</v>
+        <v>13.41732011070111</v>
       </c>
       <c r="BF17" t="n">
-        <v>46.86223542517639</v>
+        <v>14.05867062755292</v>
       </c>
       <c r="BG17" t="n">
-        <v>48.8940969679215</v>
+        <v>14.66822909037645</v>
       </c>
       <c r="BH17" t="n">
-        <v>45.95253480585092</v>
+        <v>13.78576044175528</v>
       </c>
       <c r="BI17" t="n">
-        <v>48.28627510191756</v>
+        <v>14.48588253057527</v>
       </c>
       <c r="BJ17" t="n">
-        <v>45.83333333333333</v>
+        <v>13.75</v>
       </c>
       <c r="BK17" t="n">
-        <v>51.49875104079933</v>
+        <v>15.4496253122398</v>
       </c>
       <c r="BL17" t="n">
-        <v>45.62604705368199</v>
+        <v>13.6878141161046</v>
       </c>
       <c r="BM17" t="n">
-        <v>39.41256830601094</v>
+        <v>11.82377049180328</v>
       </c>
       <c r="BN17" t="n">
-        <v>44.2628205128205</v>
+        <v>13.27884615384615</v>
       </c>
       <c r="BO17" t="n">
-        <v>53.70187561697926</v>
+        <v>16.11056268509378</v>
       </c>
       <c r="BP17" t="n">
-        <v>49.8766650222003</v>
+        <v>14.96299950666009</v>
       </c>
       <c r="BQ17" t="n">
-        <v>46.81302304253123</v>
+        <v>14.04390691275937</v>
       </c>
       <c r="BR17" t="n">
-        <v>45.65061963775023</v>
+        <v>13.69518589132507</v>
       </c>
       <c r="BS17" t="n">
-        <v>48.42950161759285</v>
+        <v>14.52885048527785</v>
       </c>
       <c r="BT17" t="n">
-        <v>49.50539123553269</v>
+        <v>14.85161737065981</v>
       </c>
       <c r="BU17" t="n">
-        <v>39.90637517494331</v>
+        <v>11.97191255248299</v>
       </c>
       <c r="BV17" t="n">
-        <v>40.42166327546646</v>
+        <v>12.12649898263994</v>
       </c>
       <c r="BW17" t="n">
-        <v>38.06321452589104</v>
+        <v>11.41896435776731</v>
       </c>
       <c r="BX17" t="n">
-        <v>36.72407384462892</v>
+        <v>11.01722215338868</v>
       </c>
       <c r="BY17" t="n">
-        <v>39.49909052749405</v>
+        <v>11.84972715824822</v>
       </c>
       <c r="BZ17" t="n">
-        <v>39.60489181561618</v>
+        <v>11.88146754468485</v>
       </c>
       <c r="CA17" t="n">
-        <v>50.25183566964016</v>
+        <v>15.07555070089205</v>
       </c>
       <c r="CB17" t="n">
-        <v>43.88555996286607</v>
+        <v>13.16566798885982</v>
       </c>
       <c r="CC17" t="n">
-        <v>47.65034965034964</v>
+        <v>14.29510489510489</v>
       </c>
       <c r="CD17" t="n">
-        <v>37.65752409191994</v>
+        <v>11.29725722757598</v>
       </c>
       <c r="CE17" t="n">
-        <v>47.4650532025871</v>
+        <v>14.23951596077613</v>
       </c>
       <c r="CF17" t="n">
-        <v>44.78792235801582</v>
+        <v>13.43637670740475</v>
       </c>
       <c r="CG17" t="n">
-        <v>44.04761904761904</v>
+        <v>13.21428571428571</v>
       </c>
       <c r="CH17" t="n">
-        <v>38.84873735226595</v>
+        <v>11.65462120567978</v>
       </c>
       <c r="CI17" t="n">
-        <v>46.93572496263079</v>
+        <v>14.08071748878924</v>
       </c>
     </row>
     <row r="18">
@@ -5117,262 +5117,262 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C18" t="n">
-        <v>-76.06364275668072</v>
+        <v>-22.81909282700422</v>
       </c>
       <c r="D18" t="n">
-        <v>-92.29813664596274</v>
+        <v>-27.68944099378882</v>
       </c>
       <c r="E18" t="n">
-        <v>-88.17802503477051</v>
+        <v>-26.45340751043116</v>
       </c>
       <c r="F18" t="n">
-        <v>-90.87223490514052</v>
+        <v>-27.26167047154215</v>
       </c>
       <c r="G18" t="n">
-        <v>-92.90627687016337</v>
+        <v>-27.87188306104901</v>
       </c>
       <c r="H18" t="n">
-        <v>-89.30370239462755</v>
+        <v>-26.79111071838826</v>
       </c>
       <c r="I18" t="n">
-        <v>-91.23826553419758</v>
+        <v>-27.37147966025928</v>
       </c>
       <c r="J18" t="n">
-        <v>-91.58331300317151</v>
+        <v>-27.47499390095145</v>
       </c>
       <c r="K18" t="n">
-        <v>-91.23409243134628</v>
+        <v>-27.37022772940388</v>
       </c>
       <c r="L18" t="n">
-        <v>-88.48116056038222</v>
+        <v>-26.54434816811467</v>
       </c>
       <c r="M18" t="n">
-        <v>-91.29282721222577</v>
+        <v>-27.38784816366773</v>
       </c>
       <c r="N18" t="n">
-        <v>-90.93360160965794</v>
+        <v>-27.28008048289738</v>
       </c>
       <c r="O18" t="n">
-        <v>-90.63128652169749</v>
+        <v>-27.18938595650924</v>
       </c>
       <c r="P18" t="n">
-        <v>-91.80816204944891</v>
+        <v>-27.54244861483468</v>
       </c>
       <c r="Q18" t="n">
-        <v>-90.32981906254453</v>
+        <v>-27.09894571876336</v>
       </c>
       <c r="R18" t="n">
-        <v>-90.78563269450439</v>
+        <v>-27.23568980835131</v>
       </c>
       <c r="S18" t="n">
-        <v>-90.76751946607341</v>
+        <v>-27.23025583982202</v>
       </c>
       <c r="T18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U18" t="n">
-        <v>-75.63043478260869</v>
+        <v>-22.68913043478261</v>
       </c>
       <c r="V18" t="n">
-        <v>-90.94167321288296</v>
+        <v>-27.28250196386489</v>
       </c>
       <c r="W18" t="n">
-        <v>-90.83307996351473</v>
+        <v>-27.24992398905442</v>
       </c>
       <c r="X18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y18" t="n">
-        <v>-90.32805429864254</v>
+        <v>-27.09841628959276</v>
       </c>
       <c r="Z18" t="n">
-        <v>-87.09593326381648</v>
+        <v>-26.12877997914494</v>
       </c>
       <c r="AA18" t="n">
-        <v>-89.89426483613818</v>
+        <v>-26.96827945084145</v>
       </c>
       <c r="AB18" t="n">
-        <v>-87.84086067319983</v>
+        <v>-26.35225820195995</v>
       </c>
       <c r="AC18" t="n">
-        <v>-89.95183887915937</v>
+        <v>-26.98555166374781</v>
       </c>
       <c r="AD18" t="n">
-        <v>-92.65491838798209</v>
+        <v>-27.79647551639463</v>
       </c>
       <c r="AE18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF18" t="n">
-        <v>-92.07464857004362</v>
+        <v>-27.62239457101309</v>
       </c>
       <c r="AG18" t="n">
-        <v>-94.38717067583046</v>
+        <v>-28.31615120274914</v>
       </c>
       <c r="AH18" t="n">
-        <v>-92.55822111058579</v>
+        <v>-27.76746633317574</v>
       </c>
       <c r="AI18" t="n">
-        <v>-92.86523216308041</v>
+        <v>-27.85956964892412</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-90.96912521440824</v>
+        <v>-27.29073756432247</v>
       </c>
       <c r="AK18" t="n">
-        <v>-91.58466163462163</v>
+        <v>-27.47539849038649</v>
       </c>
       <c r="AL18" t="n">
-        <v>-92.40522651078827</v>
+        <v>-27.72156795323648</v>
       </c>
       <c r="AM18" t="n">
-        <v>-77.14285714285715</v>
+        <v>-23.14285714285714</v>
       </c>
       <c r="AN18" t="n">
-        <v>-92.65918259954394</v>
+        <v>-27.79775477986318</v>
       </c>
       <c r="AO18" t="n">
-        <v>-92.49816131404755</v>
+        <v>-27.74944839421427</v>
       </c>
       <c r="AP18" t="n">
-        <v>-90.94115054000441</v>
+        <v>-27.28234516200132</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-91.28787878787878</v>
+        <v>-27.38636363636364</v>
       </c>
       <c r="AR18" t="n">
-        <v>-90.85147370448854</v>
+        <v>-27.25544211134656</v>
       </c>
       <c r="AS18" t="n">
-        <v>-77.03111986067994</v>
+        <v>-23.10933595820398</v>
       </c>
       <c r="AT18" t="n">
-        <v>-92.27313566936208</v>
+        <v>-27.68194070080862</v>
       </c>
       <c r="AU18" t="n">
-        <v>-92.04201934703748</v>
+        <v>-27.61260580411125</v>
       </c>
       <c r="AV18" t="n">
-        <v>-76.76474809817712</v>
+        <v>-23.02942442945313</v>
       </c>
       <c r="AW18" t="n">
-        <v>-76.01145458550555</v>
+        <v>-22.80343637565166</v>
       </c>
       <c r="AX18" t="n">
-        <v>-91.29512775421537</v>
+        <v>-27.38853832626461</v>
       </c>
       <c r="AY18" t="n">
-        <v>-89.99886479736632</v>
+        <v>-26.9996594392099</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-91.83324259158435</v>
+        <v>-27.5499727774753</v>
       </c>
       <c r="BA18" t="n">
-        <v>-86.56298328032447</v>
+        <v>-25.96889498409734</v>
       </c>
       <c r="BB18" t="n">
-        <v>-92.53758793507747</v>
+        <v>-27.76127638052324</v>
       </c>
       <c r="BC18" t="n">
-        <v>-91.4874750609621</v>
+        <v>-27.44624251828863</v>
       </c>
       <c r="BD18" t="n">
-        <v>-90.90142857142857</v>
+        <v>-27.27042857142857</v>
       </c>
       <c r="BE18" t="n">
-        <v>-92.94251225050795</v>
+        <v>-27.88275367515238</v>
       </c>
       <c r="BF18" t="n">
-        <v>-91.63084702907712</v>
+        <v>-27.48925410872314</v>
       </c>
       <c r="BG18" t="n">
-        <v>-90.05410723069356</v>
+        <v>-27.01623216920807</v>
       </c>
       <c r="BH18" t="n">
-        <v>-89.47394900484997</v>
+        <v>-26.84218470145499</v>
       </c>
       <c r="BI18" t="n">
-        <v>-90.32583239995927</v>
+        <v>-27.09774971998778</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL18" t="n">
-        <v>-91.0606212174261</v>
+        <v>-27.31818636522783</v>
       </c>
       <c r="BM18" t="n">
-        <v>-91.6217540421362</v>
+        <v>-27.48652621264086</v>
       </c>
       <c r="BN18" t="n">
-        <v>-92.08509220173295</v>
+        <v>-27.62552766051988</v>
       </c>
       <c r="BO18" t="n">
-        <v>-89.59537572254335</v>
+        <v>-26.87861271676301</v>
       </c>
       <c r="BP18" t="n">
-        <v>-93.63067807768269</v>
+        <v>-28.08920342330481</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-91.48479287861633</v>
+        <v>-27.4454378635849</v>
       </c>
       <c r="BR18" t="n">
-        <v>-91.61826065614007</v>
+        <v>-27.48547819684202</v>
       </c>
       <c r="BS18" t="n">
-        <v>-90.78355635260036</v>
+        <v>-27.23506690578011</v>
       </c>
       <c r="BT18" t="n">
-        <v>-91.36037317629933</v>
+        <v>-27.4081119528898</v>
       </c>
       <c r="BU18" t="n">
-        <v>-91.49879268713349</v>
+        <v>-27.44963780614005</v>
       </c>
       <c r="BV18" t="n">
-        <v>-90.94987051424343</v>
+        <v>-27.28496115427303</v>
       </c>
       <c r="BW18" t="n">
-        <v>-90.77204091573307</v>
+        <v>-27.23161227471992</v>
       </c>
       <c r="BX18" t="n">
-        <v>-91.73538740371545</v>
+        <v>-27.52061622111464</v>
       </c>
       <c r="BY18" t="n">
-        <v>-91.80040120361083</v>
+        <v>-27.54012036108325</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-90.49865229110512</v>
+        <v>-27.14959568733154</v>
       </c>
       <c r="CA18" t="n">
-        <v>-91.36712439418417</v>
+        <v>-27.41013731825525</v>
       </c>
       <c r="CB18" t="n">
-        <v>-90.49797642090445</v>
+        <v>-27.14939292627133</v>
       </c>
       <c r="CC18" t="n">
-        <v>-85.5924978687127</v>
+        <v>-25.67774936061381</v>
       </c>
       <c r="CD18" t="n">
-        <v>-89.66074313408724</v>
+        <v>-26.89822294022617</v>
       </c>
       <c r="CE18" t="n">
-        <v>-83.12818336162988</v>
+        <v>-24.93845500848897</v>
       </c>
       <c r="CF18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH18" t="n">
-        <v>-89.94182486221678</v>
+        <v>-26.98254745866504</v>
       </c>
       <c r="CI18" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="19">
@@ -5382,262 +5382,262 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C19" t="n">
-        <v>97.64965112008814</v>
+        <v>29.29489533602644</v>
       </c>
       <c r="D19" t="n">
-        <v>319.5340501792115</v>
+        <v>95.86021505376344</v>
       </c>
       <c r="E19" t="n">
-        <v>256.7973856209151</v>
+        <v>77.03921568627452</v>
       </c>
       <c r="F19" t="n">
-        <v>286.4596808969384</v>
+        <v>85.93790426908151</v>
       </c>
       <c r="G19" t="n">
-        <v>345.6565656565656</v>
+        <v>103.6969696969697</v>
       </c>
       <c r="H19" t="n">
-        <v>268.9384551838083</v>
+        <v>80.68153655514251</v>
       </c>
       <c r="I19" t="n">
-        <v>318.7074829931972</v>
+        <v>95.61224489795917</v>
       </c>
       <c r="J19" t="n">
-        <v>278.743961352657</v>
+        <v>83.62318840579711</v>
       </c>
       <c r="K19" t="n">
-        <v>304.2024832855778</v>
+        <v>91.26074498567336</v>
       </c>
       <c r="L19" t="n">
-        <v>259.4657025208396</v>
+        <v>77.83971075625188</v>
       </c>
       <c r="M19" t="n">
-        <v>300.9907997169144</v>
+        <v>90.29723991507431</v>
       </c>
       <c r="N19" t="n">
-        <v>275.3217931646693</v>
+        <v>82.59653794940078</v>
       </c>
       <c r="O19" t="n">
-        <v>308.6912065439673</v>
+        <v>92.60736196319019</v>
       </c>
       <c r="P19" t="n">
-        <v>321.6969696969697</v>
+        <v>96.50909090909092</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.7366482504603</v>
+        <v>78.22099447513811</v>
       </c>
       <c r="R19" t="n">
-        <v>287.7410468319559</v>
+        <v>86.32231404958678</v>
       </c>
       <c r="S19" t="n">
-        <v>284.2570281124498</v>
+        <v>85.27710843373495</v>
       </c>
       <c r="T19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U19" t="n">
-        <v>106.4823074635742</v>
+        <v>31.94469223907225</v>
       </c>
       <c r="V19" t="n">
-        <v>270.840108401084</v>
+        <v>81.2520325203252</v>
       </c>
       <c r="W19" t="n">
-        <v>267.8275290215589</v>
+        <v>80.34825870646767</v>
       </c>
       <c r="X19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y19" t="n">
-        <v>285.6050382366172</v>
+        <v>85.68151147098517</v>
       </c>
       <c r="Z19" t="n">
-        <v>186.002886002886</v>
+        <v>55.80086580086581</v>
       </c>
       <c r="AA19" t="n">
-        <v>275.0205423171734</v>
+        <v>82.50616269515201</v>
       </c>
       <c r="AB19" t="n">
-        <v>252.2558037669733</v>
+        <v>75.67674113009198</v>
       </c>
       <c r="AC19" t="n">
-        <v>268.7726942628904</v>
+        <v>80.6318082788671</v>
       </c>
       <c r="AD19" t="n">
-        <v>333.6283185840708</v>
+        <v>100.0884955752212</v>
       </c>
       <c r="AE19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF19" t="n">
-        <v>341.8960244648318</v>
+        <v>102.5688073394495</v>
       </c>
       <c r="AG19" t="n">
-        <v>460.5442176870748</v>
+        <v>138.1632653061224</v>
       </c>
       <c r="AH19" t="n">
-        <v>352.2594528127882</v>
+        <v>105.6778358438365</v>
       </c>
       <c r="AI19" t="n">
-        <v>345.8994708994709</v>
+        <v>103.7698412698413</v>
       </c>
       <c r="AJ19" t="n">
-        <v>305.2231718898385</v>
+        <v>91.56695156695156</v>
       </c>
       <c r="AK19" t="n">
-        <v>309.1493189411463</v>
+        <v>92.74479568234388</v>
       </c>
       <c r="AL19" t="n">
-        <v>364.7425014148274</v>
+        <v>109.4227504244482</v>
       </c>
       <c r="AM19" t="n">
-        <v>105</v>
+        <v>31.5</v>
       </c>
       <c r="AN19" t="n">
-        <v>385.3046594982079</v>
+        <v>115.5913978494624</v>
       </c>
       <c r="AO19" t="n">
-        <v>320.9150326797385</v>
+        <v>96.27450980392156</v>
       </c>
       <c r="AP19" t="n">
-        <v>290.9975669099756</v>
+        <v>87.29927007299268</v>
       </c>
       <c r="AQ19" t="n">
-        <v>467.632850241546</v>
+        <v>140.2898550724638</v>
       </c>
       <c r="AR19" t="n">
-        <v>301.0528532322595</v>
+        <v>90.31585596967783</v>
       </c>
       <c r="AS19" t="n">
-        <v>104.3514092632273</v>
+        <v>31.30542277896819</v>
       </c>
       <c r="AT19" t="n">
-        <v>309.4961240310078</v>
+        <v>92.84883720930233</v>
       </c>
       <c r="AU19" t="n">
-        <v>324.5014245014245</v>
+        <v>97.35042735042735</v>
       </c>
       <c r="AV19" t="n">
-        <v>104.9542871262664</v>
+        <v>31.48628613787991</v>
       </c>
       <c r="AW19" t="n">
-        <v>100.2448729721457</v>
+        <v>30.0734618916437</v>
       </c>
       <c r="AX19" t="n">
-        <v>303.2085561497327</v>
+        <v>90.96256684491979</v>
       </c>
       <c r="AY19" t="n">
-        <v>262.883087400681</v>
+        <v>78.86492622020431</v>
       </c>
       <c r="AZ19" t="n">
-        <v>295.9047619047619</v>
+        <v>88.77142857142859</v>
       </c>
       <c r="BA19" t="n">
-        <v>175.5266015200868</v>
+        <v>52.65798045602605</v>
       </c>
       <c r="BB19" t="n">
-        <v>340.049291435613</v>
+        <v>102.0147874306839</v>
       </c>
       <c r="BC19" t="n">
-        <v>291.5798611111111</v>
+        <v>87.47395833333333</v>
       </c>
       <c r="BD19" t="n">
-        <v>293.939393939394</v>
+        <v>88.1818181818182</v>
       </c>
       <c r="BE19" t="n">
-        <v>352.3285351397121</v>
+        <v>105.6985605419136</v>
       </c>
       <c r="BF19" t="n">
-        <v>293.4541792547835</v>
+        <v>88.03625377643505</v>
       </c>
       <c r="BG19" t="n">
-        <v>237.4876360039564</v>
+        <v>71.24629080118693</v>
       </c>
       <c r="BH19" t="n">
-        <v>260.6538571838256</v>
+        <v>78.19615715514769</v>
       </c>
       <c r="BI19" t="n">
-        <v>281.0756762446059</v>
+        <v>84.32270287338174</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL19" t="n">
-        <v>289.7048538257098</v>
+        <v>86.91145614771297</v>
       </c>
       <c r="BM19" t="n">
-        <v>354.9707602339181</v>
+        <v>106.4912280701754</v>
       </c>
       <c r="BN19" t="n">
-        <v>322.3157894736842</v>
+        <v>96.69473684210526</v>
       </c>
       <c r="BO19" t="n">
-        <v>249.3827160493827</v>
+        <v>74.81481481481481</v>
       </c>
       <c r="BP19" t="n">
-        <v>390.1808785529716</v>
+        <v>117.0542635658915</v>
       </c>
       <c r="BQ19" t="n">
-        <v>300.6419073819349</v>
+        <v>90.19257221458045</v>
       </c>
       <c r="BR19" t="n">
-        <v>323.4260614934114</v>
+        <v>97.02781844802342</v>
       </c>
       <c r="BS19" t="n">
-        <v>267.6395749139351</v>
+        <v>80.29187247418051</v>
       </c>
       <c r="BT19" t="n">
-        <v>292.9925330269959</v>
+        <v>87.89775990809879</v>
       </c>
       <c r="BU19" t="n">
-        <v>317.8129438019882</v>
+        <v>95.34388314059647</v>
       </c>
       <c r="BV19" t="n">
-        <v>299.31868506217</v>
+        <v>89.795605518651</v>
       </c>
       <c r="BW19" t="n">
-        <v>299.7888624967009</v>
+        <v>89.93665874901028</v>
       </c>
       <c r="BX19" t="n">
-        <v>396.6008771929825</v>
+        <v>118.9802631578948</v>
       </c>
       <c r="BY19" t="n">
-        <v>357.1253822629969</v>
+        <v>107.1376146788991</v>
       </c>
       <c r="BZ19" t="n">
-        <v>276.1229314420804</v>
+        <v>82.83687943262413</v>
       </c>
       <c r="CA19" t="n">
-        <v>289.2397660818714</v>
+        <v>86.77192982456141</v>
       </c>
       <c r="CB19" t="n">
-        <v>270.0617283950617</v>
+        <v>81.0185185185185</v>
       </c>
       <c r="CC19" t="n">
-        <v>159.6318211702827</v>
+        <v>47.88954635108481</v>
       </c>
       <c r="CD19" t="n">
-        <v>246.875</v>
+        <v>74.0625</v>
       </c>
       <c r="CE19" t="n">
-        <v>155.7651991614256</v>
+        <v>46.72955974842767</v>
       </c>
       <c r="CF19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH19" t="n">
-        <v>288.3713850837138</v>
+        <v>86.51141552511416</v>
       </c>
       <c r="CI19" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="20">
@@ -5647,262 +5647,262 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C20" t="n">
-        <v>61.78620091663571</v>
+        <v>18.53586027499071</v>
       </c>
       <c r="D20" t="n">
-        <v>67.68475010679195</v>
+        <v>20.30542503203759</v>
       </c>
       <c r="E20" t="n">
-        <v>60.21249313061</v>
+        <v>18.063747939183</v>
       </c>
       <c r="F20" t="n">
-        <v>70.49765677304171</v>
+        <v>21.14929703191251</v>
       </c>
       <c r="G20" t="n">
-        <v>76.45814445451798</v>
+        <v>22.93744333635539</v>
       </c>
       <c r="H20" t="n">
-        <v>72.32422749664129</v>
+        <v>21.69726824899239</v>
       </c>
       <c r="I20" t="n">
-        <v>69.78066612510155</v>
+        <v>20.93419983753046</v>
       </c>
       <c r="J20" t="n">
-        <v>71.55612244897958</v>
+        <v>21.46683673469387</v>
       </c>
       <c r="K20" t="n">
-        <v>69.58884688090737</v>
+        <v>20.87665406427221</v>
       </c>
       <c r="L20" t="n">
-        <v>66.38634331694234</v>
+        <v>19.9159029950827</v>
       </c>
       <c r="M20" t="n">
-        <v>73.06741969643485</v>
+        <v>21.92022590893045</v>
       </c>
       <c r="N20" t="n">
-        <v>69.46546830652794</v>
+        <v>20.83964049195838</v>
       </c>
       <c r="O20" t="n">
-        <v>65.39904928696522</v>
+        <v>19.61971478608957</v>
       </c>
       <c r="P20" t="n">
-        <v>69.58896234550159</v>
+        <v>20.87668870365047</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.28854400653462</v>
+        <v>21.38656320196039</v>
       </c>
       <c r="R20" t="n">
-        <v>66.34103019538186</v>
+        <v>19.90230905861456</v>
       </c>
       <c r="S20" t="n">
-        <v>65.96989966555182</v>
+        <v>19.79096989966555</v>
       </c>
       <c r="T20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U20" t="n">
-        <v>61.17511520737327</v>
+        <v>18.35253456221198</v>
       </c>
       <c r="V20" t="n">
-        <v>65.24408067816428</v>
+        <v>19.57322420344929</v>
       </c>
       <c r="W20" t="n">
-        <v>63.9990982867448</v>
+        <v>19.19972948602344</v>
       </c>
       <c r="X20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.63229118058797</v>
+        <v>19.68968735417639</v>
       </c>
       <c r="Z20" t="n">
-        <v>65.73158425832493</v>
+        <v>19.71947527749748</v>
       </c>
       <c r="AA20" t="n">
-        <v>68.27344434706399</v>
+        <v>20.4820333041192</v>
       </c>
       <c r="AB20" t="n">
-        <v>58.09500124347178</v>
+        <v>17.42850037304153</v>
       </c>
       <c r="AC20" t="n">
-        <v>67.11303662859392</v>
+        <v>20.13391098857817</v>
       </c>
       <c r="AD20" t="n">
-        <v>73.92290249433105</v>
+        <v>22.17687074829932</v>
       </c>
       <c r="AE20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF20" t="n">
-        <v>73.42560553633218</v>
+        <v>22.02768166089966</v>
       </c>
       <c r="AG20" t="n">
-        <v>72.57281553398057</v>
+        <v>21.77184466019417</v>
       </c>
       <c r="AH20" t="n">
-        <v>80.29726300525647</v>
+        <v>24.08917890157694</v>
       </c>
       <c r="AI20" t="n">
-        <v>76.86146544052208</v>
+        <v>23.05843963215662</v>
       </c>
       <c r="AJ20" t="n">
-        <v>71.56081556128427</v>
+        <v>21.46824466838528</v>
       </c>
       <c r="AK20" t="n">
-        <v>72.63819095477388</v>
+        <v>21.79145728643216</v>
       </c>
       <c r="AL20" t="n">
-        <v>69.72722844617631</v>
+        <v>20.9181685338529</v>
       </c>
       <c r="AM20" t="n">
-        <v>51.6260162601626</v>
+        <v>15.48780487804878</v>
       </c>
       <c r="AN20" t="n">
-        <v>66.91285081240767</v>
+        <v>20.0738552437223</v>
       </c>
       <c r="AO20" t="n">
-        <v>66.92546583850931</v>
+        <v>20.07763975155279</v>
       </c>
       <c r="AP20" t="n">
-        <v>70.87741132545116</v>
+        <v>21.26322339763535</v>
       </c>
       <c r="AQ20" t="n">
-        <v>60.85106382978722</v>
+        <v>18.25531914893617</v>
       </c>
       <c r="AR20" t="n">
-        <v>69.06437047149008</v>
+        <v>20.71931114144702</v>
       </c>
       <c r="AS20" t="n">
-        <v>62.61762649889766</v>
+        <v>18.7852879496693</v>
       </c>
       <c r="AT20" t="n">
-        <v>68.71746332229056</v>
+        <v>20.61523899668717</v>
       </c>
       <c r="AU20" t="n">
-        <v>73.37807606263983</v>
+        <v>22.01342281879195</v>
       </c>
       <c r="AV20" t="n">
-        <v>60.8596057628549</v>
+        <v>18.25788172885647</v>
       </c>
       <c r="AW20" t="n">
-        <v>37.12931825129932</v>
+        <v>11.1387954753898</v>
       </c>
       <c r="AX20" t="n">
-        <v>69.28971411730032</v>
+        <v>20.7869142351901</v>
       </c>
       <c r="AY20" t="n">
-        <v>68.87707225523928</v>
+        <v>20.66312167657179</v>
       </c>
       <c r="AZ20" t="n">
-        <v>71.01274957902332</v>
+        <v>21.30382487370699</v>
       </c>
       <c r="BA20" t="n">
-        <v>64.97477931904162</v>
+        <v>19.49243379571249</v>
       </c>
       <c r="BB20" t="n">
-        <v>72.9627555306637</v>
+        <v>21.88882665919911</v>
       </c>
       <c r="BC20" t="n">
-        <v>70.51651518510307</v>
+        <v>21.15495455553092</v>
       </c>
       <c r="BD20" t="n">
-        <v>68.12275807094458</v>
+        <v>20.43682742128337</v>
       </c>
       <c r="BE20" t="n">
-        <v>76.37588918008237</v>
+        <v>22.91276675402471</v>
       </c>
       <c r="BF20" t="n">
-        <v>78.57691323265932</v>
+        <v>23.5730739697978</v>
       </c>
       <c r="BG20" t="n">
-        <v>66.38335287221572</v>
+        <v>19.91500586166471</v>
       </c>
       <c r="BH20" t="n">
-        <v>65.88740458015268</v>
+        <v>19.7662213740458</v>
       </c>
       <c r="BI20" t="n">
-        <v>63.66900513727008</v>
+        <v>19.10070154118102</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL20" t="n">
-        <v>68.97343862167983</v>
+        <v>20.69203158650395</v>
       </c>
       <c r="BM20" t="n">
-        <v>72.6221079691517</v>
+        <v>21.78663239074551</v>
       </c>
       <c r="BN20" t="n">
-        <v>73.08075772681954</v>
+        <v>21.92422731804587</v>
       </c>
       <c r="BO20" t="n">
-        <v>77.5618374558304</v>
+        <v>23.26855123674912</v>
       </c>
       <c r="BP20" t="n">
-        <v>73.32630469161833</v>
+        <v>21.9978914074855</v>
       </c>
       <c r="BQ20" t="n">
-        <v>70.40512703135728</v>
+        <v>21.12153810940719</v>
       </c>
       <c r="BR20" t="n">
-        <v>65.39880129091746</v>
+        <v>19.61964038727524</v>
       </c>
       <c r="BS20" t="n">
-        <v>68.98461037374808</v>
+        <v>20.69538311212442</v>
       </c>
       <c r="BT20" t="n">
-        <v>72.48367923609082</v>
+        <v>21.74510377082725</v>
       </c>
       <c r="BU20" t="n">
-        <v>69.86500922598815</v>
+        <v>20.95950276779644</v>
       </c>
       <c r="BV20" t="n">
-        <v>71.40419723596655</v>
+        <v>21.42125917078997</v>
       </c>
       <c r="BW20" t="n">
-        <v>68.49749141800899</v>
+        <v>20.5492474254027</v>
       </c>
       <c r="BX20" t="n">
-        <v>66.12938838595716</v>
+        <v>19.83881651578715</v>
       </c>
       <c r="BY20" t="n">
-        <v>65.13245919186512</v>
+        <v>19.53973775755954</v>
       </c>
       <c r="BZ20" t="n">
-        <v>69.83029541169074</v>
+        <v>20.94908862350722</v>
       </c>
       <c r="CA20" t="n">
-        <v>67.52403846153845</v>
+        <v>20.25721153846153</v>
       </c>
       <c r="CB20" t="n">
-        <v>67.62301918265221</v>
+        <v>20.28690575479566</v>
       </c>
       <c r="CC20" t="n">
-        <v>61.40795138009623</v>
+        <v>18.42238541402887</v>
       </c>
       <c r="CD20" t="n">
-        <v>60.36036036036037</v>
+        <v>18.10810810810811</v>
       </c>
       <c r="CE20" t="n">
-        <v>61.7704918032787</v>
+        <v>18.53114754098361</v>
       </c>
       <c r="CF20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH20" t="n">
-        <v>70.87317761404609</v>
+        <v>21.26195328421382</v>
       </c>
       <c r="CI20" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="21">
@@ -5912,262 +5912,262 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C21" t="n">
-        <v>38.52691218130311</v>
+        <v>11.55807365439093</v>
       </c>
       <c r="D21" t="n">
-        <v>50.60501846898485</v>
+        <v>15.18150554069546</v>
       </c>
       <c r="E21" t="n">
-        <v>46.24971415504231</v>
+        <v>13.87491424651269</v>
       </c>
       <c r="F21" t="n">
-        <v>49.69240837696336</v>
+        <v>14.90772251308901</v>
       </c>
       <c r="G21" t="n">
-        <v>52.0465833190615</v>
+        <v>15.61397499571845</v>
       </c>
       <c r="H21" t="n">
-        <v>47.71309771309771</v>
+        <v>14.31392931392931</v>
       </c>
       <c r="I21" t="n">
-        <v>51.55502392344498</v>
+        <v>15.46650717703349</v>
       </c>
       <c r="J21" t="n">
-        <v>52.59479553903346</v>
+        <v>15.77843866171004</v>
       </c>
       <c r="K21" t="n">
-        <v>49.93729970739862</v>
+        <v>14.98118991221959</v>
       </c>
       <c r="L21" t="n">
-        <v>47.08075159941565</v>
+        <v>14.12422547982469</v>
       </c>
       <c r="M21" t="n">
-        <v>49.11278808892515</v>
+        <v>14.73383642667755</v>
       </c>
       <c r="N21" t="n">
-        <v>52.32379623168178</v>
+        <v>15.69713886950453</v>
       </c>
       <c r="O21" t="n">
-        <v>46.71002873997883</v>
+        <v>14.01300862199365</v>
       </c>
       <c r="P21" t="n">
-        <v>48.61016949152541</v>
+        <v>14.58305084745762</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.40391034811635</v>
+        <v>14.82117310443491</v>
       </c>
       <c r="R21" t="n">
-        <v>46.28937533368929</v>
+        <v>13.88681260010679</v>
       </c>
       <c r="S21" t="n">
-        <v>49.15617128463477</v>
+        <v>14.74685138539043</v>
       </c>
       <c r="T21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U21" t="n">
-        <v>38.1879914224446</v>
+        <v>11.45639742673338</v>
       </c>
       <c r="V21" t="n">
-        <v>49.33663541482399</v>
+        <v>14.8009906244472</v>
       </c>
       <c r="W21" t="n">
-        <v>47.47766323024056</v>
+        <v>14.24329896907217</v>
       </c>
       <c r="X21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y21" t="n">
-        <v>48.99281588956189</v>
+        <v>14.69784476686857</v>
       </c>
       <c r="Z21" t="n">
-        <v>50.30443253774961</v>
+        <v>15.09132976132488</v>
       </c>
       <c r="AA21" t="n">
-        <v>49.0625</v>
+        <v>14.71875</v>
       </c>
       <c r="AB21" t="n">
-        <v>46.31115305961933</v>
+        <v>13.8933459178858</v>
       </c>
       <c r="AC21" t="n">
-        <v>47.27786943200567</v>
+        <v>14.1833608296017</v>
       </c>
       <c r="AD21" t="n">
-        <v>49.54367666232075</v>
+        <v>14.86310299869622</v>
       </c>
       <c r="AE21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF21" t="n">
-        <v>51.87549880287311</v>
+        <v>15.56264964086193</v>
       </c>
       <c r="AG21" t="n">
-        <v>51.61744022503515</v>
+        <v>15.48523206751054</v>
       </c>
       <c r="AH21" t="n">
-        <v>51.66884487785261</v>
+        <v>15.50065346335579</v>
       </c>
       <c r="AI21" t="n">
-        <v>51.89533713518954</v>
+        <v>15.56860114055686</v>
       </c>
       <c r="AJ21" t="n">
-        <v>52.4895840448057</v>
+        <v>15.74687521344171</v>
       </c>
       <c r="AK21" t="n">
-        <v>51.33896084994905</v>
+        <v>15.40168825498471</v>
       </c>
       <c r="AL21" t="n">
-        <v>50.3228583727938</v>
+        <v>15.09685751183814</v>
       </c>
       <c r="AM21" t="n">
-        <v>42.35924932975872</v>
+        <v>12.70777479892762</v>
       </c>
       <c r="AN21" t="n">
-        <v>45.57522123893805</v>
+        <v>13.67256637168142</v>
       </c>
       <c r="AO21" t="n">
-        <v>50.97674418604652</v>
+        <v>15.29302325581396</v>
       </c>
       <c r="AP21" t="n">
-        <v>47.523670793882</v>
+        <v>14.2571012381646</v>
       </c>
       <c r="AQ21" t="n">
-        <v>48.25396825396825</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="AR21" t="n">
-        <v>48.8447204968944</v>
+        <v>14.65341614906832</v>
       </c>
       <c r="AS21" t="n">
-        <v>39.83202169168706</v>
+        <v>11.94960650750612</v>
       </c>
       <c r="AT21" t="n">
-        <v>52.56661991584853</v>
+        <v>15.76998597475456</v>
       </c>
       <c r="AU21" t="n">
-        <v>46.63225806451612</v>
+        <v>13.98967741935484</v>
       </c>
       <c r="AV21" t="n">
-        <v>37.75154581225407</v>
+        <v>11.32546374367622</v>
       </c>
       <c r="AW21" t="n">
-        <v>35.26920075799799</v>
+        <v>10.5807602273994</v>
       </c>
       <c r="AX21" t="n">
-        <v>49.73885793871865</v>
+        <v>14.9216573816156</v>
       </c>
       <c r="AY21" t="n">
-        <v>50.76248688028648</v>
+        <v>15.22874606408594</v>
       </c>
       <c r="AZ21" t="n">
-        <v>52.82036854691238</v>
+        <v>15.84611056407371</v>
       </c>
       <c r="BA21" t="n">
-        <v>47.61131282247278</v>
+        <v>14.28339384674184</v>
       </c>
       <c r="BB21" t="n">
-        <v>51.60689711001376</v>
+        <v>15.48206913300413</v>
       </c>
       <c r="BC21" t="n">
-        <v>51.06604264170568</v>
+        <v>15.3198127925117</v>
       </c>
       <c r="BD21" t="n">
-        <v>48.54677350528663</v>
+        <v>14.56403205158599</v>
       </c>
       <c r="BE21" t="n">
-        <v>52.5295407910564</v>
+        <v>15.75886223731692</v>
       </c>
       <c r="BF21" t="n">
-        <v>49.92116955711624</v>
+        <v>14.97635086713487</v>
       </c>
       <c r="BG21" t="n">
-        <v>49.69173859432799</v>
+        <v>14.9075215782984</v>
       </c>
       <c r="BH21" t="n">
-        <v>47.51861438660402</v>
+        <v>14.25558431598121</v>
       </c>
       <c r="BI21" t="n">
-        <v>46.93712241385128</v>
+        <v>14.08113672415539</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL21" t="n">
-        <v>51.04087008241991</v>
+        <v>15.31226102472597</v>
       </c>
       <c r="BM21" t="n">
-        <v>55.69620253164557</v>
+        <v>16.70886075949367</v>
       </c>
       <c r="BN21" t="n">
-        <v>52.8993855606759</v>
+        <v>15.86981566820277</v>
       </c>
       <c r="BO21" t="n">
-        <v>60.49751243781093</v>
+        <v>18.14925373134328</v>
       </c>
       <c r="BP21" t="n">
-        <v>52.40267639902676</v>
+        <v>15.72080291970803</v>
       </c>
       <c r="BQ21" t="n">
-        <v>48.87844190732035</v>
+        <v>14.66353257219611</v>
       </c>
       <c r="BR21" t="n">
-        <v>51.21951219512195</v>
+        <v>15.36585365853659</v>
       </c>
       <c r="BS21" t="n">
-        <v>50.86011660964679</v>
+        <v>15.25803498289404</v>
       </c>
       <c r="BT21" t="n">
-        <v>49.37860128799006</v>
+        <v>14.81358038639702</v>
       </c>
       <c r="BU21" t="n">
-        <v>48.8308272826025</v>
+        <v>14.64924818478075</v>
       </c>
       <c r="BV21" t="n">
-        <v>48.43221182560223</v>
+        <v>14.52966354768067</v>
       </c>
       <c r="BW21" t="n">
-        <v>48.1115812568563</v>
+        <v>14.43347437705689</v>
       </c>
       <c r="BX21" t="n">
-        <v>48.00637958532695</v>
+        <v>14.40191387559809</v>
       </c>
       <c r="BY21" t="n">
-        <v>46.39442553881057</v>
+        <v>13.91832766164317</v>
       </c>
       <c r="BZ21" t="n">
-        <v>46.29903774981496</v>
+        <v>13.88971132494449</v>
       </c>
       <c r="CA21" t="n">
-        <v>48.86640837996843</v>
+        <v>14.65992251399053</v>
       </c>
       <c r="CB21" t="n">
-        <v>49.35814508906359</v>
+        <v>14.80744352671908</v>
       </c>
       <c r="CC21" t="n">
-        <v>47.00345152180736</v>
+        <v>14.10103545654221</v>
       </c>
       <c r="CD21" t="n">
-        <v>49.3445692883895</v>
+        <v>14.80337078651685</v>
       </c>
       <c r="CE21" t="n">
-        <v>44.85204702067288</v>
+        <v>13.45561410620187</v>
       </c>
       <c r="CF21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH21" t="n">
-        <v>51.07339449541284</v>
+        <v>15.32201834862385</v>
       </c>
       <c r="CI21" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="22">
@@ -6177,262 +6177,262 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C22" t="n">
-        <v>-77.06018902337921</v>
+        <v>-23.11805670701376</v>
       </c>
       <c r="D22" t="n">
-        <v>-73.00405953991881</v>
+        <v>-21.90121786197564</v>
       </c>
       <c r="E22" t="n">
-        <v>-75.32640137596748</v>
+        <v>-22.59792041279024</v>
       </c>
       <c r="F22" t="n">
-        <v>-73.47309054343549</v>
+        <v>-22.04192716303065</v>
       </c>
       <c r="G22" t="n">
-        <v>-70.71975670195989</v>
+        <v>-21.21592701058797</v>
       </c>
       <c r="H22" t="n">
-        <v>-74.7844827586207</v>
+        <v>-22.43534482758621</v>
       </c>
       <c r="I22" t="n">
-        <v>-75.70639305445935</v>
+        <v>-22.71191791633781</v>
       </c>
       <c r="J22" t="n">
-        <v>-72.38842330929643</v>
+        <v>-21.71652699278893</v>
       </c>
       <c r="K22" t="n">
-        <v>-72.65124059102314</v>
+        <v>-21.79537217730694</v>
       </c>
       <c r="L22" t="n">
-        <v>-75.05565640305511</v>
+        <v>-22.51669692091653</v>
       </c>
       <c r="M22" t="n">
-        <v>-76.83627410750923</v>
+        <v>-23.05088223225277</v>
       </c>
       <c r="N22" t="n">
-        <v>-72.84222100054976</v>
+        <v>-21.85266630016493</v>
       </c>
       <c r="O22" t="n">
-        <v>-75.069594803588</v>
+        <v>-22.5208784410764</v>
       </c>
       <c r="P22" t="n">
-        <v>-73.60287408759125</v>
+        <v>-22.08086222627737</v>
       </c>
       <c r="Q22" t="n">
-        <v>-75.25933609958506</v>
+        <v>-22.57780082987552</v>
       </c>
       <c r="R22" t="n">
-        <v>-73.65693430656934</v>
+        <v>-22.0970802919708</v>
       </c>
       <c r="S22" t="n">
-        <v>-73.98463227222832</v>
+        <v>-22.1953896816685</v>
       </c>
       <c r="T22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U22" t="n">
-        <v>-78.89564205353679</v>
+        <v>-23.66869261606104</v>
       </c>
       <c r="V22" t="n">
-        <v>-75.23098791755508</v>
+        <v>-22.56929637526652</v>
       </c>
       <c r="W22" t="n">
-        <v>-72.20617019293503</v>
+        <v>-21.66185105788051</v>
       </c>
       <c r="X22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y22" t="n">
-        <v>-71.35293561501371</v>
+        <v>-21.40588068450412</v>
       </c>
       <c r="Z22" t="n">
-        <v>-75.19646763347646</v>
+        <v>-22.55894029004294</v>
       </c>
       <c r="AA22" t="n">
-        <v>-73.90810621942697</v>
+        <v>-22.17243186582809</v>
       </c>
       <c r="AB22" t="n">
-        <v>-74.50274164068379</v>
+        <v>-22.35082249220514</v>
       </c>
       <c r="AC22" t="n">
-        <v>-72.08353336533845</v>
+        <v>-21.62506000960154</v>
       </c>
       <c r="AD22" t="n">
-        <v>-72.64167393199651</v>
+        <v>-21.79250217959895</v>
       </c>
       <c r="AE22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF22" t="n">
-        <v>-76.15606936416185</v>
+        <v>-22.84682080924856</v>
       </c>
       <c r="AG22" t="n">
-        <v>-74.25788497217069</v>
+        <v>-22.27736549165121</v>
       </c>
       <c r="AH22" t="n">
-        <v>-74.14658800914725</v>
+        <v>-22.24397640274417</v>
       </c>
       <c r="AI22" t="n">
-        <v>-71.47747349823321</v>
+        <v>-21.44324204946997</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-73.00456866433754</v>
+        <v>-21.90137059930126</v>
       </c>
       <c r="AK22" t="n">
-        <v>-75.22839832668173</v>
+        <v>-22.56851949800452</v>
       </c>
       <c r="AL22" t="n">
-        <v>-73.02405498281786</v>
+        <v>-21.90721649484536</v>
       </c>
       <c r="AM22" t="n">
-        <v>-77.40112994350282</v>
+        <v>-23.22033898305085</v>
       </c>
       <c r="AN22" t="n">
-        <v>-73.31306990881458</v>
+        <v>-21.99392097264437</v>
       </c>
       <c r="AO22" t="n">
-        <v>-72.68946395563771</v>
+        <v>-21.80683918669131</v>
       </c>
       <c r="AP22" t="n">
-        <v>-74.00641816835349</v>
+        <v>-22.20192545050605</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-74.08993576017131</v>
+        <v>-22.22698072805139</v>
       </c>
       <c r="AR22" t="n">
-        <v>-75.05633450175263</v>
+        <v>-22.51690035052579</v>
       </c>
       <c r="AS22" t="n">
-        <v>-78.15337684449489</v>
+        <v>-23.44601305334847</v>
       </c>
       <c r="AT22" t="n">
-        <v>-75.17926089354661</v>
+        <v>-22.55377826806398</v>
       </c>
       <c r="AU22" t="n">
-        <v>-72.91446673706442</v>
+        <v>-21.87434002111932</v>
       </c>
       <c r="AV22" t="n">
-        <v>-79.56418836203379</v>
+        <v>-23.86925650861014</v>
       </c>
       <c r="AW22" t="n">
-        <v>-74.19035846724351</v>
+        <v>-22.25710754017305</v>
       </c>
       <c r="AX22" t="n">
-        <v>-72.91594000697593</v>
+        <v>-21.87478200209278</v>
       </c>
       <c r="AY22" t="n">
-        <v>-74.75326589950448</v>
+        <v>-22.42597976985135</v>
       </c>
       <c r="AZ22" t="n">
-        <v>-73.43519882179676</v>
+        <v>-22.03055964653903</v>
       </c>
       <c r="BA22" t="n">
-        <v>-74.07599197359053</v>
+        <v>-22.22279759207716</v>
       </c>
       <c r="BB22" t="n">
-        <v>-74.66627509611278</v>
+        <v>-22.39988252883383</v>
       </c>
       <c r="BC22" t="n">
-        <v>-74.94406196213426</v>
+        <v>-22.48321858864028</v>
       </c>
       <c r="BD22" t="n">
-        <v>-75.20427705075008</v>
+        <v>-22.56128311522502</v>
       </c>
       <c r="BE22" t="n">
-        <v>-74.77617479241083</v>
+        <v>-22.43285243772324</v>
       </c>
       <c r="BF22" t="n">
-        <v>-72.85372848948374</v>
+        <v>-21.85611854684512</v>
       </c>
       <c r="BG22" t="n">
-        <v>-74.10567192280536</v>
+        <v>-22.23170157684161</v>
       </c>
       <c r="BH22" t="n">
-        <v>-75.47061499469272</v>
+        <v>-22.64118449840782</v>
       </c>
       <c r="BI22" t="n">
-        <v>-73.86645534729878</v>
+        <v>-22.15993660418964</v>
       </c>
       <c r="BJ22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL22" t="n">
-        <v>-73.26732673267327</v>
+        <v>-21.98019801980198</v>
       </c>
       <c r="BM22" t="n">
-        <v>-71.73601147776183</v>
+        <v>-21.52080344332855</v>
       </c>
       <c r="BN22" t="n">
-        <v>-70.63292728871029</v>
+        <v>-21.18987818661309</v>
       </c>
       <c r="BO22" t="n">
-        <v>-70.89274643521388</v>
+        <v>-21.26782393056417</v>
       </c>
       <c r="BP22" t="n">
-        <v>-70.8142087407703</v>
+        <v>-21.24426262223109</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-74.21959581378563</v>
+        <v>-22.26587874413569</v>
       </c>
       <c r="BR22" t="n">
-        <v>-71.3410138248848</v>
+        <v>-21.40230414746544</v>
       </c>
       <c r="BS22" t="n">
-        <v>-73.8022230739747</v>
+        <v>-22.14066692219241</v>
       </c>
       <c r="BT22" t="n">
-        <v>-73.31051696101048</v>
+        <v>-21.99315508830314</v>
       </c>
       <c r="BU22" t="n">
-        <v>-75.66072526121697</v>
+        <v>-22.69821757836509</v>
       </c>
       <c r="BV22" t="n">
-        <v>-75.34453274318479</v>
+        <v>-22.60335982295544</v>
       </c>
       <c r="BW22" t="n">
-        <v>-73.64564596339011</v>
+        <v>-22.09369378901703</v>
       </c>
       <c r="BX22" t="n">
-        <v>-77.51885775862068</v>
+        <v>-23.25565732758621</v>
       </c>
       <c r="BY22" t="n">
-        <v>-74.71219836174453</v>
+        <v>-22.41365950852336</v>
       </c>
       <c r="BZ22" t="n">
-        <v>-75.03162155325069</v>
+        <v>-22.50948646597521</v>
       </c>
       <c r="CA22" t="n">
-        <v>-72.59385994505759</v>
+        <v>-21.77815798351728</v>
       </c>
       <c r="CB22" t="n">
-        <v>-71.7069758145113</v>
+        <v>-21.51209274435339</v>
       </c>
       <c r="CC22" t="n">
-        <v>-74.05016008537886</v>
+        <v>-22.21504802561366</v>
       </c>
       <c r="CD22" t="n">
-        <v>-72.16300940438872</v>
+        <v>-21.64890282131661</v>
       </c>
       <c r="CE22" t="n">
-        <v>-78.59241639848888</v>
+        <v>-23.57772491954666</v>
       </c>
       <c r="CF22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH22" t="n">
-        <v>-74.43067954089997</v>
+        <v>-22.32920386227</v>
       </c>
       <c r="CI22" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="23">
@@ -6442,262 +6442,262 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C23" t="n">
-        <v>68.29297674978919</v>
+        <v>20.48789302493676</v>
       </c>
       <c r="D23" t="n">
-        <v>49.62406015037594</v>
+        <v>14.88721804511278</v>
       </c>
       <c r="E23" t="n">
-        <v>40.93789607097592</v>
+        <v>12.28136882129278</v>
       </c>
       <c r="F23" t="n">
-        <v>58.71446229913473</v>
+        <v>17.61433868974042</v>
       </c>
       <c r="G23" t="n">
-        <v>58.49201769571071</v>
+        <v>17.54760530871321</v>
       </c>
       <c r="H23" t="n">
-        <v>48.61329147043433</v>
+        <v>14.5839874411303</v>
       </c>
       <c r="I23" t="n">
-        <v>47.04353476283302</v>
+        <v>14.11306042884991</v>
       </c>
       <c r="J23" t="n">
-        <v>56.69666490206458</v>
+        <v>17.00899947061938</v>
       </c>
       <c r="K23" t="n">
-        <v>67.38022426095822</v>
+        <v>20.21406727828746</v>
       </c>
       <c r="L23" t="n">
-        <v>39.00865028147741</v>
+        <v>11.70259508444322</v>
       </c>
       <c r="M23" t="n">
-        <v>47.74136403897254</v>
+        <v>14.32240921169176</v>
       </c>
       <c r="N23" t="n">
-        <v>41.29554655870445</v>
+        <v>12.38866396761134</v>
       </c>
       <c r="O23" t="n">
-        <v>60.46319272125723</v>
+        <v>18.13895781637717</v>
       </c>
       <c r="P23" t="n">
-        <v>53.25124216893497</v>
+        <v>15.97537265068049</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.55620061280438</v>
+        <v>15.46686018384131</v>
       </c>
       <c r="R23" t="n">
-        <v>46.93821003047937</v>
+        <v>14.08146300914381</v>
       </c>
       <c r="S23" t="n">
-        <v>41.93443687114574</v>
+        <v>12.58033106134372</v>
       </c>
       <c r="T23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U23" t="n">
-        <v>49.1421568627451</v>
+        <v>14.74264705882353</v>
       </c>
       <c r="V23" t="n">
-        <v>62.55380200860832</v>
+        <v>18.7661406025825</v>
       </c>
       <c r="W23" t="n">
-        <v>53.11871227364185</v>
+        <v>15.93561368209256</v>
       </c>
       <c r="X23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.90759075907592</v>
+        <v>16.77227722772277</v>
       </c>
       <c r="Z23" t="n">
-        <v>68.6754858729381</v>
+        <v>20.60264576188143</v>
       </c>
       <c r="AA23" t="n">
-        <v>52.25979243388015</v>
+        <v>15.67793773016404</v>
       </c>
       <c r="AB23" t="n">
-        <v>62.17583807716635</v>
+        <v>18.6527514231499</v>
       </c>
       <c r="AC23" t="n">
-        <v>49.61306964746346</v>
+        <v>14.88392089423904</v>
       </c>
       <c r="AD23" t="n">
-        <v>63.22498406628425</v>
+        <v>18.96749521988528</v>
       </c>
       <c r="AE23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF23" t="n">
-        <v>62.97520661157024</v>
+        <v>18.89256198347107</v>
       </c>
       <c r="AG23" t="n">
-        <v>49.72972972972973</v>
+        <v>14.91891891891892</v>
       </c>
       <c r="AH23" t="n">
-        <v>46.35772201390891</v>
+        <v>13.90731660417267</v>
       </c>
       <c r="AI23" t="n">
-        <v>46.61246612466124</v>
+        <v>13.98373983739837</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55.15181682429069</v>
+        <v>16.54554504728721</v>
       </c>
       <c r="AK23" t="n">
-        <v>57.7813364390741</v>
+        <v>17.33440093172223</v>
       </c>
       <c r="AL23" t="n">
-        <v>46.00141542816701</v>
+        <v>13.8004246284501</v>
       </c>
       <c r="AM23" t="n">
-        <v>51.66666666666666</v>
+        <v>15.5</v>
       </c>
       <c r="AN23" t="n">
-        <v>48.51936218678816</v>
+        <v>14.55580865603645</v>
       </c>
       <c r="AO23" t="n">
-        <v>35.92780597856741</v>
+        <v>10.77834179357022</v>
       </c>
       <c r="AP23" t="n">
-        <v>48.90788224121556</v>
+        <v>14.67236467236467</v>
       </c>
       <c r="AQ23" t="n">
-        <v>46.55647382920111</v>
+        <v>13.96694214876033</v>
       </c>
       <c r="AR23" t="n">
-        <v>61.50564617314931</v>
+        <v>18.45169385194479</v>
       </c>
       <c r="AS23" t="n">
-        <v>58.26162255777454</v>
+        <v>17.47848676733236</v>
       </c>
       <c r="AT23" t="n">
-        <v>56.22222222222221</v>
+        <v>16.86666666666667</v>
       </c>
       <c r="AU23" t="n">
-        <v>40.0259909031839</v>
+        <v>12.00779727095517</v>
       </c>
       <c r="AV23" t="n">
-        <v>51.4776357827476</v>
+        <v>15.44329073482428</v>
       </c>
       <c r="AW23" t="n">
-        <v>59.70625798212005</v>
+        <v>17.91187739463602</v>
       </c>
       <c r="AX23" t="n">
-        <v>43.07791371538957</v>
+        <v>12.92337411461687</v>
       </c>
       <c r="AY23" t="n">
-        <v>60.76236820762367</v>
+        <v>18.2287104622871</v>
       </c>
       <c r="AZ23" t="n">
-        <v>67.84476784476784</v>
+        <v>20.35343035343035</v>
       </c>
       <c r="BA23" t="n">
-        <v>51.6354556803995</v>
+        <v>15.49063670411985</v>
       </c>
       <c r="BB23" t="n">
-        <v>72.07292654652757</v>
+        <v>21.62187796395827</v>
       </c>
       <c r="BC23" t="n">
-        <v>67.26773140992614</v>
+        <v>20.18031942297785</v>
       </c>
       <c r="BD23" t="n">
-        <v>64.93531569801119</v>
+        <v>19.48059470940336</v>
       </c>
       <c r="BE23" t="n">
-        <v>60.18390804597702</v>
+        <v>18.05517241379311</v>
       </c>
       <c r="BF23" t="n">
-        <v>61.33122028526149</v>
+        <v>18.39936608557845</v>
       </c>
       <c r="BG23" t="n">
-        <v>59.3274255850943</v>
+        <v>17.79822767552829</v>
       </c>
       <c r="BH23" t="n">
-        <v>60.46275444871286</v>
+        <v>18.13882633461386</v>
       </c>
       <c r="BI23" t="n">
-        <v>42.98395956932543</v>
+        <v>12.89518787079763</v>
       </c>
       <c r="BJ23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL23" t="n">
-        <v>61.30050505050505</v>
+        <v>18.39015151515152</v>
       </c>
       <c r="BM23" t="n">
-        <v>87.14043993231812</v>
+        <v>26.14213197969544</v>
       </c>
       <c r="BN23" t="n">
-        <v>41.92858670087662</v>
+        <v>12.57857601026299</v>
       </c>
       <c r="BO23" t="n">
-        <v>48.24281150159744</v>
+        <v>14.47284345047923</v>
       </c>
       <c r="BP23" t="n">
-        <v>72.991452991453</v>
+        <v>21.8974358974359</v>
       </c>
       <c r="BQ23" t="n">
-        <v>69.04636920384952</v>
+        <v>20.71391076115486</v>
       </c>
       <c r="BR23" t="n">
-        <v>58.28911400546713</v>
+        <v>17.48673420164014</v>
       </c>
       <c r="BS23" t="n">
-        <v>57.15679102657889</v>
+        <v>17.14703730797367</v>
       </c>
       <c r="BT23" t="n">
-        <v>63.98157987956075</v>
+        <v>19.19447396386822</v>
       </c>
       <c r="BU23" t="n">
-        <v>64.28345959595958</v>
+        <v>19.28503787878788</v>
       </c>
       <c r="BV23" t="n">
-        <v>47.98041615667075</v>
+        <v>14.39412484700122</v>
       </c>
       <c r="BW23" t="n">
-        <v>36.66566295292584</v>
+        <v>10.99969888587775</v>
       </c>
       <c r="BX23" t="n">
-        <v>59.17715198721789</v>
+        <v>17.75314559616537</v>
       </c>
       <c r="BY23" t="n">
-        <v>46.81549573210768</v>
+        <v>14.0446487196323</v>
       </c>
       <c r="BZ23" t="n">
-        <v>58.4599797365755</v>
+        <v>17.53799392097265</v>
       </c>
       <c r="CA23" t="n">
-        <v>50.60230370174975</v>
+        <v>15.18069111052493</v>
       </c>
       <c r="CB23" t="n">
-        <v>56.24632049923465</v>
+        <v>16.8738961497704</v>
       </c>
       <c r="CC23" t="n">
-        <v>64.05511001439442</v>
+        <v>19.21653300431832</v>
       </c>
       <c r="CD23" t="n">
-        <v>67.11711711711712</v>
+        <v>20.13513513513514</v>
       </c>
       <c r="CE23" t="n">
-        <v>57.90849673202615</v>
+        <v>17.37254901960785</v>
       </c>
       <c r="CF23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH23" t="n">
-        <v>62.07101294383088</v>
+        <v>18.62130388314927</v>
       </c>
       <c r="CI23" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="24">
@@ -6707,262 +6707,262 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C24" t="n">
-        <v>69.17680744452397</v>
+        <v>20.75304223335719</v>
       </c>
       <c r="D24" t="n">
-        <v>86.80904522613065</v>
+        <v>26.0427135678392</v>
       </c>
       <c r="E24" t="n">
-        <v>79.85611510791365</v>
+        <v>23.9568345323741</v>
       </c>
       <c r="F24" t="n">
-        <v>75.00519210799585</v>
+        <v>22.50155763239876</v>
       </c>
       <c r="G24" t="n">
-        <v>66.55339805825244</v>
+        <v>19.96601941747574</v>
       </c>
       <c r="H24" t="n">
-        <v>64.50704225352113</v>
+        <v>19.35211267605634</v>
       </c>
       <c r="I24" t="n">
-        <v>87.53866548828988</v>
+        <v>26.26159964648696</v>
       </c>
       <c r="J24" t="n">
-        <v>79.5945945945946</v>
+        <v>23.87837837837838</v>
       </c>
       <c r="K24" t="n">
-        <v>76.95899309784814</v>
+        <v>23.08769792935444</v>
       </c>
       <c r="L24" t="n">
-        <v>72.67219807717633</v>
+        <v>21.8016594231529</v>
       </c>
       <c r="M24" t="n">
-        <v>78.85691446842526</v>
+        <v>23.65707434052758</v>
       </c>
       <c r="N24" t="n">
-        <v>69.31709646609359</v>
+        <v>20.79512893982807</v>
       </c>
       <c r="O24" t="n">
-        <v>75.67010309278352</v>
+        <v>22.70103092783505</v>
       </c>
       <c r="P24" t="n">
-        <v>68.67775585001409</v>
+        <v>20.60332675500423</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.20791657799532</v>
+        <v>23.1623749733986</v>
       </c>
       <c r="R24" t="n">
-        <v>71.52555157458042</v>
+        <v>21.45766547237412</v>
       </c>
       <c r="S24" t="n">
-        <v>65.58426709352845</v>
+        <v>19.67528012805854</v>
       </c>
       <c r="T24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U24" t="n">
-        <v>74.60969597370584</v>
+        <v>22.38290879211175</v>
       </c>
       <c r="V24" t="n">
-        <v>70.57958223006767</v>
+        <v>21.1738746690203</v>
       </c>
       <c r="W24" t="n">
-        <v>73.98160315374507</v>
+        <v>22.19448094612352</v>
       </c>
       <c r="X24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y24" t="n">
-        <v>60.965283657917</v>
+        <v>18.2895850973751</v>
       </c>
       <c r="Z24" t="n">
-        <v>70.81719597211466</v>
+        <v>21.2451587916344</v>
       </c>
       <c r="AA24" t="n">
-        <v>62.76751685722662</v>
+        <v>18.83025505716799</v>
       </c>
       <c r="AB24" t="n">
-        <v>53.84815392615704</v>
+        <v>16.15444617784711</v>
       </c>
       <c r="AC24" t="n">
-        <v>73.75478927203066</v>
+        <v>22.1264367816092</v>
       </c>
       <c r="AD24" t="n">
-        <v>74.61928934010153</v>
+        <v>22.38578680203046</v>
       </c>
       <c r="AE24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF24" t="n">
-        <v>84.04327248140636</v>
+        <v>25.21298174442191</v>
       </c>
       <c r="AG24" t="n">
-        <v>86.40192539109508</v>
+        <v>25.92057761732853</v>
       </c>
       <c r="AH24" t="n">
-        <v>80.44582639922923</v>
+        <v>24.13374791976877</v>
       </c>
       <c r="AI24" t="n">
-        <v>84.26194877211515</v>
+        <v>25.27858463163454</v>
       </c>
       <c r="AJ24" t="n">
-        <v>71.10469468506041</v>
+        <v>21.33140840551812</v>
       </c>
       <c r="AK24" t="n">
-        <v>78.24936950236822</v>
+        <v>23.47481085071047</v>
       </c>
       <c r="AL24" t="n">
-        <v>92.99563742123124</v>
+        <v>27.89869122636937</v>
       </c>
       <c r="AM24" t="n">
-        <v>100.8241758241758</v>
+        <v>30.24725274725274</v>
       </c>
       <c r="AN24" t="n">
-        <v>99.84662576687117</v>
+        <v>29.95398773006135</v>
       </c>
       <c r="AO24" t="n">
-        <v>78.67219917012447</v>
+        <v>23.60165975103734</v>
       </c>
       <c r="AP24" t="n">
-        <v>72.38520408163266</v>
+        <v>21.7155612244898</v>
       </c>
       <c r="AQ24" t="n">
-        <v>97.4624060150376</v>
+        <v>29.23872180451128</v>
       </c>
       <c r="AR24" t="n">
-        <v>80.40190594572198</v>
+        <v>24.12057178371659</v>
       </c>
       <c r="AS24" t="n">
-        <v>70.5765679502086</v>
+        <v>21.17297038506258</v>
       </c>
       <c r="AT24" t="n">
-        <v>79.23186344238977</v>
+        <v>23.76955903271693</v>
       </c>
       <c r="AU24" t="n">
-        <v>87.05336426914153</v>
+        <v>26.11600928074246</v>
       </c>
       <c r="AV24" t="n">
-        <v>66.09543896651728</v>
+        <v>19.82863168995518</v>
       </c>
       <c r="AW24" t="n">
-        <v>77.96881247501003</v>
+        <v>23.39064374250301</v>
       </c>
       <c r="AX24" t="n">
-        <v>88.20882088208822</v>
+        <v>26.46264626462646</v>
       </c>
       <c r="AY24" t="n">
-        <v>79.09393603067301</v>
+        <v>23.7281808092019</v>
       </c>
       <c r="AZ24" t="n">
-        <v>71.6969446738233</v>
+        <v>21.50908340214699</v>
       </c>
       <c r="BA24" t="n">
-        <v>75.36637576156761</v>
+        <v>22.60991272847028</v>
       </c>
       <c r="BB24" t="n">
-        <v>75.62469377756</v>
+        <v>22.687408133268</v>
       </c>
       <c r="BC24" t="n">
-        <v>72.217659137577</v>
+        <v>21.6652977412731</v>
       </c>
       <c r="BD24" t="n">
-        <v>73.37079528603763</v>
+        <v>22.01123858581129</v>
       </c>
       <c r="BE24" t="n">
-        <v>79.79334098737083</v>
+        <v>23.93800229621125</v>
       </c>
       <c r="BF24" t="n">
-        <v>72.71338135778215</v>
+        <v>21.81401440733465</v>
       </c>
       <c r="BG24" t="n">
-        <v>78.77923559612093</v>
+        <v>23.63377067883628</v>
       </c>
       <c r="BH24" t="n">
-        <v>64.64501926252063</v>
+        <v>19.39350577875619</v>
       </c>
       <c r="BI24" t="n">
-        <v>66.46176542906316</v>
+        <v>19.93852962871895</v>
       </c>
       <c r="BJ24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL24" t="n">
-        <v>73.20287018917155</v>
+        <v>21.96086105675146</v>
       </c>
       <c r="BM24" t="n">
-        <v>76.13019891500905</v>
+        <v>22.83905967450271</v>
       </c>
       <c r="BN24" t="n">
-        <v>85.11599879481773</v>
+        <v>25.53479963844532</v>
       </c>
       <c r="BO24" t="n">
-        <v>47.55747126436781</v>
+        <v>14.26724137931034</v>
       </c>
       <c r="BP24" t="n">
-        <v>82.41106719367586</v>
+        <v>24.72332015810276</v>
       </c>
       <c r="BQ24" t="n">
-        <v>82.07224924956007</v>
+        <v>24.62167477486802</v>
       </c>
       <c r="BR24" t="n">
-        <v>71.51564404713531</v>
+        <v>21.45469321414059</v>
       </c>
       <c r="BS24" t="n">
-        <v>70.04654771140417</v>
+        <v>21.01396431342125</v>
       </c>
       <c r="BT24" t="n">
-        <v>66.10213427806102</v>
+        <v>19.8306402834183</v>
       </c>
       <c r="BU24" t="n">
-        <v>73.109808819291</v>
+        <v>21.9329426457873</v>
       </c>
       <c r="BV24" t="n">
-        <v>81.11386821064241</v>
+        <v>24.33416046319272</v>
       </c>
       <c r="BW24" t="n">
-        <v>81.68331374853113</v>
+        <v>24.50499412455934</v>
       </c>
       <c r="BX24" t="n">
-        <v>71.41781681304894</v>
+        <v>21.42534504391468</v>
       </c>
       <c r="BY24" t="n">
-        <v>63.44663088849135</v>
+        <v>19.0339892665474</v>
       </c>
       <c r="BZ24" t="n">
-        <v>62.53196930946291</v>
+        <v>18.75959079283887</v>
       </c>
       <c r="CA24" t="n">
-        <v>67.26996730499766</v>
+        <v>20.1809901914993</v>
       </c>
       <c r="CB24" t="n">
-        <v>59.56292388847024</v>
+        <v>17.86887716654107</v>
       </c>
       <c r="CC24" t="n">
-        <v>69.66658310353471</v>
+        <v>20.89997493106041</v>
       </c>
       <c r="CD24" t="n">
-        <v>44.60916442048518</v>
+        <v>13.38274932614555</v>
       </c>
       <c r="CE24" t="n">
-        <v>63.65894039735098</v>
+        <v>19.0976821192053</v>
       </c>
       <c r="CF24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH24" t="n">
-        <v>81.44783118405627</v>
+        <v>24.43434935521688</v>
       </c>
       <c r="CI24" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="25">
@@ -6972,262 +6972,262 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="C25" t="n">
-        <v>34.78040111703478</v>
+        <v>10.43412033511043</v>
       </c>
       <c r="D25" t="n">
-        <v>41.62743779421654</v>
+        <v>12.48823133826496</v>
       </c>
       <c r="E25" t="n">
-        <v>41.85</v>
+        <v>12.555</v>
       </c>
       <c r="F25" t="n">
-        <v>39.38764611641843</v>
+        <v>11.81629383492553</v>
       </c>
       <c r="G25" t="n">
-        <v>39.62401632177206</v>
+        <v>11.88720489653162</v>
       </c>
       <c r="H25" t="n">
-        <v>49.05821917808219</v>
+        <v>14.71746575342466</v>
       </c>
       <c r="I25" t="n">
-        <v>43.92082940622054</v>
+        <v>13.17624882186616</v>
       </c>
       <c r="J25" t="n">
-        <v>39.74166039628794</v>
+        <v>11.92249811888638</v>
       </c>
       <c r="K25" t="n">
-        <v>37.11139153378456</v>
+        <v>11.13341746013537</v>
       </c>
       <c r="L25" t="n">
-        <v>46.14827244298682</v>
+        <v>13.84448173289605</v>
       </c>
       <c r="M25" t="n">
-        <v>48.804469273743</v>
+        <v>14.6413407821229</v>
       </c>
       <c r="N25" t="n">
-        <v>49.41475109293471</v>
+        <v>14.82442532788041</v>
       </c>
       <c r="O25" t="n">
-        <v>44.01408450704226</v>
+        <v>13.20422535211268</v>
       </c>
       <c r="P25" t="n">
-        <v>45.39528664549557</v>
+        <v>13.61858599364867</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.20787798727034</v>
+        <v>14.1623633961811</v>
       </c>
       <c r="R25" t="n">
-        <v>43.52462620932279</v>
+        <v>13.05738786279684</v>
       </c>
       <c r="S25" t="n">
-        <v>51.33268885513051</v>
+        <v>15.39980665653916</v>
       </c>
       <c r="T25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="U25" t="n">
-        <v>39.76470588235293</v>
+        <v>11.92941176470588</v>
       </c>
       <c r="V25" t="n">
-        <v>40.10003449465331</v>
+        <v>12.03001034839599</v>
       </c>
       <c r="W25" t="n">
-        <v>40.25679758308157</v>
+        <v>12.07703927492447</v>
       </c>
       <c r="X25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.50710152551289</v>
+        <v>10.95213045765387</v>
       </c>
       <c r="Z25" t="n">
-        <v>40.5509579412765</v>
+        <v>12.16528738238295</v>
       </c>
       <c r="AA25" t="n">
-        <v>40.57997118155618</v>
+        <v>12.17399135446685</v>
       </c>
       <c r="AB25" t="n">
-        <v>36.35288152780126</v>
+        <v>10.90586445834038</v>
       </c>
       <c r="AC25" t="n">
-        <v>43.99117971334066</v>
+        <v>13.1973539140022</v>
       </c>
       <c r="AD25" t="n">
-        <v>40.63059033989267</v>
+        <v>12.1891771019678</v>
       </c>
       <c r="AE25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="AF25" t="n">
-        <v>48.27332843497427</v>
+        <v>14.48199853049228</v>
       </c>
       <c r="AG25" t="n">
-        <v>42.60813428018076</v>
+        <v>12.78244028405423</v>
       </c>
       <c r="AH25" t="n">
-        <v>49.27553818896682</v>
+        <v>14.78266145669004</v>
       </c>
       <c r="AI25" t="n">
-        <v>40.26941817139581</v>
+        <v>12.08082545141874</v>
       </c>
       <c r="AJ25" t="n">
-        <v>38.49375000000001</v>
+        <v>11.548125</v>
       </c>
       <c r="AK25" t="n">
-        <v>42.01118089585202</v>
+        <v>12.60335426875561</v>
       </c>
       <c r="AL25" t="n">
-        <v>50.74720582694964</v>
+        <v>15.22416174808489</v>
       </c>
       <c r="AM25" t="n">
-        <v>53.89876880984953</v>
+        <v>16.16963064295486</v>
       </c>
       <c r="AN25" t="n">
-        <v>40.93118444614991</v>
+        <v>12.27935533384497</v>
       </c>
       <c r="AO25" t="n">
-        <v>50.5341384115188</v>
+        <v>15.16024152345564</v>
       </c>
       <c r="AP25" t="n">
-        <v>52.97817240103587</v>
+        <v>15.89345172031076</v>
       </c>
       <c r="AQ25" t="n">
-        <v>51.21370775821037</v>
+        <v>15.36411232746311</v>
       </c>
       <c r="AR25" t="n">
-        <v>41.55374368396876</v>
+        <v>12.46612310519063</v>
       </c>
       <c r="AS25" t="n">
-        <v>40.37690457097032</v>
+        <v>12.1130713712911</v>
       </c>
       <c r="AT25" t="n">
-        <v>43.22751322751323</v>
+        <v>12.96825396825397</v>
       </c>
       <c r="AU25" t="n">
-        <v>39.49392210369634</v>
+        <v>11.8481766311089</v>
       </c>
       <c r="AV25" t="n">
-        <v>42.16931216931216</v>
+        <v>12.65079365079365</v>
       </c>
       <c r="AW25" t="n">
-        <v>40.125814423725</v>
+        <v>12.0377443271175</v>
       </c>
       <c r="AX25" t="n">
-        <v>41.65471066475371</v>
+        <v>12.49641319942611</v>
       </c>
       <c r="AY25" t="n">
-        <v>41.13239436619718</v>
+        <v>12.33971830985915</v>
       </c>
       <c r="AZ25" t="n">
-        <v>38.22291691715763</v>
+        <v>11.46687507514729</v>
       </c>
       <c r="BA25" t="n">
-        <v>39.22535211267606</v>
+        <v>11.76760563380282</v>
       </c>
       <c r="BB25" t="n">
-        <v>39.54526433254289</v>
+        <v>11.86357929976287</v>
       </c>
       <c r="BC25" t="n">
-        <v>43.04280434005008</v>
+        <v>12.91284130201502</v>
       </c>
       <c r="BD25" t="n">
-        <v>40.21788061582784</v>
+        <v>12.06536418474835</v>
       </c>
       <c r="BE25" t="n">
-        <v>45.24904214559387</v>
+        <v>13.57471264367816</v>
       </c>
       <c r="BF25" t="n">
-        <v>36.09706774519717</v>
+        <v>10.82912032355915</v>
       </c>
       <c r="BG25" t="n">
-        <v>41.04977664326738</v>
+        <v>12.31493299298021</v>
       </c>
       <c r="BH25" t="n">
-        <v>47.7135980746089</v>
+        <v>14.31407942238267</v>
       </c>
       <c r="BI25" t="n">
-        <v>44.07311669128509</v>
+        <v>13.22193500738553</v>
       </c>
       <c r="BJ25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BK25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="BL25" t="n">
-        <v>44.01175052726726</v>
+        <v>13.20352515818018</v>
       </c>
       <c r="BM25" t="n">
-        <v>33.57289527720739</v>
+        <v>10.07186858316222</v>
       </c>
       <c r="BN25" t="n">
-        <v>40.83658854166667</v>
+        <v>12.2509765625</v>
       </c>
       <c r="BO25" t="n">
-        <v>40.11684518013634</v>
+        <v>12.0350535540409</v>
       </c>
       <c r="BP25" t="n">
-        <v>36.07800650054173</v>
+        <v>10.82340195016252</v>
       </c>
       <c r="BQ25" t="n">
-        <v>38.90278567367823</v>
+        <v>11.67083570210347</v>
       </c>
       <c r="BR25" t="n">
-        <v>40.03790570954749</v>
+        <v>12.01137171286425</v>
       </c>
       <c r="BS25" t="n">
-        <v>40.77740772845476</v>
+        <v>12.23322231853643</v>
       </c>
       <c r="BT25" t="n">
-        <v>35.84768246371532</v>
+        <v>10.7543047391146</v>
       </c>
       <c r="BU25" t="n">
-        <v>42.5328819579333</v>
+        <v>12.75986458737999</v>
       </c>
       <c r="BV25" t="n">
-        <v>49.95686811792763</v>
+        <v>14.98706043537829</v>
       </c>
       <c r="BW25" t="n">
-        <v>47.98286037674831</v>
+        <v>14.39485811302449</v>
       </c>
       <c r="BX25" t="n">
-        <v>40.84321475625823</v>
+        <v>12.25296442687747</v>
       </c>
       <c r="BY25" t="n">
-        <v>42.9222911346224</v>
+        <v>12.87668734038672</v>
       </c>
       <c r="BZ25" t="n">
-        <v>41.30605822187253</v>
+        <v>12.39181746656176</v>
       </c>
       <c r="CA25" t="n">
-        <v>43.05061082024434</v>
+        <v>12.9151832460733</v>
       </c>
       <c r="CB25" t="n">
-        <v>41.98545385850572</v>
+        <v>12.59563615755172</v>
       </c>
       <c r="CC25" t="n">
-        <v>35.71217494089834</v>
+        <v>10.7136524822695</v>
       </c>
       <c r="CD25" t="n">
-        <v>51.35135135135135</v>
+        <v>15.40540540540541</v>
       </c>
       <c r="CE25" t="n">
-        <v>48.05260495700556</v>
+        <v>14.41578148710167</v>
       </c>
       <c r="CF25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CG25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="CH25" t="n">
-        <v>41.74608302374415</v>
+        <v>12.52382490712324</v>
       </c>
       <c r="CI25" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
